--- a/public/preprocessing/@UAS_AbdulSomad.xlsx
+++ b/public/preprocessing/@UAS_AbdulSomad.xlsx
@@ -475,34 +475,30 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10261</v>
+        <v>13850</v>
       </c>
       <c r="C2" t="n">
-        <v>141</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>santri di pulau karimata lagi nyantai</t>
-        </is>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['santri', 'di', 'pulau', 'karimata', 'lagi', 'nyantai']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['santri', 'pulau', 'karimata', 'nyantai']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['santri', 'pulau', 'karimata', 'nyantai']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -511,34 +507,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10262</v>
+        <v>13851</v>
       </c>
       <c r="C3" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>dukung terus channel youtube tabung wakaf umat official subscribe like and share berkah selalu jamaah</t>
+          <t>santri di pulau karimata lagi nyantai</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['dukung', 'terus', 'channel', 'youtube', 'tabung', 'wakaf', 'umat', 'official', 'subscribe', 'like', 'and', 'share', 'berkah', 'selalu', 'jamaah']</t>
+          <t>['santri', 'di', 'pulau', 'karimata', 'lagi', 'nyantai']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['dukung', 'channel', 'youtube', 'tabung', 'wakaf', 'umat', 'official', 'subscribe', 'like', 'and', 'share', 'berkah', 'jamaah']</t>
+          <t>['santri', 'pulau', 'karimata', 'nyantai']</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['dukung', 'channel', 'youtube', 'tabung', 'wakaf', 'umat', 'official', 'subscribe', 'like', 'and', 'share', 'berkah', 'jamaah']</t>
+          <t>['santri', 'pulau', 'karimata', 'nyantai']</t>
         </is>
       </c>
     </row>
@@ -547,34 +543,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10263</v>
+        <v>13852</v>
       </c>
       <c r="C4" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>terima kasih kpd para jamaah yang telah menjadi subscriber viewer lovers sharer dan semua pihak yg terlibat</t>
+          <t>dukung terus channel youtube tabung wakaf umat official subscribe like and share berkah selalu jamaah</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'kpd', 'para', 'jamaah', 'yang', 'telah', 'menjadi', 'subscriber', 'viewer', 'lovers', 'sharer', 'dan', 'semua', 'pihak', 'yg', 'terlibat']</t>
+          <t>['dukung', 'terus', 'channel', 'youtube', 'tabung', 'wakaf', 'umat', 'official', 'subscribe', 'like', 'and', 'share', 'berkah', 'selalu', 'jamaah']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'kpd', 'jamaah', 'subscriber', 'viewer', 'lovers', 'sharer', 'terlibat']</t>
+          <t>['dukung', 'channel', 'youtube', 'tabung', 'wakaf', 'umat', 'official', 'subscribe', 'like', 'and', 'share', 'berkah', 'jamaah']</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'kpd', 'jamaah', 'subscriber', 'viewer', 'lovers', 'sharer', 'libat']</t>
+          <t>['dukung', 'channel', 'youtube', 'tabung', 'wakaf', 'umat', 'official', 'subscribe', 'like', 'and', 'share', 'berkah', 'jamaah']</t>
         </is>
       </c>
     </row>
@@ -583,34 +579,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10264</v>
+        <v>13853</v>
       </c>
       <c r="C5" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>hasil monetisasi ini insya allah akan digunakan untuk membeli beras untuk santri anak yatim dan masyarakat dhuafa</t>
+          <t>terima kasih kpd para jamaah yang telah menjadi subscriber viewer lovers sharer dan semua pihak yg terlibat</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['hasil', 'monetisasi', 'ini', 'insya', 'allah', 'akan', 'digunakan', 'untuk', 'membeli', 'beras', 'untuk', 'santri', 'anak', 'yatim', 'dan', 'masyarakat', 'dhuafa']</t>
+          <t>['terima', 'kasih', 'kpd', 'para', 'jamaah', 'yang', 'telah', 'menjadi', 'subscriber', 'viewer', 'lovers', 'sharer', 'dan', 'semua', 'pihak', 'yg', 'terlibat']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['hasil', 'monetisasi', 'insya', 'allah', 'membeli', 'beras', 'santri', 'anak', 'yatim', 'masyarakat', 'dhuafa']</t>
+          <t>['terima', 'kasih', 'kpd', 'jamaah', 'subscriber', 'viewer', 'lovers', 'sharer', 'terlibat']</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['hasil', 'monetisasi', 'insya', 'allah', 'beli', 'beras', 'santri', 'anak', 'yatim', 'masyarakat', 'dhuafa']</t>
+          <t>['terima', 'kasih', 'kpd', 'jamaah', 'subscriber', 'viewer', 'lovers', 'sharer', 'libat']</t>
         </is>
       </c>
     </row>
@@ -619,34 +615,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10265</v>
+        <v>13854</v>
       </c>
       <c r="C6" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>pada hari senin februari monetisasi channel youtube tabung wakaf umat official alhamdulillah masuk ke rek</t>
+          <t>hasil monetisasi ini insya allah akan digunakan untuk membeli beras untuk santri anak yatim dan masyarakat dhuafa</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['pada', 'hari', 'senin', 'februari', 'monetisasi', 'channel', 'youtube', 'tabung', 'wakaf', 'umat', 'official', 'alhamdulillah', 'masuk', 'ke', 'rek']</t>
+          <t>['hasil', 'monetisasi', 'ini', 'insya', 'allah', 'akan', 'digunakan', 'untuk', 'membeli', 'beras', 'untuk', 'santri', 'anak', 'yatim', 'dan', 'masyarakat', 'dhuafa']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['senin', 'februari', 'monetisasi', 'channel', 'youtube', 'tabung', 'wakaf', 'umat', 'official', 'alhamdulillah', 'masuk', 'rek']</t>
+          <t>['hasil', 'monetisasi', 'insya', 'allah', 'membeli', 'beras', 'santri', 'anak', 'yatim', 'masyarakat', 'dhuafa']</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['senin', 'februari', 'monetisasi', 'channel', 'youtube', 'tabung', 'wakaf', 'umat', 'official', 'alhamdulillah', 'masuk', 'rek']</t>
+          <t>['hasil', 'monetisasi', 'insya', 'allah', 'beli', 'beras', 'santri', 'anak', 'yatim', 'masyarakat', 'dhuafa']</t>
         </is>
       </c>
     </row>
@@ -655,34 +651,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10266</v>
+        <v>13855</v>
       </c>
       <c r="C7" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">alhamdulillah channel youtube tabung wakaf umat official sudah dilihat kali dan subscriber sebanyak </t>
+          <t>pada hari senin februari monetisasi channel youtube tabung wakaf umat official alhamdulillah masuk ke rek</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'channel', 'youtube', 'tabung', 'wakaf', 'umat', 'official', 'sudah', 'dilihat', 'kali', 'dan', 'subscriber', 'sebanyak']</t>
+          <t>['pada', 'hari', 'senin', 'februari', 'monetisasi', 'channel', 'youtube', 'tabung', 'wakaf', 'umat', 'official', 'alhamdulillah', 'masuk', 'ke', 'rek']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'channel', 'youtube', 'tabung', 'wakaf', 'umat', 'official', 'kali', 'subscriber']</t>
+          <t>['senin', 'februari', 'monetisasi', 'channel', 'youtube', 'tabung', 'wakaf', 'umat', 'official', 'alhamdulillah', 'masuk', 'rek']</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'channel', 'youtube', 'tabung', 'wakaf', 'umat', 'official', 'kali', 'subscriber']</t>
+          <t>['senin', 'februari', 'monetisasi', 'channel', 'youtube', 'tabung', 'wakaf', 'umat', 'official', 'alhamdulillah', 'masuk', 'rek']</t>
         </is>
       </c>
     </row>
@@ -691,30 +687,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>10267</v>
+        <v>13856</v>
       </c>
       <c r="C8" t="n">
-        <v>141</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
+        <v>179</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">alhamdulillah channel youtube tabung wakaf umat official sudah dilihat kali dan subscriber sebanyak </t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['alhamdulillah', 'channel', 'youtube', 'tabung', 'wakaf', 'umat', 'official', 'sudah', 'dilihat', 'kali', 'dan', 'subscriber', 'sebanyak']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['alhamdulillah', 'channel', 'youtube', 'tabung', 'wakaf', 'umat', 'official', 'kali', 'subscriber']</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['alhamdulillah', 'channel', 'youtube', 'tabung', 'wakaf', 'umat', 'official', 'kali', 'subscriber']</t>
         </is>
       </c>
     </row>
@@ -723,34 +723,30 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>10268</v>
+        <v>13857</v>
       </c>
       <c r="C9" t="n">
-        <v>141</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>seperti biasanya uas membuka peci dan meminta kh  anwar mansur dan kh agoes ali masyhuri membacakan doa dan men</t>
-        </is>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['seperti', 'biasanya', 'uas', 'membuka', 'peci', 'dan', 'meminta', 'kh', 'anwar', 'mansur', 'dan', 'kh', 'agoes', 'ali', 'masyhuri', 'membacakan', 'doa', 'dan', 'men']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 19 outcomes&gt;</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['uas', 'membuka', 'peci', 'kh', 'anwar', 'mansur', 'kh', 'agoes', 'ali', 'masyhuri', 'membacakan', 'doa', 'men']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['uas', 'buka', 'peci', 'kh', 'anwar', 'mansur', 'kh', 'agoes', 'ali', 'masyhur', 'baca', 'doa', 'men']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -759,34 +755,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>10269</v>
+        <v>13858</v>
       </c>
       <c r="C10" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>jadilah uas ketemu dan bisa silaturrahin dengan para kyai diantaranya kh marzuqi mustamar ketua pwnu jatim dan kh</t>
+          <t>seperti biasanya uas membuka peci dan meminta kh  anwar mansur dan kh agoes ali masyhuri membacakan doa dan men</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['jadilah', 'uas', 'ketemu', 'dan', 'bisa', 'silaturrahin', 'dengan', 'para', 'kyai', 'diantaranya', 'kh', 'marzuqi', 'mustamar', 'ketua', 'pwnu', 'jatim', 'dan', 'kh']</t>
+          <t>['seperti', 'biasanya', 'uas', 'membuka', 'peci', 'dan', 'meminta', 'kh', 'anwar', 'mansur', 'dan', 'kh', 'agoes', 'ali', 'masyhuri', 'membacakan', 'doa', 'dan', 'men']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>&lt;FreqDist with 16 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['uas', 'ketemu', 'silaturrahin', 'kyai', 'kh', 'marzuqi', 'mustamar', 'ketua', 'pwnu', 'jatim', 'kh']</t>
+          <t>['uas', 'membuka', 'peci', 'kh', 'anwar', 'mansur', 'kh', 'agoes', 'ali', 'masyhuri', 'membacakan', 'doa', 'men']</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['uas', 'ketemu', 'silaturrahin', 'kyai', 'kh', 'marzuqi', 'mustamar', 'ketua', 'pwnu', 'jatim', 'kh']</t>
+          <t>['uas', 'buka', 'peci', 'kh', 'anwar', 'mansur', 'kh', 'agoes', 'ali', 'masyhur', 'baca', 'doa', 'men']</t>
         </is>
       </c>
     </row>
@@ -795,34 +791,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>10270</v>
+        <v>13859</v>
       </c>
       <c r="C11" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>tibatiba handphone sahabat uas berbunyi gus ali meminta supaya uas segera ke kantor pwnu walau lima menit adapu</t>
+          <t>jadilah uas ketemu dan bisa silaturrahin dengan para kyai diantaranya kh marzuqi mustamar ketua pwnu jatim dan kh</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['tibatiba', 'handphone', 'sahabat', 'uas', 'berbunyi', 'gus', 'ali', 'meminta', 'supaya', 'uas', 'segera', 'ke', 'kantor', 'pwnu', 'walau', 'lima', 'menit', 'adapu']</t>
+          <t>['jadilah', 'uas', 'ketemu', 'dan', 'bisa', 'silaturrahin', 'dengan', 'para', 'kyai', 'diantaranya', 'kh', 'marzuqi', 'mustamar', 'ketua', 'pwnu', 'jatim', 'dan', 'kh']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['tibatiba', 'handphone', 'sahabat', 'uas', 'berbunyi', 'gus', 'ali', 'uas', 'kantor', 'pwnu', 'menit', 'adapu']</t>
+          <t>['uas', 'ketemu', 'silaturrahin', 'kyai', 'kh', 'marzuqi', 'mustamar', 'ketua', 'pwnu', 'jatim', 'kh']</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['tibatiba', 'handphone', 'sahabat', 'uas', 'bunyi', 'gus', 'ali', 'uas', 'kantor', 'pwnu', 'menit', 'adapu']</t>
+          <t>['uas', 'ketemu', 'silaturrahin', 'kyai', 'kh', 'marzuqi', 'mustamar', 'ketua', 'pwnu', 'jatim', 'kh']</t>
         </is>
       </c>
     </row>
@@ -831,34 +827,34 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>10271</v>
+        <v>13860</v>
       </c>
       <c r="C12" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>akhirnya uas bersilaturrahim dengan putraputri kyai dialog nyambung ternyata gus muhdlor junior uas di alazhar</t>
+          <t>tibatiba handphone sahabat uas berbunyi gus ali meminta supaya uas segera ke kantor pwnu walau lima menit adapu</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['akhirnya', 'uas', 'bersilaturrahim', 'dengan', 'putraputri', 'kyai', 'dialog', 'nyambung', 'ternyata', 'gus', 'muhdlor', 'junior', 'uas', 'di', 'alazhar']</t>
+          <t>['tibatiba', 'handphone', 'sahabat', 'uas', 'berbunyi', 'gus', 'ali', 'meminta', 'supaya', 'uas', 'segera', 'ke', 'kantor', 'pwnu', 'walau', 'lima', 'menit', 'adapu']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['uas', 'bersilaturrahim', 'putraputri', 'kyai', 'dialog', 'nyambung', 'gus', 'muhdlor', 'junior', 'uas', 'alazhar']</t>
+          <t>['tibatiba', 'handphone', 'sahabat', 'uas', 'berbunyi', 'gus', 'ali', 'uas', 'kantor', 'pwnu', 'menit', 'adapu']</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['uas', 'bersilaturrahim', 'putraputri', 'kyai', 'dialog', 'nyambung', 'gus', 'muhdlor', 'junior', 'uas', 'alazhar']</t>
+          <t>['tibatiba', 'handphone', 'sahabat', 'uas', 'bunyi', 'gus', 'ali', 'uas', 'kantor', 'pwnu', 'menit', 'adapu']</t>
         </is>
       </c>
     </row>
@@ -867,34 +863,34 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>10272</v>
+        <v>13861</v>
       </c>
       <c r="C13" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">uas dibawa salah seorang sahabat sowan ke kediaman kh agoes ali masyhuri sesampainya di pondok pesantren bumi </t>
+          <t>akhirnya uas bersilaturrahim dengan putraputri kyai dialog nyambung ternyata gus muhdlor junior uas di alazhar</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['uas', 'dibawa', 'salah', 'seorang', 'sahabat', 'sowan', 'ke', 'kediaman', 'kh', 'agoes', 'ali', 'masyhuri', 'sesampainya', 'di', 'pondok', 'pesantren', 'bumi']</t>
+          <t>['akhirnya', 'uas', 'bersilaturrahim', 'dengan', 'putraputri', 'kyai', 'dialog', 'nyambung', 'ternyata', 'gus', 'muhdlor', 'junior', 'uas', 'di', 'alazhar']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['uas', 'dibawa', 'salah', 'sahabat', 'sowan', 'kediaman', 'kh', 'agoes', 'ali', 'masyhuri', 'sesampainya', 'pondok', 'pesantren', 'bumi']</t>
+          <t>['uas', 'bersilaturrahim', 'putraputri', 'kyai', 'dialog', 'nyambung', 'gus', 'muhdlor', 'junior', 'uas', 'alazhar']</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['uas', 'bawa', 'salah', 'sahabat', 'sowan', 'diam', 'kh', 'agoes', 'ali', 'masyhur', 'sampa', 'pondok', 'pesantren', 'bumi']</t>
+          <t>['uas', 'bersilaturrahim', 'putraputri', 'kyai', 'dialog', 'nyambung', 'gus', 'muhdlor', 'junior', 'uas', 'alazhar']</t>
         </is>
       </c>
     </row>
@@ -903,34 +899,34 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>10273</v>
+        <v>13862</v>
       </c>
       <c r="C14" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ust ikrom amri sulawesi ust abul khoir sumatera selatan uas pada acara munaqasyah  prof dr habib abdul ham</t>
+          <t xml:space="preserve">uas dibawa salah seorang sahabat sowan ke kediaman kh agoes ali masyhuri sesampainya di pondok pesantren bumi </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['ust', 'ikrom', 'amri', 'sulawesi', 'ust', 'abul', 'khoir', 'sumatera', 'selatan', 'uas', 'pada', 'acara', 'munaqasyah', 'prof', 'dr', 'habib', 'abdul', 'ham']</t>
+          <t>['uas', 'dibawa', 'salah', 'seorang', 'sahabat', 'sowan', 'ke', 'kediaman', 'kh', 'agoes', 'ali', 'masyhuri', 'sesampainya', 'di', 'pondok', 'pesantren', 'bumi']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['ust', 'ikrom', 'amri', 'sulawesi', 'ust', 'abul', 'khoir', 'sumatera', 'selatan', 'uas', 'acara', 'munaqasyah', 'prof', 'dr', 'habib', 'abdul', 'ham']</t>
+          <t>['uas', 'dibawa', 'salah', 'sahabat', 'sowan', 'kediaman', 'kh', 'agoes', 'ali', 'masyhuri', 'sesampainya', 'pondok', 'pesantren', 'bumi']</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['ust', 'ikrom', 'amri', 'sulawesi', 'ust', 'abul', 'khoir', 'sumatera', 'selatan', 'uas', 'acara', 'munaqasyah', 'prof', 'dr', 'habib', 'abdul', 'ham']</t>
+          <t>['uas', 'bawa', 'salah', 'sahabat', 'sowan', 'diam', 'kh', 'agoes', 'ali', 'masyhur', 'sampa', 'pondok', 'pesantren', 'bumi']</t>
         </is>
       </c>
     </row>
@@ -939,34 +935,34 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>10274</v>
+        <v>13863</v>
       </c>
       <c r="C15" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>acara munaqasyah  prof dr habib abdul hamid almahdaly di alazhar cairo akhirnya ust muhaimin mengirimkan poton</t>
+          <t>ust ikrom amri sulawesi ust abul khoir sumatera selatan uas pada acara munaqasyah  prof dr habib abdul ham</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['acara', 'munaqasyah', 'prof', 'dr', 'habib', 'abdul', 'hamid', 'almahdaly', 'di', 'alazhar', 'cairo', 'akhirnya', 'ust', 'muhaimin', 'mengirimkan', 'poton']</t>
+          <t>['ust', 'ikrom', 'amri', 'sulawesi', 'ust', 'abul', 'khoir', 'sumatera', 'selatan', 'uas', 'pada', 'acara', 'munaqasyah', 'prof', 'dr', 'habib', 'abdul', 'ham']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['acara', 'munaqasyah', 'prof', 'dr', 'habib', 'abdul', 'hamid', 'almahdaly', 'alazhar', 'cairo', 'ust', 'muhaimin', 'mengirimkan', 'poton']</t>
+          <t>['ust', 'ikrom', 'amri', 'sulawesi', 'ust', 'abul', 'khoir', 'sumatera', 'selatan', 'uas', 'acara', 'munaqasyah', 'prof', 'dr', 'habib', 'abdul', 'ham']</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['acara', 'munaqasyah', 'prof', 'dr', 'habib', 'abdul', 'hamid', 'almahdaly', 'alazhar', 'cairo', 'ust', 'muhaimin', 'kirim', 'poton']</t>
+          <t>['ust', 'ikrom', 'amri', 'sulawesi', 'ust', 'abul', 'khoir', 'sumatera', 'selatan', 'uas', 'acara', 'munaqasyah', 'prof', 'dr', 'habib', 'abdul', 'ham']</t>
         </is>
       </c>
     </row>
@@ -975,30 +971,34 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>10275</v>
+        <v>13864</v>
       </c>
       <c r="C16" t="n">
-        <v>141</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
+        <v>179</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>acara munaqasyah  prof dr habib abdul hamid almahdaly di alazhar cairo akhirnya ust muhaimin mengirimkan poton</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['acara', 'munaqasyah', 'prof', 'dr', 'habib', 'abdul', 'hamid', 'almahdaly', 'di', 'alazhar', 'cairo', 'akhirnya', 'ust', 'muhaimin', 'mengirimkan', 'poton']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['acara', 'munaqasyah', 'prof', 'dr', 'habib', 'abdul', 'hamid', 'almahdaly', 'alazhar', 'cairo', 'ust', 'muhaimin', 'mengirimkan', 'poton']</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['acara', 'munaqasyah', 'prof', 'dr', 'habib', 'abdul', 'hamid', 'almahdaly', 'alazhar', 'cairo', 'ust', 'muhaimin', 'kirim', 'poton']</t>
         </is>
       </c>
     </row>
@@ -1007,34 +1007,30 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>10276</v>
+        <v>13865</v>
       </c>
       <c r="C17" t="n">
-        <v>141</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>ada ustadz muhaimin dari malaysia menonton video sidang munaqasyah  prof dr habib abd hamid almahdaly di ala</t>
-        </is>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['ada', 'ustadz', 'muhaimin', 'dari', 'malaysia', 'menonton', 'video', 'sidang', 'munaqasyah', 'prof', 'dr', 'habib', 'abd', 'hamid', 'almahdaly', 'di', 'ala']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['ustadz', 'muhaimin', 'malaysia', 'menonton', 'video', 'sidang', 'munaqasyah', 'prof', 'dr', 'habib', 'abd', 'hamid', 'almahdaly', 'ala']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['ustadz', 'muhaimin', 'malaysia', 'tonton', 'video', 'sidang', 'munaqasyah', 'prof', 'dr', 'habib', 'abd', 'hamid', 'almahdaly', 'ala']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1043,34 +1039,34 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>10277</v>
+        <v>13866</v>
       </c>
       <c r="C18" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>pembebasan lahan tahfidz alquran</t>
+          <t>ada ustadz muhaimin dari malaysia menonton video sidang munaqasyah  prof dr habib abd hamid almahdaly di ala</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['pembebasan', 'lahan', 'tahfidz', 'alquran']</t>
+          <t>['ada', 'ustadz', 'muhaimin', 'dari', 'malaysia', 'menonton', 'video', 'sidang', 'munaqasyah', 'prof', 'dr', 'habib', 'abd', 'hamid', 'almahdaly', 'di', 'ala']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['pembebasan', 'lahan', 'tahfidz', 'alquran']</t>
+          <t>['ustadz', 'muhaimin', 'malaysia', 'menonton', 'video', 'sidang', 'munaqasyah', 'prof', 'dr', 'habib', 'abd', 'hamid', 'almahdaly', 'ala']</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['bebas', 'lahan', 'tahfidz', 'alquran']</t>
+          <t>['ustadz', 'muhaimin', 'malaysia', 'tonton', 'video', 'sidang', 'munaqasyah', 'prof', 'dr', 'habib', 'abd', 'hamid', 'almahdaly', 'ala']</t>
         </is>
       </c>
     </row>
@@ -1079,34 +1075,34 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>10278</v>
+        <v>13867</v>
       </c>
       <c r="C19" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>infaqwakaf pembangunan ponpes darul ihsan bsi bank syariah mandiri no rekening an yayasan</t>
+          <t>pembebasan lahan tahfidz alquran</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['infaqwakaf', 'pembangunan', 'ponpes', 'darul', 'ihsan', 'bsi', 'bank', 'syariah', 'mandiri', 'no', 'rekening', 'an', 'yayasan']</t>
+          <t>['pembebasan', 'lahan', 'tahfidz', 'alquran']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['infaqwakaf', 'pembangunan', 'ponpes', 'darul', 'ihsan', 'bsi', 'bank', 'syariah', 'mandiri', 'no', 'rekening', 'an', 'yayasan']</t>
+          <t>['pembebasan', 'lahan', 'tahfidz', 'alquran']</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['infaqwakaf', 'bangun', 'ponpes', 'darul', 'ihsan', 'bsi', 'bank', 'syariah', 'mandiri', 'no', 'rekening', 'an', 'yayasan']</t>
+          <t>['bebas', 'lahan', 'tahfidz', 'alquran']</t>
         </is>
       </c>
     </row>
@@ -1115,34 +1111,34 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>10279</v>
+        <v>13868</v>
       </c>
       <c r="C20" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>bagi beras ke suku anak dlm jambi bersama jambi madani center jmc mari support bank mega syariah no rekening</t>
+          <t>infaqwakaf pembangunan ponpes darul ihsan bsi bank syariah mandiri no rekening an yayasan</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['bagi', 'beras', 'ke', 'suku', 'anak', 'dlm', 'jambi', 'bersama', 'jambi', 'madani', 'center', 'jmc', 'mari', 'support', 'bank', 'mega', 'syariah', 'no', 'rekening']</t>
+          <t>['infaqwakaf', 'pembangunan', 'ponpes', 'darul', 'ihsan', 'bsi', 'bank', 'syariah', 'mandiri', 'no', 'rekening', 'an', 'yayasan']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['beras', 'suku', 'anak', 'dlm', 'jambi', 'jambi', 'madani', 'center', 'jmc', 'mari', 'support', 'bank', 'mega', 'syariah', 'no', 'rekening']</t>
+          <t>['infaqwakaf', 'pembangunan', 'ponpes', 'darul', 'ihsan', 'bsi', 'bank', 'syariah', 'mandiri', 'no', 'rekening', 'an', 'yayasan']</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['beras', 'suku', 'anak', 'dlm', 'jambi', 'jambi', 'madani', 'center', 'jmc', 'mari', 'support', 'bank', 'mega', 'syariah', 'no', 'rekening']</t>
+          <t>['infaqwakaf', 'bangun', 'ponpes', 'darul', 'ihsan', 'bsi', 'bank', 'syariah', 'mandiri', 'no', 'rekening', 'an', 'yayasan']</t>
         </is>
       </c>
     </row>
@@ -1151,34 +1147,34 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>10280</v>
+        <v>13869</v>
       </c>
       <c r="C21" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>yuk sedekah beras rekening donasi bank sumut syariah an zayyan insani sejahtera syukron medan</t>
+          <t>bagi beras ke suku anak dlm jambi bersama jambi madani center jmc mari support bank mega syariah no rekening</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['yuk', 'sedekah', 'beras', 'rekening', 'donasi', 'bank', 'sumut', 'syariah', 'an', 'zayyan', 'insani', 'sejahtera', 'syukron', 'medan']</t>
+          <t>['bagi', 'beras', 'ke', 'suku', 'anak', 'dlm', 'jambi', 'bersama', 'jambi', 'madani', 'center', 'jmc', 'mari', 'support', 'bank', 'mega', 'syariah', 'no', 'rekening']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['yuk', 'sedekah', 'beras', 'rekening', 'donasi', 'bank', 'sumut', 'syariah', 'an', 'zayyan', 'insani', 'sejahtera', 'syukron', 'medan']</t>
+          <t>['beras', 'suku', 'anak', 'dlm', 'jambi', 'jambi', 'madani', 'center', 'jmc', 'mari', 'support', 'bank', 'mega', 'syariah', 'no', 'rekening']</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['yuk', 'sedekah', 'beras', 'rekening', 'donasi', 'bank', 'sumut', 'syariah', 'an', 'zayyan', 'insani', 'sejahtera', 'syukron', 'medan']</t>
+          <t>['beras', 'suku', 'anak', 'dlm', 'jambi', 'jambi', 'madani', 'center', 'jmc', 'mari', 'support', 'bank', 'mega', 'syariah', 'no', 'rekening']</t>
         </is>
       </c>
     </row>
@@ -1187,34 +1183,34 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>10281</v>
+        <v>13870</v>
       </c>
       <c r="C22" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">perumpamaan orang yang menginfakkan hartanya di jalan allah seperti sebutir biji yang menumbuhkan tujuh tangkai </t>
+          <t>yuk sedekah beras rekening donasi bank sumut syariah an zayyan insani sejahtera syukron medan</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['perumpamaan', 'orang', 'yang', 'menginfakkan', 'hartanya', 'di', 'jalan', 'allah', 'seperti', 'sebutir', 'biji', 'yang', 'menumbuhkan', 'tujuh', 'tangkai']</t>
+          <t>['yuk', 'sedekah', 'beras', 'rekening', 'donasi', 'bank', 'sumut', 'syariah', 'an', 'zayyan', 'insani', 'sejahtera', 'syukron', 'medan']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['perumpamaan', 'orang', 'menginfakkan', 'hartanya', 'jalan', 'allah', 'sebutir', 'biji', 'menumbuhkan', 'tujuh', 'tangkai']</t>
+          <t>['yuk', 'sedekah', 'beras', 'rekening', 'donasi', 'bank', 'sumut', 'syariah', 'an', 'zayyan', 'insani', 'sejahtera', 'syukron', 'medan']</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['umpama', 'orang', 'infak', 'harta', 'jalan', 'allah', 'butir', 'biji', 'tumbuh', 'tujuh', 'tangkai']</t>
+          <t>['yuk', 'sedekah', 'beras', 'rekening', 'donasi', 'bank', 'sumut', 'syariah', 'an', 'zayyan', 'insani', 'sejahtera', 'syukron', 'medan']</t>
         </is>
       </c>
     </row>
@@ -1223,34 +1219,34 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>10282</v>
+        <v>13871</v>
       </c>
       <c r="C23" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>allah subhanahu wa taala berfirman</t>
+          <t xml:space="preserve">perumpamaan orang yang menginfakkan hartanya di jalan allah seperti sebutir biji yang menumbuhkan tujuh tangkai </t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['allah', 'subhanahu', 'wa', 'taala', 'berfirman']</t>
+          <t>['perumpamaan', 'orang', 'yang', 'menginfakkan', 'hartanya', 'di', 'jalan', 'allah', 'seperti', 'sebutir', 'biji', 'yang', 'menumbuhkan', 'tujuh', 'tangkai']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['allah', 'subhanahu', 'wa', 'taala', 'berfirman']</t>
+          <t>['perumpamaan', 'orang', 'menginfakkan', 'hartanya', 'jalan', 'allah', 'sebutir', 'biji', 'menumbuhkan', 'tujuh', 'tangkai']</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['allah', 'subhanahu', 'wa', 'taala', 'firman']</t>
+          <t>['umpama', 'orang', 'infak', 'harta', 'jalan', 'allah', 'butir', 'biji', 'tumbuh', 'tujuh', 'tangkai']</t>
         </is>
       </c>
     </row>
@@ -1259,34 +1255,34 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>10283</v>
+        <v>13872</v>
       </c>
       <c r="C24" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>bagaimana saya ingin bersedekah beras niat hub kontak kami kami akan konfrimasi data dan alamat tim kami</t>
+          <t>allah subhanahu wa taala berfirman</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['bagaimana', 'saya', 'ingin', 'bersedekah', 'beras', 'niat', 'hub', 'kontak', 'kami', 'kami', 'akan', 'konfrimasi', 'data', 'dan', 'alamat', 'tim', 'kami']</t>
+          <t>['allah', 'subhanahu', 'wa', 'taala', 'berfirman']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['bersedekah', 'beras', 'niat', 'hub', 'kontak', 'konfrimasi', 'data', 'alamat', 'tim']</t>
+          <t>['allah', 'subhanahu', 'wa', 'taala', 'berfirman']</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['sedekah', 'beras', 'niat', 'hub', 'kontak', 'konfrimasi', 'data', 'alamat', 'tim']</t>
+          <t>['allah', 'subhanahu', 'wa', 'taala', 'firman']</t>
         </is>
       </c>
     </row>
@@ -1295,34 +1291,34 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>10284</v>
+        <v>13873</v>
       </c>
       <c r="C25" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>semoga dengan hadirnya zayyan insani sejahtera membawa kemaslahatan dan kesejahteraan bagi ummat di sumatera utara</t>
+          <t>bagaimana saya ingin bersedekah beras niat hub kontak kami kami akan konfrimasi data dan alamat tim kami</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['semoga', 'dengan', 'hadirnya', 'zayyan', 'insani', 'sejahtera', 'membawa', 'kemaslahatan', 'dan', 'kesejahteraan', 'bagi', 'ummat', 'di', 'sumatera', 'utara']</t>
+          <t>['bagaimana', 'saya', 'ingin', 'bersedekah', 'beras', 'niat', 'hub', 'kontak', 'kami', 'kami', 'akan', 'konfrimasi', 'data', 'dan', 'alamat', 'tim', 'kami']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['semoga', 'hadirnya', 'zayyan', 'insani', 'sejahtera', 'membawa', 'kemaslahatan', 'kesejahteraan', 'ummat', 'sumatera', 'utara']</t>
+          <t>['bersedekah', 'beras', 'niat', 'hub', 'kontak', 'konfrimasi', 'data', 'alamat', 'tim']</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['moga', 'hadir', 'zayyan', 'insani', 'sejahtera', 'bawa', 'maslahat', 'sejahtera', 'ummat', 'sumatera', 'utara']</t>
+          <t>['sedekah', 'beras', 'niat', 'hub', 'kontak', 'konfrimasi', 'data', 'alamat', 'tim']</t>
         </is>
       </c>
     </row>
@@ -1331,34 +1327,34 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>10285</v>
+        <v>13874</v>
       </c>
       <c r="C26" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>medan februari telah disalurkan kepada para mustahiq beras sebanyak ton kegiatan ini insya allah</t>
+          <t>semoga dengan hadirnya zayyan insani sejahtera membawa kemaslahatan dan kesejahteraan bagi ummat di sumatera utara</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['medan', 'februari', 'telah', 'disalurkan', 'kepada', 'para', 'mustahiq', 'beras', 'sebanyak', 'ton', 'kegiatan', 'ini', 'insya', 'allah']</t>
+          <t>['semoga', 'dengan', 'hadirnya', 'zayyan', 'insani', 'sejahtera', 'membawa', 'kemaslahatan', 'dan', 'kesejahteraan', 'bagi', 'ummat', 'di', 'sumatera', 'utara']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['medan', 'februari', 'disalurkan', 'mustahiq', 'beras', 'ton', 'kegiatan', 'insya', 'allah']</t>
+          <t>['semoga', 'hadirnya', 'zayyan', 'insani', 'sejahtera', 'membawa', 'kemaslahatan', 'kesejahteraan', 'ummat', 'sumatera', 'utara']</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['medan', 'februari', 'salur', 'mustahiq', 'beras', 'ton', 'giat', 'insya', 'allah']</t>
+          <t>['moga', 'hadir', 'zayyan', 'insani', 'sejahtera', 'bawa', 'maslahat', 'sejahtera', 'ummat', 'sumatera', 'utara']</t>
         </is>
       </c>
     </row>
@@ -1367,34 +1363,34 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>10286</v>
+        <v>13875</v>
       </c>
       <c r="C27" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>medan februari bismillahirrahmanirrahim assalamualaikum warahmatullahi wabarakatuh syukur kita ucapk</t>
+          <t>medan februari telah disalurkan kepada para mustahiq beras sebanyak ton kegiatan ini insya allah</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['medan', 'februari', 'bismillahirrahmanirrahim', 'assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'syukur', 'kita', 'ucapk']</t>
+          <t>['medan', 'februari', 'telah', 'disalurkan', 'kepada', 'para', 'mustahiq', 'beras', 'sebanyak', 'ton', 'kegiatan', 'ini', 'insya', 'allah']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['medan', 'februari', 'bismillahirrahmanirrahim', 'assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'syukur', 'ucapk']</t>
+          <t>['medan', 'februari', 'disalurkan', 'mustahiq', 'beras', 'ton', 'kegiatan', 'insya', 'allah']</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['medan', 'februari', 'bismillahirrahmanirrahim', 'assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'syukur', 'ucapk']</t>
+          <t>['medan', 'februari', 'salur', 'mustahiq', 'beras', 'ton', 'giat', 'insya', 'allah']</t>
         </is>
       </c>
     </row>
@@ -1403,34 +1399,34 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>10287</v>
+        <v>13876</v>
       </c>
       <c r="C28" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>sodaghosodagho incekincek di tanjung balai jangan lupo membayagh aigh ledeng sebolum tanggal</t>
+          <t>medan februari bismillahirrahmanirrahim assalamualaikum warahmatullahi wabarakatuh syukur kita ucapk</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['sodaghosodagho', 'incekincek', 'di', 'tanjung', 'balai', 'jangan', 'lupo', 'membayagh', 'aigh', 'ledeng', 'sebolum', 'tanggal']</t>
+          <t>['medan', 'februari', 'bismillahirrahmanirrahim', 'assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'syukur', 'kita', 'ucapk']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['sodaghosodagho', 'incekincek', 'tanjung', 'balai', 'lupo', 'membayagh', 'aigh', 'ledeng', 'sebolum', 'tanggal']</t>
+          <t>['medan', 'februari', 'bismillahirrahmanirrahim', 'assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'syukur', 'ucapk']</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['sodaghosodagho', 'incekincek', 'tanjung', 'balai', 'lupo', 'membayagh', 'aigh', 'ledeng', 'sebolum', 'tanggal']</t>
+          <t>['medan', 'februari', 'bismillahirrahmanirrahim', 'assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'syukur', 'ucapk']</t>
         </is>
       </c>
     </row>
@@ -1439,34 +1435,34 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>10288</v>
+        <v>13877</v>
       </c>
       <c r="C29" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>untuk pemesanan ziyan atau admin jejak ig ziyan fb ziyan al ghifari</t>
+          <t>sodaghosodagho incekincek di tanjung balai jangan lupo membayagh aigh ledeng sebolum tanggal</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['untuk', 'pemesanan', 'ziyan', 'atau', 'admin', 'jejak', 'ig', 'ziyan', 'fb', 'ziyan', 'al', 'ghifari']</t>
+          <t>['sodaghosodagho', 'incekincek', 'di', 'tanjung', 'balai', 'jangan', 'lupo', 'membayagh', 'aigh', 'ledeng', 'sebolum', 'tanggal']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 12 outcomes&gt;</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['pemesanan', 'ziyan', 'admin', 'jejak', 'ig', 'ziyan', 'fb', 'ziyan', 'al', 'ghifari']</t>
+          <t>['sodaghosodagho', 'incekincek', 'tanjung', 'balai', 'lupo', 'membayagh', 'aigh', 'ledeng', 'sebolum', 'tanggal']</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['mesan', 'ziyan', 'admin', 'jejak', 'ig', 'ziyan', 'fb', 'ziyan', 'al', 'ghifari']</t>
+          <t>['sodaghosodagho', 'incekincek', 'tanjung', 'balai', 'lupo', 'membayagh', 'aigh', 'ledeng', 'sebolum', 'tanggal']</t>
         </is>
       </c>
     </row>
@@ -1475,34 +1471,34 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>10289</v>
+        <v>13878</v>
       </c>
       <c r="C30" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>judul dari negeri matahari terbenam potret islam dan keilmuan di maroko nonfiksi penulis ziyan al gh</t>
+          <t>untuk pemesanan ziyan atau admin jejak ig ziyan fb ziyan al ghifari</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['judul', 'dari', 'negeri', 'matahari', 'terbenam', 'potret', 'islam', 'dan', 'keilmuan', 'di', 'maroko', 'nonfiksi', 'penulis', 'ziyan', 'al', 'gh']</t>
+          <t>['untuk', 'pemesanan', 'ziyan', 'atau', 'admin', 'jejak', 'ig', 'ziyan', 'fb', 'ziyan', 'al', 'ghifari']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>&lt;FreqDist with 10 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['judul', 'negeri', 'matahari', 'terbenam', 'potret', 'islam', 'keilmuan', 'maroko', 'nonfiksi', 'penulis', 'ziyan', 'al', 'gh']</t>
+          <t>['pemesanan', 'ziyan', 'admin', 'jejak', 'ig', 'ziyan', 'fb', 'ziyan', 'al', 'ghifari']</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['judul', 'negeri', 'matahari', 'benam', 'potret', 'islam', 'ilmu', 'maroko', 'nonfiksi', 'tulis', 'ziyan', 'al', 'gh']</t>
+          <t>['mesan', 'ziyan', 'admin', 'jejak', 'ig', 'ziyan', 'fb', 'ziyan', 'al', 'ghifari']</t>
         </is>
       </c>
     </row>
@@ -1511,34 +1507,34 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>10290</v>
+        <v>13879</v>
       </c>
       <c r="C31" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>ditulis langsung oleh adik kelas saya ziyan al ghifari lc ziyan mahasiswa  di universitas hassan ii kerajaan maroko</t>
+          <t>judul dari negeri matahari terbenam potret islam dan keilmuan di maroko nonfiksi penulis ziyan al gh</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['ditulis', 'langsung', 'oleh', 'adik', 'kelas', 'saya', 'ziyan', 'al', 'ghifari', 'lc', 'ziyan', 'mahasiswa', 'di', 'universitas', 'hassan', 'ii', 'kerajaan', 'maroko']</t>
+          <t>['judul', 'dari', 'negeri', 'matahari', 'terbenam', 'potret', 'islam', 'dan', 'keilmuan', 'di', 'maroko', 'nonfiksi', 'penulis', 'ziyan', 'al', 'gh']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['ditulis', 'langsung', 'adik', 'kelas', 'ziyan', 'al', 'ghifari', 'lc', 'ziyan', 'mahasiswa', 'universitas', 'hassan', 'ii', 'kerajaan', 'maroko']</t>
+          <t>['judul', 'negeri', 'matahari', 'terbenam', 'potret', 'islam', 'keilmuan', 'maroko', 'nonfiksi', 'penulis', 'ziyan', 'al', 'gh']</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['tulis', 'langsung', 'adik', 'kelas', 'ziyan', 'al', 'ghifari', 'lc', 'ziyan', 'mahasiswa', 'universitas', 'hassan', 'ii', 'raja', 'maroko']</t>
+          <t>['judul', 'negeri', 'matahari', 'benam', 'potret', 'islam', 'ilmu', 'maroko', 'nonfiksi', 'tulis', 'ziyan', 'al', 'gh']</t>
         </is>
       </c>
     </row>
@@ -1547,34 +1543,34 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>10291</v>
+        <v>13880</v>
       </c>
       <c r="C32" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">buku ini membahas tentang pengalaman penulis selama berada di maroko mengulik tradisi dan budaya masyarakat </t>
+          <t>ditulis langsung oleh adik kelas saya ziyan al ghifari lc ziyan mahasiswa  di universitas hassan ii kerajaan maroko</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['buku', 'ini', 'membahas', 'tentang', 'pengalaman', 'penulis', 'selama', 'berada', 'di', 'maroko', 'mengulik', 'tradisi', 'dan', 'budaya', 'masyarakat']</t>
+          <t>['ditulis', 'langsung', 'oleh', 'adik', 'kelas', 'saya', 'ziyan', 'al', 'ghifari', 'lc', 'ziyan', 'mahasiswa', 'di', 'universitas', 'hassan', 'ii', 'kerajaan', 'maroko']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['buku', 'membahas', 'pengalaman', 'penulis', 'maroko', 'mengulik', 'tradisi', 'budaya', 'masyarakat']</t>
+          <t>['ditulis', 'langsung', 'adik', 'kelas', 'ziyan', 'al', 'ghifari', 'lc', 'ziyan', 'mahasiswa', 'universitas', 'hassan', 'ii', 'kerajaan', 'maroko']</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['buku', 'bahas', 'alam', 'tulis', 'maroko', 'ulik', 'tradisi', 'budaya', 'masyarakat']</t>
+          <t>['tulis', 'langsung', 'adik', 'kelas', 'ziyan', 'al', 'ghifari', 'lc', 'ziyan', 'mahasiswa', 'universitas', 'hassan', 'ii', 'raja', 'maroko']</t>
         </is>
       </c>
     </row>
@@ -1583,34 +1579,34 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>10292</v>
+        <v>13881</v>
       </c>
       <c r="C33" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>masa kini maroko menjadi salah satu tujuan menuntut ilmu agama islam bagi mahasiswa dari seluruh penjuru dunia</t>
+          <t xml:space="preserve">buku ini membahas tentang pengalaman penulis selama berada di maroko mengulik tradisi dan budaya masyarakat </t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['masa', 'kini', 'maroko', 'menjadi', 'salah', 'satu', 'tujuan', 'menuntut', 'ilmu', 'agama', 'islam', 'bagi', 'mahasiswa', 'dari', 'seluruh', 'penjuru', 'dunia']</t>
+          <t>['buku', 'ini', 'membahas', 'tentang', 'pengalaman', 'penulis', 'selama', 'berada', 'di', 'maroko', 'mengulik', 'tradisi', 'dan', 'budaya', 'masyarakat']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['maroko', 'salah', 'tujuan', 'menuntut', 'ilmu', 'agama', 'islam', 'mahasiswa', 'penjuru', 'dunia']</t>
+          <t>['buku', 'membahas', 'pengalaman', 'penulis', 'maroko', 'mengulik', 'tradisi', 'budaya', 'masyarakat']</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['maroko', 'salah', 'tuju', 'tuntut', 'ilmu', 'agama', 'islam', 'mahasiswa', 'penjuru', 'dunia']</t>
+          <t>['buku', 'bahas', 'alam', 'tulis', 'maroko', 'ulik', 'tradisi', 'budaya', 'masyarakat']</t>
         </is>
       </c>
     </row>
@@ -1619,34 +1615,34 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>10293</v>
+        <v>13882</v>
       </c>
       <c r="C34" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>maroko merupakan salah satu kiblat cahaya ilmu pada masa lampau dengan jamiah alqorowiyyin dan madrassa ben</t>
+          <t>masa kini maroko menjadi salah satu tujuan menuntut ilmu agama islam bagi mahasiswa dari seluruh penjuru dunia</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['maroko', 'merupakan', 'salah', 'satu', 'kiblat', 'cahaya', 'ilmu', 'pada', 'masa', 'lampau', 'dengan', 'jamiah', 'alqorowiyyin', 'dan', 'madrassa', 'ben']</t>
+          <t>['masa', 'kini', 'maroko', 'menjadi', 'salah', 'satu', 'tujuan', 'menuntut', 'ilmu', 'agama', 'islam', 'bagi', 'mahasiswa', 'dari', 'seluruh', 'penjuru', 'dunia']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['maroko', 'salah', 'kiblat', 'cahaya', 'ilmu', 'lampau', 'jamiah', 'alqorowiyyin', 'madrassa', 'ben']</t>
+          <t>['maroko', 'salah', 'tujuan', 'menuntut', 'ilmu', 'agama', 'islam', 'mahasiswa', 'penjuru', 'dunia']</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['maroko', 'salah', 'kiblat', 'cahaya', 'ilmu', 'lampau', 'jamiah', 'alqorowiyyin', 'madrassa', 'ben']</t>
+          <t>['maroko', 'salah', 'tuju', 'tuntut', 'ilmu', 'agama', 'islam', 'mahasiswa', 'penjuru', 'dunia']</t>
         </is>
       </c>
     </row>
@@ -1655,34 +1651,34 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>10294</v>
+        <v>13883</v>
       </c>
       <c r="C35" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">lepaskan anakanak ikan ke kolam saat penghafal quran memakannya mengenyangkan perut yang lapar selamat kita </t>
+          <t>maroko merupakan salah satu kiblat cahaya ilmu pada masa lampau dengan jamiah alqorowiyyin dan madrassa ben</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['lepaskan', 'anakanak', 'ikan', 'ke', 'kolam', 'saat', 'penghafal', 'quran', 'memakannya', 'mengenyangkan', 'perut', 'yang', 'lapar', 'selamat', 'kita']</t>
+          <t>['maroko', 'merupakan', 'salah', 'satu', 'kiblat', 'cahaya', 'ilmu', 'pada', 'masa', 'lampau', 'dengan', 'jamiah', 'alqorowiyyin', 'dan', 'madrassa', 'ben']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['lepaskan', 'anakanak', 'ikan', 'kolam', 'penghafal', 'quran', 'memakannya', 'mengenyangkan', 'perut', 'lapar', 'selamat']</t>
+          <t>['maroko', 'salah', 'kiblat', 'cahaya', 'ilmu', 'lampau', 'jamiah', 'alqorowiyyin', 'madrassa', 'ben']</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['lepas', 'anakanak', 'ikan', 'kolam', 'hafal', 'quran', 'makan', 'kenyang', 'perut', 'lapar', 'selamat']</t>
+          <t>['maroko', 'salah', 'kiblat', 'cahaya', 'ilmu', 'lampau', 'jamiah', 'alqorowiyyin', 'madrassa', 'ben']</t>
         </is>
       </c>
     </row>
@@ -1691,19 +1687,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>10295</v>
+        <v>13884</v>
       </c>
       <c r="C36" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>tanamkan sebutir benih bertunas bercabang berbuah dimakan orang bertenaga dia untuk menyembah allah jadi amal</t>
+          <t xml:space="preserve">lepaskan anakanak ikan ke kolam saat penghafal quran memakannya mengenyangkan perut yang lapar selamat kita </t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['tanamkan', 'sebutir', 'benih', 'bertunas', 'bercabang', 'berbuah', 'dimakan', 'orang', 'bertenaga', 'dia', 'untuk', 'menyembah', 'allah', 'jadi', 'amal']</t>
+          <t>['lepaskan', 'anakanak', 'ikan', 'ke', 'kolam', 'saat', 'penghafal', 'quran', 'memakannya', 'mengenyangkan', 'perut', 'yang', 'lapar', 'selamat', 'kita']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1713,12 +1709,12 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['tanamkan', 'sebutir', 'benih', 'bertunas', 'bercabang', 'berbuah', 'dimakan', 'orang', 'bertenaga', 'menyembah', 'allah', 'amal']</t>
+          <t>['lepaskan', 'anakanak', 'ikan', 'kolam', 'penghafal', 'quran', 'memakannya', 'mengenyangkan', 'perut', 'lapar', 'selamat']</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['tanam', 'butir', 'benih', 'tunas', 'cabang', 'buah', 'makan', 'orang', 'tenaga', 'sembah', 'allah', 'amal']</t>
+          <t>['lepas', 'anakanak', 'ikan', 'kolam', 'hafal', 'quran', 'makan', 'kenyang', 'perut', 'lapar', 'selamat']</t>
         </is>
       </c>
     </row>
@@ -1727,34 +1723,34 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>10296</v>
+        <v>13885</v>
       </c>
       <c r="C37" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>paket sudah termasuk bus pariwisata pemandu wisata hotel bintang makan hari siang dan malam hari</t>
+          <t>tanamkan sebutir benih bertunas bercabang berbuah dimakan orang bertenaga dia untuk menyembah allah jadi amal</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['paket', 'sudah', 'termasuk', 'bus', 'pariwisata', 'pemandu', 'wisata', 'hotel', 'bintang', 'makan', 'hari', 'siang', 'dan', 'malam', 'hari']</t>
+          <t>['tanamkan', 'sebutir', 'benih', 'bertunas', 'bercabang', 'berbuah', 'dimakan', 'orang', 'bertenaga', 'dia', 'untuk', 'menyembah', 'allah', 'jadi', 'amal']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['paket', 'bus', 'pariwisata', 'pemandu', 'wisata', 'hotel', 'bintang', 'makan', 'siang', 'malam']</t>
+          <t>['tanamkan', 'sebutir', 'benih', 'bertunas', 'bercabang', 'berbuah', 'dimakan', 'orang', 'bertenaga', 'menyembah', 'allah', 'amal']</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['paket', 'bus', 'pariwisata', 'pandu', 'wisata', 'hotel', 'bintang', 'makan', 'siang', 'malam']</t>
+          <t>['tanam', 'butir', 'benih', 'tunas', 'cabang', 'buah', 'makan', 'orang', 'tenaga', 'sembah', 'allah', 'amal']</t>
         </is>
       </c>
     </row>
@@ -1763,34 +1759,34 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>10297</v>
+        <v>13886</v>
       </c>
       <c r="C38" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>kajian eksklusif bersama uas di hotel melihat lokasi pesantren nurul azhar palas yayasan tabung wakaf umat</t>
+          <t>paket sudah termasuk bus pariwisata pemandu wisata hotel bintang makan hari siang dan malam hari</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['kajian', 'eksklusif', 'bersama', 'uas', 'di', 'hotel', 'melihat', 'lokasi', 'pesantren', 'nurul', 'azhar', 'palas', 'yayasan', 'tabung', 'wakaf', 'umat']</t>
+          <t>['paket', 'sudah', 'termasuk', 'bus', 'pariwisata', 'pemandu', 'wisata', 'hotel', 'bintang', 'makan', 'hari', 'siang', 'dan', 'malam', 'hari']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['kajian', 'eksklusif', 'uas', 'hotel', 'lokasi', 'pesantren', 'nurul', 'azhar', 'palas', 'yayasan', 'tabung', 'wakaf', 'umat']</t>
+          <t>['paket', 'bus', 'pariwisata', 'pemandu', 'wisata', 'hotel', 'bintang', 'makan', 'siang', 'malam']</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['kaji', 'eksklusif', 'uas', 'hotel', 'lokasi', 'pesantren', 'nurul', 'azhar', 'palas', 'yayasan', 'tabung', 'wakaf', 'umat']</t>
+          <t>['paket', 'bus', 'pariwisata', 'pandu', 'wisata', 'hotel', 'bintang', 'makan', 'siang', 'malam']</t>
         </is>
       </c>
     </row>
@@ -1799,34 +1795,34 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>10298</v>
+        <v>13887</v>
       </c>
       <c r="C39" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>para peserta akan mendapatkan benefit mengikuti langsung khutbah jumat uas mengikuti langsung program sos</t>
+          <t>kajian eksklusif bersama uas di hotel melihat lokasi pesantren nurul azhar palas yayasan tabung wakaf umat</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['para', 'peserta', 'akan', 'mendapatkan', 'benefit', 'mengikuti', 'langsung', 'khutbah', 'jumat', 'uas', 'mengikuti', 'langsung', 'program', 'sos']</t>
+          <t>['kajian', 'eksklusif', 'bersama', 'uas', 'di', 'hotel', 'melihat', 'lokasi', 'pesantren', 'nurul', 'azhar', 'palas', 'yayasan', 'tabung', 'wakaf', 'umat']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 14 outcomes&gt;</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['peserta', 'benefit', 'mengikuti', 'langsung', 'khutbah', 'jumat', 'uas', 'mengikuti', 'langsung', 'program', 'sos']</t>
+          <t>['kajian', 'eksklusif', 'uas', 'hotel', 'lokasi', 'pesantren', 'nurul', 'azhar', 'palas', 'yayasan', 'tabung', 'wakaf', 'umat']</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['serta', 'benefit', 'ikut', 'langsung', 'khutbah', 'jumat', 'uas', 'ikut', 'langsung', 'program', 'sos']</t>
+          <t>['kaji', 'eksklusif', 'uas', 'hotel', 'lokasi', 'pesantren', 'nurul', 'azhar', 'palas', 'yayasan', 'tabung', 'wakaf', 'umat']</t>
         </is>
       </c>
     </row>
@@ -1835,34 +1831,34 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>10299</v>
+        <v>13888</v>
       </c>
       <c r="C40" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">selama program wisata religi peserta akan diajak terlibat dengan program yayasan tabung wakaf umat jam bersama </t>
+          <t>para peserta akan mendapatkan benefit mengikuti langsung khutbah jumat uas mengikuti langsung program sos</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['selama', 'program', 'wisata', 'religi', 'peserta', 'akan', 'diajak', 'terlibat', 'dengan', 'program', 'yayasan', 'tabung', 'wakaf', 'umat', 'jam', 'bersama']</t>
+          <t>['para', 'peserta', 'akan', 'mendapatkan', 'benefit', 'mengikuti', 'langsung', 'khutbah', 'jumat', 'uas', 'mengikuti', 'langsung', 'program', 'sos']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>&lt;FreqDist with 12 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['program', 'wisata', 'religi', 'peserta', 'diajak', 'terlibat', 'program', 'yayasan', 'tabung', 'wakaf', 'umat', 'jam']</t>
+          <t>['peserta', 'benefit', 'mengikuti', 'langsung', 'khutbah', 'jumat', 'uas', 'mengikuti', 'langsung', 'program', 'sos']</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['program', 'wisata', 'religi', 'serta', 'ajak', 'libat', 'program', 'yayasan', 'tabung', 'wakaf', 'umat', 'jam']</t>
+          <t>['serta', 'benefit', 'ikut', 'langsung', 'khutbah', 'jumat', 'uas', 'ikut', 'langsung', 'program', 'sos']</t>
         </is>
       </c>
     </row>
@@ -1871,34 +1867,34 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>10300</v>
+        <v>13889</v>
       </c>
       <c r="C41" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>wisata religi jilid mengaji bersama uas hari malam maret  memfasilitasi jamaah yg ingin mndgr</t>
+          <t xml:space="preserve">selama program wisata religi peserta akan diajak terlibat dengan program yayasan tabung wakaf umat jam bersama </t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['wisata', 'religi', 'jilid', 'mengaji', 'bersama', 'uas', 'hari', 'malam', 'maret', 'memfasilitasi', 'jamaah', 'yg', 'ingin', 'mndgr']</t>
+          <t>['selama', 'program', 'wisata', 'religi', 'peserta', 'akan', 'diajak', 'terlibat', 'dengan', 'program', 'yayasan', 'tabung', 'wakaf', 'umat', 'jam', 'bersama']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['wisata', 'religi', 'jilid', 'mengaji', 'uas', 'malam', 'maret', 'memfasilitasi', 'jamaah', 'mndgr']</t>
+          <t>['program', 'wisata', 'religi', 'peserta', 'diajak', 'terlibat', 'program', 'yayasan', 'tabung', 'wakaf', 'umat', 'jam']</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['wisata', 'religi', 'jilid', 'aji', 'uas', 'malam', 'maret', 'fasilitas', 'jamaah', 'mndgr']</t>
+          <t>['program', 'wisata', 'religi', 'serta', 'ajak', 'libat', 'program', 'yayasan', 'tabung', 'wakaf', 'umat', 'jam']</t>
         </is>
       </c>
     </row>
@@ -1907,34 +1903,34 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>10301</v>
+        <v>13890</v>
       </c>
       <c r="C42" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>narahubung konfirmasi ig official fb tabung wakaf umat channel youtube tab</t>
+          <t>wisata religi jilid mengaji bersama uas hari malam maret  memfasilitasi jamaah yg ingin mndgr</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['narahubung', 'konfirmasi', 'ig', 'official', 'fb', 'tabung', 'wakaf', 'umat', 'channel', 'youtube', 'tab']</t>
+          <t>['wisata', 'religi', 'jilid', 'mengaji', 'bersama', 'uas', 'hari', 'malam', 'maret', 'memfasilitasi', 'jamaah', 'yg', 'ingin', 'mndgr']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['narahubung', 'konfirmasi', 'ig', 'official', 'fb', 'tabung', 'wakaf', 'umat', 'channel', 'youtube', 'tab']</t>
+          <t>['wisata', 'religi', 'jilid', 'mengaji', 'uas', 'malam', 'maret', 'memfasilitasi', 'jamaah', 'mndgr']</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['narahubung', 'konfirmasi', 'ig', 'official', 'fb', 'tabung', 'wakaf', 'umat', 'channel', 'youtube', 'tab']</t>
+          <t>['wisata', 'religi', 'jilid', 'aji', 'uas', 'malam', 'maret', 'fasilitas', 'jamaah', 'mndgr']</t>
         </is>
       </c>
     </row>
@@ -1943,34 +1939,34 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>10302</v>
+        <v>13891</v>
       </c>
       <c r="C43" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>bpd riau bank riau kepri syariah bsm bank syariah indonesia bank mu</t>
+          <t>narahubung konfirmasi ig official fb tabung wakaf umat channel youtube tab</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['bpd', 'riau', 'bank', 'riau', 'kepri', 'syariah', 'bsm', 'bank', 'syariah', 'indonesia', 'bank', 'mu']</t>
+          <t>['narahubung', 'konfirmasi', 'ig', 'official', 'fb', 'tabung', 'wakaf', 'umat', 'channel', 'youtube', 'tab']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 12 outcomes&gt;</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['bpd', 'riau', 'bank', 'riau', 'kepri', 'syariah', 'bsm', 'bank', 'syariah', 'indonesia', 'bank', 'mu']</t>
+          <t>['narahubung', 'konfirmasi', 'ig', 'official', 'fb', 'tabung', 'wakaf', 'umat', 'channel', 'youtube', 'tab']</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['bpd', 'riau', 'bank', 'riau', 'kepri', 'syariah', 'bsm', 'bank', 'syariah', 'indonesia', 'bank', 'mu']</t>
+          <t>['narahubung', 'konfirmasi', 'ig', 'official', 'fb', 'tabung', 'wakaf', 'umat', 'channel', 'youtube', 'tab']</t>
         </is>
       </c>
     </row>
@@ -1979,34 +1975,34 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>10303</v>
+        <v>13892</v>
       </c>
       <c r="C44" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>jamaah yang ingin berwakaf untuk pembangunan pesantren nurul azhar palas bisa wakaf setara dengan setengah sak sem</t>
+          <t>bpd riau bank riau kepri syariah bsm bank syariah indonesia bank mu</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['jamaah', 'yang', 'ingin', 'berwakaf', 'untuk', 'pembangunan', 'pesantren', 'nurul', 'azhar', 'palas', 'bisa', 'wakaf', 'setara', 'dengan', 'setengah', 'sak', 'sem']</t>
+          <t>['bpd', 'riau', 'bank', 'riau', 'kepri', 'syariah', 'bsm', 'bank', 'syariah', 'indonesia', 'bank', 'mu']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>&lt;FreqDist with 8 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['jamaah', 'berwakaf', 'pembangunan', 'pesantren', 'nurul', 'azhar', 'palas', 'wakaf', 'setara', 'sak', 'sem']</t>
+          <t>['bpd', 'riau', 'bank', 'riau', 'kepri', 'syariah', 'bsm', 'bank', 'syariah', 'indonesia', 'bank', 'mu']</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['jamaah', 'wakaf', 'bangun', 'pesantren', 'nurul', 'azhar', 'palas', 'wakaf', 'tara', 'sak', 'sem']</t>
+          <t>['bpd', 'riau', 'bank', 'riau', 'kepri', 'syariah', 'bsm', 'bank', 'syariah', 'indonesia', 'bank', 'mu']</t>
         </is>
       </c>
     </row>
@@ -2015,34 +2011,34 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>10304</v>
+        <v>13893</v>
       </c>
       <c r="C45" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>total dana yang dibutuhkan untuk bangunan tahap pertama rp satu milyar lima ratus dua belas juta rupiah untuk unit rumah</t>
+          <t>jamaah yang ingin berwakaf untuk pembangunan pesantren nurul azhar palas bisa wakaf setara dengan setengah sak sem</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['total', 'dana', 'yang', 'dibutuhkan', 'untuk', 'bangunan', 'tahap', 'pertama', 'rp', 'satu', 'milyar', 'lima', 'ratus', 'dua', 'belas', 'juta', 'rupiah', 'untuk', 'unit', 'rumah']</t>
+          <t>['jamaah', 'yang', 'ingin', 'berwakaf', 'untuk', 'pembangunan', 'pesantren', 'nurul', 'azhar', 'palas', 'bisa', 'wakaf', 'setara', 'dengan', 'setengah', 'sak', 'sem']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['total', 'dana', 'dibutuhkan', 'bangunan', 'tahap', 'rp', 'milyar', 'ratus', 'belas', 'juta', 'rupiah', 'unit', 'rumah']</t>
+          <t>['jamaah', 'berwakaf', 'pembangunan', 'pesantren', 'nurul', 'azhar', 'palas', 'wakaf', 'setara', 'sak', 'sem']</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['total', 'dana', 'butuh', 'bangun', 'tahap', 'rp', 'milyar', 'ratus', 'belas', 'juta', 'rupiah', 'unit', 'rumah']</t>
+          <t>['jamaah', 'wakaf', 'bangun', 'pesantren', 'nurul', 'azhar', 'palas', 'wakaf', 'tara', 'sak', 'sem']</t>
         </is>
       </c>
     </row>
@@ -2051,34 +2047,34 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>10305</v>
+        <v>13894</v>
       </c>
       <c r="C46" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve">saat ini telah dipasang pagar dan hari senin februari insya allah akan dimulai pembangunan tahap pertama </t>
+          <t>total dana yang dibutuhkan untuk bangunan tahap pertama rp satu milyar lima ratus dua belas juta rupiah untuk unit rumah</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['saat', 'ini', 'telah', 'dipasang', 'pagar', 'dan', 'hari', 'senin', 'februari', 'insya', 'allah', 'akan', 'dimulai', 'pembangunan', 'tahap', 'pertama']</t>
+          <t>['total', 'dana', 'yang', 'dibutuhkan', 'untuk', 'bangunan', 'tahap', 'pertama', 'rp', 'satu', 'milyar', 'lima', 'ratus', 'dua', 'belas', 'juta', 'rupiah', 'untuk', 'unit', 'rumah']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['dipasang', 'pagar', 'senin', 'februari', 'insya', 'allah', 'pembangunan', 'tahap']</t>
+          <t>['total', 'dana', 'dibutuhkan', 'bangunan', 'tahap', 'rp', 'milyar', 'ratus', 'belas', 'juta', 'rupiah', 'unit', 'rumah']</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['pasang', 'pagar', 'senin', 'februari', 'insya', 'allah', 'bangun', 'tahap']</t>
+          <t>['total', 'dana', 'butuh', 'bangun', 'tahap', 'rp', 'milyar', 'ratus', 'belas', 'juta', 'rupiah', 'unit', 'rumah']</t>
         </is>
       </c>
     </row>
@@ -2087,34 +2083,34 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>10306</v>
+        <v>13895</v>
       </c>
       <c r="C47" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>santri tdk dibebankan biaya pendidikan slma belajar ytwu akan mengupayakan pengelolaan zakat infaq sedekah dan</t>
+          <t xml:space="preserve">saat ini telah dipasang pagar dan hari senin februari insya allah akan dimulai pembangunan tahap pertama </t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['santri', 'tdk', 'dibebankan', 'biaya', 'pendidikan', 'slma', 'belajar', 'ytwu', 'akan', 'mengupayakan', 'pengelolaan', 'zakat', 'infaq', 'sedekah', 'dan']</t>
+          <t>['saat', 'ini', 'telah', 'dipasang', 'pagar', 'dan', 'hari', 'senin', 'februari', 'insya', 'allah', 'akan', 'dimulai', 'pembangunan', 'tahap', 'pertama']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['santri', 'dibebankan', 'biaya', 'pendidikan', 'slma', 'belajar', 'ytwu', 'mengupayakan', 'pengelolaan', 'zakat', 'infaq', 'sedekah']</t>
+          <t>['dipasang', 'pagar', 'senin', 'februari', 'insya', 'allah', 'pembangunan', 'tahap']</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['santri', 'beban', 'biaya', 'didik', 'slma', 'ajar', 'ytwu', 'upaya', 'kelola', 'zakat', 'infaq', 'sedekah']</t>
+          <t>['pasang', 'pagar', 'senin', 'februari', 'insya', 'allah', 'bangun', 'tahap']</t>
         </is>
       </c>
     </row>
@@ -2123,34 +2119,34 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>10307</v>
+        <v>13896</v>
       </c>
       <c r="C48" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>dengan format pendidikan tahun yang fokus mencetak santri hafal alquran mahir membaca kitab kuning ahli zikir</t>
+          <t>santri tdk dibebankan biaya pendidikan slma belajar ytwu akan mengupayakan pengelolaan zakat infaq sedekah dan</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['dengan', 'format', 'pendidikan', 'tahun', 'yang', 'fokus', 'mencetak', 'santri', 'hafal', 'alquran', 'mahir', 'membaca', 'kitab', 'kuning', 'ahli', 'zikir']</t>
+          <t>['santri', 'tdk', 'dibebankan', 'biaya', 'pendidikan', 'slma', 'belajar', 'ytwu', 'akan', 'mengupayakan', 'pengelolaan', 'zakat', 'infaq', 'sedekah', 'dan']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['format', 'pendidikan', 'fokus', 'mencetak', 'santri', 'hafal', 'alquran', 'mahir', 'membaca', 'kitab', 'kuning', 'ahli', 'zikir']</t>
+          <t>['santri', 'dibebankan', 'biaya', 'pendidikan', 'slma', 'belajar', 'ytwu', 'mengupayakan', 'pengelolaan', 'zakat', 'infaq', 'sedekah']</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['format', 'didik', 'fokus', 'cetak', 'santri', 'hafal', 'alquran', 'mahir', 'baca', 'kitab', 'kuning', 'ahli', 'zikir']</t>
+          <t>['santri', 'beban', 'biaya', 'didik', 'slma', 'ajar', 'ytwu', 'upaya', 'kelola', 'zakat', 'infaq', 'sedekah']</t>
         </is>
       </c>
     </row>
@@ -2159,34 +2155,34 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>10308</v>
+        <v>13897</v>
       </c>
       <c r="C49" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>pesantren nurul azhar palas adalah wadah pendidikan yang berada di jalan tengku mahmud palas rumbai kota pekanbaru</t>
+          <t>dengan format pendidikan tahun yang fokus mencetak santri hafal alquran mahir membaca kitab kuning ahli zikir</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['pesantren', 'nurul', 'azhar', 'palas', 'adalah', 'wadah', 'pendidikan', 'yang', 'berada', 'di', 'jalan', 'tengku', 'mahmud', 'palas', 'rumbai', 'kota', 'pekanbaru']</t>
+          <t>['dengan', 'format', 'pendidikan', 'tahun', 'yang', 'fokus', 'mencetak', 'santri', 'hafal', 'alquran', 'mahir', 'membaca', 'kitab', 'kuning', 'ahli', 'zikir']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['pesantren', 'nurul', 'azhar', 'palas', 'wadah', 'pendidikan', 'jalan', 'tengku', 'mahmud', 'palas', 'rumbai', 'kota', 'pekanbaru']</t>
+          <t>['format', 'pendidikan', 'fokus', 'mencetak', 'santri', 'hafal', 'alquran', 'mahir', 'membaca', 'kitab', 'kuning', 'ahli', 'zikir']</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['pesantren', 'nurul', 'azhar', 'palas', 'wadah', 'didik', 'jalan', 'tengku', 'mahmud', 'palas', 'rumbai', 'kota', 'pekanbaru']</t>
+          <t>['format', 'didik', 'fokus', 'cetak', 'santri', 'hafal', 'alquran', 'mahir', 'baca', 'kitab', 'kuning', 'ahli', 'zikir']</t>
         </is>
       </c>
     </row>
@@ -2195,34 +2191,34 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>10309</v>
+        <v>13898</v>
       </c>
       <c r="C50" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>judul buku karya uas dapatkan bukubuku karya ustadz abdul somad pemesana</t>
+          <t>pesantren nurul azhar palas adalah wadah pendidikan yang berada di jalan tengku mahmud palas rumbai kota pekanbaru</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['judul', 'buku', 'karya', 'uas', 'dapatkan', 'bukubuku', 'karya', 'ustadz', 'abdul', 'somad', 'pemesana']</t>
+          <t>['pesantren', 'nurul', 'azhar', 'palas', 'adalah', 'wadah', 'pendidikan', 'yang', 'berada', 'di', 'jalan', 'tengku', 'mahmud', 'palas', 'rumbai', 'kota', 'pekanbaru']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['judul', 'buku', 'karya', 'uas', 'dapatkan', 'bukubuku', 'karya', 'ustadz', 'abdul', 'somad', 'pemesana']</t>
+          <t>['pesantren', 'nurul', 'azhar', 'palas', 'wadah', 'pendidikan', 'jalan', 'tengku', 'mahmud', 'palas', 'rumbai', 'kota', 'pekanbaru']</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['judul', 'buku', 'karya', 'uas', 'dapat', 'bukubuku', 'karya', 'ustadz', 'abdul', 'somad', 'sana']</t>
+          <t>['pesantren', 'nurul', 'azhar', 'palas', 'wadah', 'didik', 'jalan', 'tengku', 'mahmud', 'palas', 'rumbai', 'kota', 'pekanbaru']</t>
         </is>
       </c>
     </row>
@@ -2231,34 +2227,34 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>10310</v>
+        <v>13899</v>
       </c>
       <c r="C51" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>infaqwakaf pembangunan ponpes darul ihsan bsi bank syariah mandiri no rekening an yayasan jamb</t>
+          <t>judul buku karya uas dapatkan bukubuku karya ustadz abdul somad pemesana</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['infaqwakaf', 'pembangunan', 'ponpes', 'darul', 'ihsan', 'bsi', 'bank', 'syariah', 'mandiri', 'no', 'rekening', 'an', 'yayasan', 'jamb']</t>
+          <t>['judul', 'buku', 'karya', 'uas', 'dapatkan', 'bukubuku', 'karya', 'ustadz', 'abdul', 'somad', 'pemesana']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['infaqwakaf', 'pembangunan', 'ponpes', 'darul', 'ihsan', 'bsi', 'bank', 'syariah', 'mandiri', 'no', 'rekening', 'an', 'yayasan', 'jamb']</t>
+          <t>['judul', 'buku', 'karya', 'uas', 'dapatkan', 'bukubuku', 'karya', 'ustadz', 'abdul', 'somad', 'pemesana']</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['infaqwakaf', 'bangun', 'ponpes', 'darul', 'ihsan', 'bsi', 'bank', 'syariah', 'mandiri', 'no', 'rekening', 'an', 'yayasan', 'jamb']</t>
+          <t>['judul', 'buku', 'karya', 'uas', 'dapat', 'bukubuku', 'karya', 'ustadz', 'abdul', 'somad', 'sana']</t>
         </is>
       </c>
     </row>
@@ -2267,19 +2263,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>10311</v>
+        <v>13900</v>
       </c>
       <c r="C52" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>keliling pesantren darullhsan jambi mari support infaq wakaf semen bank mega syariah no rekening</t>
+          <t>infaqwakaf pembangunan ponpes darul ihsan bsi bank syariah mandiri no rekening an yayasan jamb</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['keliling', 'pesantren', 'darullhsan', 'jambi', 'mari', 'support', 'infaq', 'wakaf', 'semen', 'bank', 'mega', 'syariah', 'no', 'rekening']</t>
+          <t>['infaqwakaf', 'pembangunan', 'ponpes', 'darul', 'ihsan', 'bsi', 'bank', 'syariah', 'mandiri', 'no', 'rekening', 'an', 'yayasan', 'jamb']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2289,12 +2285,12 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['keliling', 'pesantren', 'darullhsan', 'jambi', 'mari', 'support', 'infaq', 'wakaf', 'semen', 'bank', 'mega', 'syariah', 'no', 'rekening']</t>
+          <t>['infaqwakaf', 'pembangunan', 'ponpes', 'darul', 'ihsan', 'bsi', 'bank', 'syariah', 'mandiri', 'no', 'rekening', 'an', 'yayasan', 'jamb']</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['keliling', 'pesantren', 'darullhsan', 'jambi', 'mari', 'support', 'infaq', 'wakaf', 'semen', 'bank', 'mega', 'syariah', 'no', 'rekening']</t>
+          <t>['infaqwakaf', 'bangun', 'ponpes', 'darul', 'ihsan', 'bsi', 'bank', 'syariah', 'mandiri', 'no', 'rekening', 'an', 'yayasan', 'jamb']</t>
         </is>
       </c>
     </row>
@@ -2303,34 +2299,34 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>10312</v>
+        <v>13901</v>
       </c>
       <c r="C53" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>bagi yang ingin ikut serta dapat mengirim donasi ke bank syariah mandiri no rek an yayasan wakaf</t>
+          <t>keliling pesantren darullhsan jambi mari support infaq wakaf semen bank mega syariah no rekening</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['bagi', 'yang', 'ingin', 'ikut', 'serta', 'dapat', 'mengirim', 'donasi', 'ke', 'bank', 'syariah', 'mandiri', 'no', 'rek', 'an', 'yayasan', 'wakaf']</t>
+          <t>['keliling', 'pesantren', 'darullhsan', 'jambi', 'mari', 'support', 'infaq', 'wakaf', 'semen', 'bank', 'mega', 'syariah', 'no', 'rekening']</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>['mengirim', 'donasi', 'bank', 'syariah', 'mandiri', 'no', 'rek', 'an', 'yayasan', 'wakaf']</t>
+          <t>['keliling', 'pesantren', 'darullhsan', 'jambi', 'mari', 'support', 'infaq', 'wakaf', 'semen', 'bank', 'mega', 'syariah', 'no', 'rekening']</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['kirim', 'donasi', 'bank', 'syariah', 'mandiri', 'no', 'rek', 'an', 'yayasan', 'wakaf']</t>
+          <t>['keliling', 'pesantren', 'darullhsan', 'jambi', 'mari', 'support', 'infaq', 'wakaf', 'semen', 'bank', 'mega', 'syariah', 'no', 'rekening']</t>
         </is>
       </c>
     </row>
@@ -2339,34 +2335,34 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>10313</v>
+        <v>13902</v>
       </c>
       <c r="C54" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>yayasan wakaf hajjah rohana berbagi pembagian paket sembako kepada dhuafa tanggal</t>
+          <t>bagi yang ingin ikut serta dapat mengirim donasi ke bank syariah mandiri no rek an yayasan wakaf</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['yayasan', 'wakaf', 'hajjah', 'rohana', 'berbagi', 'pembagian', 'paket', 'sembako', 'kepada', 'dhuafa', 'tanggal']</t>
+          <t>['bagi', 'yang', 'ingin', 'ikut', 'serta', 'dapat', 'mengirim', 'donasi', 'ke', 'bank', 'syariah', 'mandiri', 'no', 'rek', 'an', 'yayasan', 'wakaf']</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['yayasan', 'wakaf', 'hajjah', 'rohana', 'berbagi', 'pembagian', 'paket', 'sembako', 'dhuafa', 'tanggal']</t>
+          <t>['mengirim', 'donasi', 'bank', 'syariah', 'mandiri', 'no', 'rek', 'an', 'yayasan', 'wakaf']</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['yayasan', 'wakaf', 'hajjah', 'rohana', 'bagi', 'bagi', 'paket', 'sembako', 'dhuafa', 'tanggal']</t>
+          <t>['kirim', 'donasi', 'bank', 'syariah', 'mandiri', 'no', 'rek', 'an', 'yayasan', 'wakaf']</t>
         </is>
       </c>
     </row>
@@ -2375,34 +2371,34 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>10314</v>
+        <v>13903</v>
       </c>
       <c r="C55" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve">kalau pernah shalat malam kalau pernah bersedekah jumah mubarokah jangan lupa baca surah alkahfi baca yasin </t>
+          <t>yayasan wakaf hajjah rohana berbagi pembagian paket sembako kepada dhuafa tanggal</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['kalau', 'pernah', 'shalat', 'malam', 'kalau', 'pernah', 'bersedekah', 'jumah', 'mubarokah', 'jangan', 'lupa', 'baca', 'surah', 'alkahfi', 'baca', 'yasin']</t>
+          <t>['yayasan', 'wakaf', 'hajjah', 'rohana', 'berbagi', 'pembagian', 'paket', 'sembako', 'kepada', 'dhuafa', 'tanggal']</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 16 outcomes&gt;</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['shalat', 'malam', 'bersedekah', 'jumah', 'mubarokah', 'lupa', 'baca', 'surah', 'alkahfi', 'baca', 'yasin']</t>
+          <t>['yayasan', 'wakaf', 'hajjah', 'rohana', 'berbagi', 'pembagian', 'paket', 'sembako', 'dhuafa', 'tanggal']</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['shalat', 'malam', 'sedekah', 'jumah', 'mubarokah', 'lupa', 'baca', 'surah', 'alkahfi', 'baca', 'yasin']</t>
+          <t>['yayasan', 'wakaf', 'hajjah', 'rohana', 'bagi', 'bagi', 'paket', 'sembako', 'dhuafa', 'tanggal']</t>
         </is>
       </c>
     </row>
@@ -2411,34 +2407,34 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>10315</v>
+        <v>13904</v>
       </c>
       <c r="C56" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>tidak berbaring tapi dibaringkan menghadap kiblat hidung menempel ke tanah tatapan mata tak sampai sejengkal su</t>
+          <t xml:space="preserve">kalau pernah shalat malam kalau pernah bersedekah jumah mubarokah jangan lupa baca surah alkahfi baca yasin </t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['tidak', 'berbaring', 'tapi', 'dibaringkan', 'menghadap', 'kiblat', 'hidung', 'menempel', 'ke', 'tanah', 'tatapan', 'mata', 'tak', 'sampai', 'sejengkal', 'su']</t>
+          <t>['kalau', 'pernah', 'shalat', 'malam', 'kalau', 'pernah', 'bersedekah', 'jumah', 'mubarokah', 'jangan', 'lupa', 'baca', 'surah', 'alkahfi', 'baca', 'yasin']</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>&lt;FreqDist with 13 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['berbaring', 'dibaringkan', 'menghadap', 'kiblat', 'hidung', 'menempel', 'tanah', 'tatapan', 'mata', 'sejengkal', 'su']</t>
+          <t>['shalat', 'malam', 'bersedekah', 'jumah', 'mubarokah', 'lupa', 'baca', 'surah', 'alkahfi', 'baca', 'yasin']</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['baring', 'baring', 'hadap', 'kiblat', 'hidung', 'tempel', 'tanah', 'tatap', 'mata', 'jengkal', 'su']</t>
+          <t>['shalat', 'malam', 'sedekah', 'jumah', 'mubarokah', 'lupa', 'baca', 'surah', 'alkahfi', 'baca', 'yasin']</t>
         </is>
       </c>
     </row>
@@ -2447,34 +2443,34 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>10316</v>
+        <v>13905</v>
       </c>
       <c r="C57" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>seperti mata kail pancing ditarik dari daging yang basah mata memandang ruh keluar mata tak tertutup tapi ditut</t>
+          <t>tidak berbaring tapi dibaringkan menghadap kiblat hidung menempel ke tanah tatapan mata tak sampai sejengkal su</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['seperti', 'mata', 'kail', 'pancing', 'ditarik', 'dari', 'daging', 'yang', 'basah', 'mata', 'memandang', 'ruh', 'keluar', 'mata', 'tak', 'tertutup', 'tapi', 'ditut']</t>
+          <t>['tidak', 'berbaring', 'tapi', 'dibaringkan', 'menghadap', 'kiblat', 'hidung', 'menempel', 'ke', 'tanah', 'tatapan', 'mata', 'tak', 'sampai', 'sejengkal', 'su']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['mata', 'kail', 'pancing', 'ditarik', 'daging', 'basah', 'mata', 'memandang', 'ruh', 'mata', 'tertutup', 'ditut']</t>
+          <t>['berbaring', 'dibaringkan', 'menghadap', 'kiblat', 'hidung', 'menempel', 'tanah', 'tatapan', 'mata', 'sejengkal', 'su']</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['mata', 'kail', 'pancing', 'tarik', 'daging', 'basah', 'mata', 'pandang', 'ruh', 'mata', 'tutup', 'ditut']</t>
+          <t>['baring', 'baring', 'hadap', 'kiblat', 'hidung', 'tempel', 'tanah', 'tatap', 'mata', 'jengkal', 'su']</t>
         </is>
       </c>
     </row>
@@ -2483,34 +2479,34 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>10317</v>
+        <v>13906</v>
       </c>
       <c r="C58" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>ruh yang suci bersemayam dalam jasad yang kotor darah daging lemak membusuk jasad jadi mulia karena ruh keti</t>
+          <t>seperti mata kail pancing ditarik dari daging yang basah mata memandang ruh keluar mata tak tertutup tapi ditut</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['ruh', 'yang', 'suci', 'bersemayam', 'dalam', 'jasad', 'yang', 'kotor', 'darah', 'daging', 'lemak', 'membusuk', 'jasad', 'jadi', 'mulia', 'karena', 'ruh', 'keti']</t>
+          <t>['seperti', 'mata', 'kail', 'pancing', 'ditarik', 'dari', 'daging', 'yang', 'basah', 'mata', 'memandang', 'ruh', 'keluar', 'mata', 'tak', 'tertutup', 'tapi', 'ditut']</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 18 outcomes&gt;</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['ruh', 'suci', 'bersemayam', 'jasad', 'kotor', 'darah', 'daging', 'lemak', 'membusuk', 'jasad', 'mulia', 'ruh', 'keti']</t>
+          <t>['mata', 'kail', 'pancing', 'ditarik', 'daging', 'basah', 'mata', 'memandang', 'ruh', 'mata', 'tertutup', 'ditut']</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['ruh', 'suci', 'semayam', 'jasad', 'kotor', 'darah', 'daging', 'lemak', 'busuk', 'jasad', 'mulia', 'ruh', 'keti']</t>
+          <t>['mata', 'kail', 'pancing', 'tarik', 'daging', 'basah', 'mata', 'pandang', 'ruh', 'mata', 'tutup', 'ditut']</t>
         </is>
       </c>
     </row>
@@ -2519,34 +2515,34 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>10318</v>
+        <v>13907</v>
       </c>
       <c r="C59" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>infaqwakaf pembangunan ponpes darul ihsan bsi bank syariah mandiri no rekening an yayasan</t>
+          <t>ruh yang suci bersemayam dalam jasad yang kotor darah daging lemak membusuk jasad jadi mulia karena ruh keti</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['infaqwakaf', 'pembangunan', 'ponpes', 'darul', 'ihsan', 'bsi', 'bank', 'syariah', 'mandiri', 'no', 'rekening', 'an', 'yayasan']</t>
+          <t>['ruh', 'yang', 'suci', 'bersemayam', 'dalam', 'jasad', 'yang', 'kotor', 'darah', 'daging', 'lemak', 'membusuk', 'jasad', 'jadi', 'mulia', 'karena', 'ruh', 'keti']</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>&lt;FreqDist with 15 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['infaqwakaf', 'pembangunan', 'ponpes', 'darul', 'ihsan', 'bsi', 'bank', 'syariah', 'mandiri', 'no', 'rekening', 'an', 'yayasan']</t>
+          <t>['ruh', 'suci', 'bersemayam', 'jasad', 'kotor', 'darah', 'daging', 'lemak', 'membusuk', 'jasad', 'mulia', 'ruh', 'keti']</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['infaqwakaf', 'bangun', 'ponpes', 'darul', 'ihsan', 'bsi', 'bank', 'syariah', 'mandiri', 'no', 'rekening', 'an', 'yayasan']</t>
+          <t>['ruh', 'suci', 'semayam', 'jasad', 'kotor', 'darah', 'daging', 'lemak', 'busuk', 'jasad', 'mulia', 'ruh', 'keti']</t>
         </is>
       </c>
     </row>
@@ -2555,34 +2551,34 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>10319</v>
+        <v>13908</v>
       </c>
       <c r="C60" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>bersama jmc jambi madani centre infaq wakaf semen bank mega syariah no rekening an yayasan</t>
+          <t>infaqwakaf pembangunan ponpes darul ihsan bsi bank syariah mandiri no rekening an yayasan</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['bersama', 'jmc', 'jambi', 'madani', 'centre', 'infaq', 'wakaf', 'semen', 'bank', 'mega', 'syariah', 'no', 'rekening', 'an', 'yayasan']</t>
+          <t>['infaqwakaf', 'pembangunan', 'ponpes', 'darul', 'ihsan', 'bsi', 'bank', 'syariah', 'mandiri', 'no', 'rekening', 'an', 'yayasan']</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['jmc', 'jambi', 'madani', 'centre', 'infaq', 'wakaf', 'semen', 'bank', 'mega', 'syariah', 'no', 'rekening', 'an', 'yayasan']</t>
+          <t>['infaqwakaf', 'pembangunan', 'ponpes', 'darul', 'ihsan', 'bsi', 'bank', 'syariah', 'mandiri', 'no', 'rekening', 'an', 'yayasan']</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['jmc', 'jambi', 'madani', 'centre', 'infaq', 'wakaf', 'semen', 'bank', 'mega', 'syariah', 'no', 'rekening', 'an', 'yayasan']</t>
+          <t>['infaqwakaf', 'bangun', 'ponpes', 'darul', 'ihsan', 'bsi', 'bank', 'syariah', 'mandiri', 'no', 'rekening', 'an', 'yayasan']</t>
         </is>
       </c>
     </row>
@@ -2591,34 +2587,34 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>10320</v>
+        <v>13909</v>
       </c>
       <c r="C61" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>narahubung konfirmasi ig official fb tabung wakaf umat channel youtube tab</t>
+          <t>bersama jmc jambi madani centre infaq wakaf semen bank mega syariah no rekening an yayasan</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['narahubung', 'konfirmasi', 'ig', 'official', 'fb', 'tabung', 'wakaf', 'umat', 'channel', 'youtube', 'tab']</t>
+          <t>['bersama', 'jmc', 'jambi', 'madani', 'centre', 'infaq', 'wakaf', 'semen', 'bank', 'mega', 'syariah', 'no', 'rekening', 'an', 'yayasan']</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['narahubung', 'konfirmasi', 'ig', 'official', 'fb', 'tabung', 'wakaf', 'umat', 'channel', 'youtube', 'tab']</t>
+          <t>['jmc', 'jambi', 'madani', 'centre', 'infaq', 'wakaf', 'semen', 'bank', 'mega', 'syariah', 'no', 'rekening', 'an', 'yayasan']</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['narahubung', 'konfirmasi', 'ig', 'official', 'fb', 'tabung', 'wakaf', 'umat', 'channel', 'youtube', 'tab']</t>
+          <t>['jmc', 'jambi', 'madani', 'centre', 'infaq', 'wakaf', 'semen', 'bank', 'mega', 'syariah', 'no', 'rekening', 'an', 'yayasan']</t>
         </is>
       </c>
     </row>
@@ -2627,34 +2623,34 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>10321</v>
+        <v>13910</v>
       </c>
       <c r="C62" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>sertakan kode di akhir nominal transfer contoh rp jamaah bisa berwakaf meski setara dengan nilai sete</t>
+          <t>narahubung konfirmasi ig official fb tabung wakaf umat channel youtube tab</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['sertakan', 'kode', 'di', 'akhir', 'nominal', 'transfer', 'contoh', 'rp', 'jamaah', 'bisa', 'berwakaf', 'meski', 'setara', 'dengan', 'nilai', 'sete']</t>
+          <t>['narahubung', 'konfirmasi', 'ig', 'official', 'fb', 'tabung', 'wakaf', 'umat', 'channel', 'youtube', 'tab']</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['sertakan', 'kode', 'nominal', 'transfer', 'contoh', 'rp', 'jamaah', 'berwakaf', 'setara', 'nilai', 'sete']</t>
+          <t>['narahubung', 'konfirmasi', 'ig', 'official', 'fb', 'tabung', 'wakaf', 'umat', 'channel', 'youtube', 'tab']</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['serta', 'kode', 'nominal', 'transfer', 'contoh', 'rp', 'jamaah', 'wakaf', 'tara', 'nilai', 'sete']</t>
+          <t>['narahubung', 'konfirmasi', 'ig', 'official', 'fb', 'tabung', 'wakaf', 'umat', 'channel', 'youtube', 'tab']</t>
         </is>
       </c>
     </row>
@@ -2663,34 +2659,34 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>10322</v>
+        <v>13911</v>
       </c>
       <c r="C63" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>bagi jamaah yang ingin ikut berwakaf untuk pembangunan pesantren attauhid suku talang mamak bisa salurkan ke reke</t>
+          <t>sertakan kode di akhir nominal transfer contoh rp jamaah bisa berwakaf meski setara dengan nilai sete</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['bagi', 'jamaah', 'yang', 'ingin', 'ikut', 'berwakaf', 'untuk', 'pembangunan', 'pesantren', 'attauhid', 'suku', 'talang', 'mamak', 'bisa', 'salurkan', 'ke', 'reke']</t>
+          <t>['sertakan', 'kode', 'di', 'akhir', 'nominal', 'transfer', 'contoh', 'rp', 'jamaah', 'bisa', 'berwakaf', 'meski', 'setara', 'dengan', 'nilai', 'sete']</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['jamaah', 'berwakaf', 'pembangunan', 'pesantren', 'attauhid', 'suku', 'talang', 'mamak', 'salurkan', 'reke']</t>
+          <t>['sertakan', 'kode', 'nominal', 'transfer', 'contoh', 'rp', 'jamaah', 'berwakaf', 'setara', 'nilai', 'sete']</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['jamaah', 'wakaf', 'bangun', 'pesantren', 'attauhid', 'suku', 'talang', 'mamak', 'salur', 'reke']</t>
+          <t>['serta', 'kode', 'nominal', 'transfer', 'contoh', 'rp', 'jamaah', 'wakaf', 'tara', 'nilai', 'sete']</t>
         </is>
       </c>
     </row>
@@ -2699,34 +2695,34 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>10323</v>
+        <v>13912</v>
       </c>
       <c r="C64" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>pesantren ini akan menjadi tempat untuk mencetak orang berilmu dari suku talang mamak dan diharapkan menjadi dai ya</t>
+          <t>bagi jamaah yang ingin ikut berwakaf untuk pembangunan pesantren attauhid suku talang mamak bisa salurkan ke reke</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['pesantren', 'ini', 'akan', 'menjadi', 'tempat', 'untuk', 'mencetak', 'orang', 'berilmu', 'dari', 'suku', 'talang', 'mamak', 'dan', 'diharapkan', 'menjadi', 'dai', 'ya']</t>
+          <t>['bagi', 'jamaah', 'yang', 'ingin', 'ikut', 'berwakaf', 'untuk', 'pembangunan', 'pesantren', 'attauhid', 'suku', 'talang', 'mamak', 'bisa', 'salurkan', 'ke', 'reke']</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['pesantren', 'mencetak', 'orang', 'berilmu', 'suku', 'talang', 'mamak', 'diharapkan', 'dai']</t>
+          <t>['jamaah', 'berwakaf', 'pembangunan', 'pesantren', 'attauhid', 'suku', 'talang', 'mamak', 'salurkan', 'reke']</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['pesantren', 'cetak', 'orang', 'beril', 'suku', 'talang', 'mamak', 'harap', 'dai']</t>
+          <t>['jamaah', 'wakaf', 'bangun', 'pesantren', 'attauhid', 'suku', 'talang', 'mamak', 'salur', 'reke']</t>
         </is>
       </c>
     </row>
@@ -2735,34 +2731,34 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>10324</v>
+        <v>13913</v>
       </c>
       <c r="C65" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t xml:space="preserve">kamis februari alhamdulilah telah dimulai kembali kelanjutan pembangunan pesantren attauhid suku talang </t>
+          <t>pesantren ini akan menjadi tempat untuk mencetak orang berilmu dari suku talang mamak dan diharapkan menjadi dai ya</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['kamis', 'februari', 'alhamdulilah', 'telah', 'dimulai', 'kembali', 'kelanjutan', 'pembangunan', 'pesantren', 'attauhid', 'suku', 'talang']</t>
+          <t>['pesantren', 'ini', 'akan', 'menjadi', 'tempat', 'untuk', 'mencetak', 'orang', 'berilmu', 'dari', 'suku', 'talang', 'mamak', 'dan', 'diharapkan', 'menjadi', 'dai', 'ya']</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['kamis', 'februari', 'alhamdulilah', 'kelanjutan', 'pembangunan', 'pesantren', 'attauhid', 'suku', 'talang']</t>
+          <t>['pesantren', 'mencetak', 'orang', 'berilmu', 'suku', 'talang', 'mamak', 'diharapkan', 'dai']</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['kamis', 'februari', 'alhamdulilah', 'lanjut', 'bangun', 'pesantren', 'attauhid', 'suku', 'talang']</t>
+          <t>['pesantren', 'cetak', 'orang', 'beril', 'suku', 'talang', 'mamak', 'harap', 'dai']</t>
         </is>
       </c>
     </row>
@@ -2771,34 +2767,34 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>10325</v>
+        <v>13914</v>
       </c>
       <c r="C66" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>kyai habib ustadz syekh</t>
+          <t xml:space="preserve">kamis februari alhamdulilah telah dimulai kembali kelanjutan pembangunan pesantren attauhid suku talang </t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['kyai', 'habib', 'ustadz', 'syekh']</t>
+          <t>['kamis', 'februari', 'alhamdulilah', 'telah', 'dimulai', 'kembali', 'kelanjutan', 'pembangunan', 'pesantren', 'attauhid', 'suku', 'talang']</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['kyai', 'habib', 'ustadz', 'syekh']</t>
+          <t>['kamis', 'februari', 'alhamdulilah', 'kelanjutan', 'pembangunan', 'pesantren', 'attauhid', 'suku', 'talang']</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['kyai', 'habib', 'ustadz', 'syekh']</t>
+          <t>['kamis', 'februari', 'alhamdulilah', 'lanjut', 'bangun', 'pesantren', 'attauhid', 'suku', 'talang']</t>
         </is>
       </c>
     </row>
@@ -2807,34 +2803,34 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>10326</v>
+        <v>13915</v>
       </c>
       <c r="C67" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>menuju suku duano dan suku anak dalam jambi</t>
+          <t>kyai habib ustadz syekh</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['menuju', 'suku', 'duano', 'dan', 'suku', 'anak', 'dalam', 'jambi']</t>
+          <t>['kyai', 'habib', 'ustadz', 'syekh']</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 8 outcomes&gt;</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['suku', 'duano', 'suku', 'anak', 'jambi']</t>
+          <t>['kyai', 'habib', 'ustadz', 'syekh']</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['suku', 'duano', 'suku', 'anak', 'jambi']</t>
+          <t>['kyai', 'habib', 'ustadz', 'syekh']</t>
         </is>
       </c>
     </row>
@@ -2843,34 +2839,34 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>10327</v>
+        <v>13916</v>
       </c>
       <c r="C68" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>narahubung konfirmasi ig official fb tabung wakaf umat channel youtube tab</t>
+          <t>menuju suku duano dan suku anak dalam jambi</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['narahubung', 'konfirmasi', 'ig', 'official', 'fb', 'tabung', 'wakaf', 'umat', 'channel', 'youtube', 'tab']</t>
+          <t>['menuju', 'suku', 'duano', 'dan', 'suku', 'anak', 'dalam', 'jambi']</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>&lt;FreqDist with 7 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['narahubung', 'konfirmasi', 'ig', 'official', 'fb', 'tabung', 'wakaf', 'umat', 'channel', 'youtube', 'tab']</t>
+          <t>['suku', 'duano', 'suku', 'anak', 'jambi']</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['narahubung', 'konfirmasi', 'ig', 'official', 'fb', 'tabung', 'wakaf', 'umat', 'channel', 'youtube', 'tab']</t>
+          <t>['suku', 'duano', 'suku', 'anak', 'jambi']</t>
         </is>
       </c>
     </row>
@@ -2879,34 +2875,34 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>10328</v>
+        <v>13917</v>
       </c>
       <c r="C69" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>untuk wakaf mushaf alquran silahkan transfer ke rekening bpd riau bank riau kepri syariah</t>
+          <t>narahubung konfirmasi ig official fb tabung wakaf umat channel youtube tab</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['untuk', 'wakaf', 'mushaf', 'alquran', 'silahkan', 'transfer', 'ke', 'rekening', 'bpd', 'riau', 'bank', 'riau', 'kepri', 'syariah']</t>
+          <t>['narahubung', 'konfirmasi', 'ig', 'official', 'fb', 'tabung', 'wakaf', 'umat', 'channel', 'youtube', 'tab']</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['wakaf', 'mushaf', 'alquran', 'silahkan', 'transfer', 'rekening', 'bpd', 'riau', 'bank', 'riau', 'kepri', 'syariah']</t>
+          <t>['narahubung', 'konfirmasi', 'ig', 'official', 'fb', 'tabung', 'wakaf', 'umat', 'channel', 'youtube', 'tab']</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['wakaf', 'mushaf', 'alquran', 'silah', 'transfer', 'rekening', 'bpd', 'riau', 'bank', 'riau', 'kepri', 'syariah']</t>
+          <t>['narahubung', 'konfirmasi', 'ig', 'official', 'fb', 'tabung', 'wakaf', 'umat', 'channel', 'youtube', 'tab']</t>
         </is>
       </c>
     </row>
@@ -2915,34 +2911,34 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>10329</v>
+        <v>13918</v>
       </c>
       <c r="C70" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>untuk wakaf pembangunan pesantren nurul azhar palas silahkan transfer ke rekening bpd riau bank ri</t>
+          <t>untuk wakaf mushaf alquran silahkan transfer ke rekening bpd riau bank riau kepri syariah</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['untuk', 'wakaf', 'pembangunan', 'pesantren', 'nurul', 'azhar', 'palas', 'silahkan', 'transfer', 'ke', 'rekening', 'bpd', 'riau', 'bank', 'ri']</t>
+          <t>['untuk', 'wakaf', 'mushaf', 'alquran', 'silahkan', 'transfer', 'ke', 'rekening', 'bpd', 'riau', 'bank', 'riau', 'kepri', 'syariah']</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['wakaf', 'pembangunan', 'pesantren', 'nurul', 'azhar', 'palas', 'silahkan', 'transfer', 'rekening', 'bpd', 'riau', 'bank', 'ri']</t>
+          <t>['wakaf', 'mushaf', 'alquran', 'silahkan', 'transfer', 'rekening', 'bpd', 'riau', 'bank', 'riau', 'kepri', 'syariah']</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['wakaf', 'bangun', 'pesantren', 'nurul', 'azhar', 'palas', 'silah', 'transfer', 'rekening', 'bpd', 'riau', 'bank', 'ri']</t>
+          <t>['wakaf', 'mushaf', 'alquran', 'silah', 'transfer', 'rekening', 'bpd', 'riau', 'bank', 'riau', 'kepri', 'syariah']</t>
         </is>
       </c>
     </row>
@@ -2951,19 +2947,19 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>10330</v>
+        <v>13919</v>
       </c>
       <c r="C71" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>dukung terus ytwu untuk program sedekah beras bersama uas spbu silahkan transfer ke rekening ba</t>
+          <t>untuk wakaf pembangunan pesantren nurul azhar palas silahkan transfer ke rekening bpd riau bank ri</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['dukung', 'terus', 'ytwu', 'untuk', 'program', 'sedekah', 'beras', 'bersama', 'uas', 'spbu', 'silahkan', 'transfer', 'ke', 'rekening', 'ba']</t>
+          <t>['untuk', 'wakaf', 'pembangunan', 'pesantren', 'nurul', 'azhar', 'palas', 'silahkan', 'transfer', 'ke', 'rekening', 'bpd', 'riau', 'bank', 'ri']</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -2973,12 +2969,12 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['dukung', 'ytwu', 'program', 'sedekah', 'beras', 'uas', 'spbu', 'silahkan', 'transfer', 'rekening', 'ba']</t>
+          <t>['wakaf', 'pembangunan', 'pesantren', 'nurul', 'azhar', 'palas', 'silahkan', 'transfer', 'rekening', 'bpd', 'riau', 'bank', 'ri']</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['dukung', 'ytwu', 'program', 'sedekah', 'beras', 'uas', 'spbu', 'silah', 'transfer', 'rekening', 'ba']</t>
+          <t>['wakaf', 'bangun', 'pesantren', 'nurul', 'azhar', 'palas', 'silah', 'transfer', 'rekening', 'bpd', 'riau', 'bank', 'ri']</t>
         </is>
       </c>
     </row>
@@ -2987,34 +2983,34 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>10331</v>
+        <v>13920</v>
       </c>
       <c r="C72" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>terima kasih jamaah terima kasih sahabatsahabat pegiat komunitas terima kasih para relawan semoga allah membal</t>
+          <t>dukung terus ytwu untuk program sedekah beras bersama uas spbu silahkan transfer ke rekening ba</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'jamaah', 'terima', 'kasih', 'sahabatsahabat', 'pegiat', 'komunitas', 'terima', 'kasih', 'para', 'relawan', 'semoga', 'allah', 'membal']</t>
+          <t>['dukung', 'terus', 'ytwu', 'untuk', 'program', 'sedekah', 'beras', 'bersama', 'uas', 'spbu', 'silahkan', 'transfer', 'ke', 'rekening', 'ba']</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 15 outcomes&gt;</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'jamaah', 'terima', 'kasih', 'sahabatsahabat', 'pegiat', 'komunitas', 'terima', 'kasih', 'relawan', 'semoga', 'allah', 'membal']</t>
+          <t>['dukung', 'ytwu', 'program', 'sedekah', 'beras', 'uas', 'spbu', 'silahkan', 'transfer', 'rekening', 'ba']</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'jamaah', 'terima', 'kasih', 'sahabatsahabat', 'giat', 'komunitas', 'terima', 'kasih', 'rawan', 'moga', 'allah', 'membal']</t>
+          <t>['dukung', 'ytwu', 'program', 'sedekah', 'beras', 'uas', 'spbu', 'silah', 'transfer', 'rekening', 'ba']</t>
         </is>
       </c>
     </row>
@@ -3023,34 +3019,34 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>10332</v>
+        <v>13921</v>
       </c>
       <c r="C73" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>alhamdulillah programprogram seperti spbu wakaf mushaf alquran jam bersama uas guru mengaji di pinggiran</t>
+          <t>terima kasih jamaah terima kasih sahabatsahabat pegiat komunitas terima kasih para relawan semoga allah membal</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'programprogram', 'seperti', 'spbu', 'wakaf', 'mushaf', 'alquran', 'jam', 'bersama', 'uas', 'guru', 'mengaji', 'di', 'pinggiran']</t>
+          <t>['terima', 'kasih', 'jamaah', 'terima', 'kasih', 'sahabatsahabat', 'pegiat', 'komunitas', 'terima', 'kasih', 'para', 'relawan', 'semoga', 'allah', 'membal']</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>&lt;FreqDist with 11 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'programprogram', 'spbu', 'wakaf', 'mushaf', 'alquran', 'jam', 'uas', 'guru', 'mengaji', 'pinggiran']</t>
+          <t>['terima', 'kasih', 'jamaah', 'terima', 'kasih', 'sahabatsahabat', 'pegiat', 'komunitas', 'terima', 'kasih', 'relawan', 'semoga', 'allah', 'membal']</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'programprogram', 'spbu', 'wakaf', 'mushaf', 'alquran', 'jam', 'uas', 'guru', 'aji', 'pinggir']</t>
+          <t>['terima', 'kasih', 'jamaah', 'terima', 'kasih', 'sahabatsahabat', 'giat', 'komunitas', 'terima', 'kasih', 'rawan', 'moga', 'allah', 'membal']</t>
         </is>
       </c>
     </row>
@@ -3059,34 +3055,34 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>10333</v>
+        <v>13922</v>
       </c>
       <c r="C74" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>programprogram yayasan tabung wakaf umat sukses karena didukung jamaah tahun yayasan tabung wakaf umat mera</t>
+          <t>alhamdulillah programprogram seperti spbu wakaf mushaf alquran jam bersama uas guru mengaji di pinggiran</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['programprogram', 'yayasan', 'tabung', 'wakaf', 'umat', 'sukses', 'karena', 'didukung', 'jamaah', 'tahun', 'yayasan', 'tabung', 'wakaf', 'umat', 'mera']</t>
+          <t>['alhamdulillah', 'programprogram', 'seperti', 'spbu', 'wakaf', 'mushaf', 'alquran', 'jam', 'bersama', 'uas', 'guru', 'mengaji', 'di', 'pinggiran']</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 15 outcomes&gt;</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['programprogram', 'yayasan', 'tabung', 'wakaf', 'umat', 'sukses', 'didukung', 'jamaah', 'yayasan', 'tabung', 'wakaf', 'umat', 'mera']</t>
+          <t>['alhamdulillah', 'programprogram', 'spbu', 'wakaf', 'mushaf', 'alquran', 'jam', 'uas', 'guru', 'mengaji', 'pinggiran']</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['programprogram', 'yayasan', 'tabung', 'wakaf', 'umat', 'sukses', 'dukung', 'jamaah', 'yayasan', 'tabung', 'wakaf', 'umat', 'mera']</t>
+          <t>['alhamdulillah', 'programprogram', 'spbu', 'wakaf', 'mushaf', 'alquran', 'jam', 'uas', 'guru', 'aji', 'pinggir']</t>
         </is>
       </c>
     </row>
@@ -3095,34 +3091,34 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>10334</v>
+        <v>13923</v>
       </c>
       <c r="C75" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>dapat hadiah topi dari palestina hadiah syaikh ahmad alshafadi alsafide</t>
+          <t>programprogram yayasan tabung wakaf umat sukses karena didukung jamaah tahun yayasan tabung wakaf umat mera</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['dapat', 'hadiah', 'topi', 'dari', 'palestina', 'hadiah', 'syaikh', 'ahmad', 'alshafadi', 'alsafide']</t>
+          <t>['programprogram', 'yayasan', 'tabung', 'wakaf', 'umat', 'sukses', 'karena', 'didukung', 'jamaah', 'tahun', 'yayasan', 'tabung', 'wakaf', 'umat', 'mera']</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
+          <t>&lt;FreqDist with 11 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['hadiah', 'topi', 'palestina', 'hadiah', 'syaikh', 'ahmad', 'alshafadi', 'alsafide']</t>
+          <t>['programprogram', 'yayasan', 'tabung', 'wakaf', 'umat', 'sukses', 'didukung', 'jamaah', 'yayasan', 'tabung', 'wakaf', 'umat', 'mera']</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['hadiah', 'topi', 'palestina', 'hadiah', 'syaikh', 'ahmad', 'alshafadi', 'alsafide']</t>
+          <t>['programprogram', 'yayasan', 'tabung', 'wakaf', 'umat', 'sukses', 'dukung', 'jamaah', 'yayasan', 'tabung', 'wakaf', 'umat', 'mera']</t>
         </is>
       </c>
     </row>
@@ -3131,34 +3127,34 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>10335</v>
+        <v>13924</v>
       </c>
       <c r="C76" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>omset rp cp ust jamal ust zulfan bank muamalat no rek an tatang yudiansyah or zulfan</t>
+          <t>dapat hadiah topi dari palestina hadiah syaikh ahmad alshafadi alsafide</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['omset', 'rp', 'cp', 'ust', 'jamal', 'ust', 'zulfan', 'bank', 'muamalat', 'no', 'rek', 'an', 'tatang', 'yudiansyah', 'or', 'zulfan']</t>
+          <t>['dapat', 'hadiah', 'topi', 'dari', 'palestina', 'hadiah', 'syaikh', 'ahmad', 'alshafadi', 'alsafide']</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
+          <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['omset', 'rp', 'cp', 'ust', 'jamal', 'ust', 'zulfan', 'bank', 'muamalat', 'no', 'rek', 'an', 'tatang', 'yudiansyah', 'or', 'zulfan']</t>
+          <t>['hadiah', 'topi', 'palestina', 'hadiah', 'syaikh', 'ahmad', 'alshafadi', 'alsafide']</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['omset', 'rp', 'cp', 'ust', 'jamal', 'ust', 'zulfan', 'bank', 'muamalat', 'no', 'rek', 'an', 'tatang', 'yudiansyah', 'or', 'zulfan']</t>
+          <t>['hadiah', 'topi', 'palestina', 'hadiah', 'syaikh', 'ahmad', 'alshafadi', 'alsafide']</t>
         </is>
       </c>
     </row>
@@ -3167,34 +3163,34 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>10336</v>
+        <v>13925</v>
       </c>
       <c r="C77" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>seorang guru yang memahami tatacara dan bacaan shalat yang benar sesuai sunnah akan mengajarkan kepada muridmuridn</t>
+          <t>omset rp cp ust jamal ust zulfan bank muamalat no rek an tatang yudiansyah or zulfan</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['seorang', 'guru', 'yang', 'memahami', 'tatacara', 'dan', 'bacaan', 'shalat', 'yang', 'benar', 'sesuai', 'sunnah', 'akan', 'mengajarkan', 'kepada', 'muridmuridn']</t>
+          <t>['omset', 'rp', 'cp', 'ust', 'jamal', 'ust', 'zulfan', 'bank', 'muamalat', 'no', 'rek', 'an', 'tatang', 'yudiansyah', 'or', 'zulfan']</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['guru', 'memahami', 'tatacara', 'bacaan', 'shalat', 'sesuai', 'sunnah', 'mengajarkan', 'muridmuridn']</t>
+          <t>['omset', 'rp', 'cp', 'ust', 'jamal', 'ust', 'zulfan', 'bank', 'muamalat', 'no', 'rek', 'an', 'tatang', 'yudiansyah', 'or', 'zulfan']</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['guru', 'paham', 'tatacara', 'baca', 'shalat', 'sesuai', 'sunnah', 'ajar', 'muridmuridn']</t>
+          <t>['omset', 'rp', 'cp', 'ust', 'jamal', 'ust', 'zulfan', 'bank', 'muamalat', 'no', 'rek', 'an', 'tatang', 'yudiansyah', 'or', 'zulfan']</t>
         </is>
       </c>
     </row>
@@ -3203,34 +3199,34 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>10337</v>
+        <v>13926</v>
       </c>
       <c r="C78" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>fasilitas buku tanya jawab shalat ditandatangani uas sertifikat coffee breaksnack door prize</t>
+          <t>seorang guru yang memahami tatacara dan bacaan shalat yang benar sesuai sunnah akan mengajarkan kepada muridmuridn</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['fasilitas', 'buku', 'tanya', 'jawab', 'shalat', 'ditandatangani', 'uas', 'sertifikat', 'coffee', 'breaksnack', 'door', 'prize']</t>
+          <t>['seorang', 'guru', 'yang', 'memahami', 'tatacara', 'dan', 'bacaan', 'shalat', 'yang', 'benar', 'sesuai', 'sunnah', 'akan', 'mengajarkan', 'kepada', 'muridmuridn']</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['fasilitas', 'buku', 'shalat', 'ditandatangani', 'uas', 'sertifikat', 'coffee', 'breaksnack', 'door', 'prize']</t>
+          <t>['guru', 'memahami', 'tatacara', 'bacaan', 'shalat', 'sesuai', 'sunnah', 'mengajarkan', 'muridmuridn']</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['fasilitas', 'buku', 'shalat', 'ditandatangani', 'uas', 'sertifikat', 'coffee', 'breaksnack', 'door', 'prize']</t>
+          <t>['guru', 'paham', 'tatacara', 'baca', 'shalat', 'sesuai', 'sunnah', 'ajar', 'muridmuridn']</t>
         </is>
       </c>
     </row>
@@ -3239,34 +3235,34 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>10338</v>
+        <v>13927</v>
       </c>
       <c r="C79" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>dilaksanakan pada haritggl ahad februari tempat ballroom prime park hotel jl jend sudirman pekanba</t>
+          <t>fasilitas buku tanya jawab shalat ditandatangani uas sertifikat coffee breaksnack door prize</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['dilaksanakan', 'pada', 'haritggl', 'ahad', 'februari', 'tempat', 'ballroom', 'prime', 'park', 'hotel', 'jl', 'jend', 'sudirman', 'pekanba']</t>
+          <t>['fasilitas', 'buku', 'tanya', 'jawab', 'shalat', 'ditandatangani', 'uas', 'sertifikat', 'coffee', 'breaksnack', 'door', 'prize']</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['dilaksanakan', 'haritggl', 'ahad', 'februari', 'ballroom', 'prime', 'park', 'hotel', 'jl', 'jend', 'sudirman', 'pekanba']</t>
+          <t>['fasilitas', 'buku', 'shalat', 'ditandatangani', 'uas', 'sertifikat', 'coffee', 'breaksnack', 'door', 'prize']</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['laksana', 'haritggl', 'ahad', 'februari', 'ballroom', 'prime', 'park', 'hotel', 'jl', 'jend', 'sudirman', 'pekanba']</t>
+          <t>['fasilitas', 'buku', 'shalat', 'ditandatangani', 'uas', 'sertifikat', 'coffee', 'breaksnack', 'door', 'prize']</t>
         </is>
       </c>
     </row>
@@ -3275,34 +3271,34 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>10339</v>
+        <v>13928</v>
       </c>
       <c r="C80" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>dialog dan bedah buku tanya jawab seputar shalat dipersembahkan oleh ukhuwah angkatan sembilan enam uas</t>
+          <t>dilaksanakan pada haritggl ahad februari tempat ballroom prime park hotel jl jend sudirman pekanba</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['dialog', 'dan', 'bedah', 'buku', 'tanya', 'jawab', 'seputar', 'shalat', 'dipersembahkan', 'oleh', 'ukhuwah', 'angkatan', 'sembilan', 'enam', 'uas']</t>
+          <t>['dilaksanakan', 'pada', 'haritggl', 'ahad', 'februari', 'tempat', 'ballroom', 'prime', 'park', 'hotel', 'jl', 'jend', 'sudirman', 'pekanba']</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['dialog', 'bedah', 'buku', 'seputar', 'shalat', 'dipersembahkan', 'ukhuwah', 'angkatan', 'sembilan', 'enam', 'uas']</t>
+          <t>['dilaksanakan', 'haritggl', 'ahad', 'februari', 'ballroom', 'prime', 'park', 'hotel', 'jl', 'jend', 'sudirman', 'pekanba']</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['dialog', 'bedah', 'buku', 'putar', 'shalat', 'sembah', 'ukhuwah', 'angkat', 'sembilan', 'enam', 'uas']</t>
+          <t>['laksana', 'haritggl', 'ahad', 'februari', 'ballroom', 'prime', 'park', 'hotel', 'jl', 'jend', 'sudirman', 'pekanba']</t>
         </is>
       </c>
     </row>
@@ -3311,34 +3307,34 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>10340</v>
+        <v>13929</v>
       </c>
       <c r="C81" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t xml:space="preserve">bagi yang ingin berpartisipasi dalam program ini silahkan disalurkan melalui bank riau kepri syariah dengan nomor </t>
+          <t>dialog dan bedah buku tanya jawab seputar shalat dipersembahkan oleh ukhuwah angkatan sembilan enam uas</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['bagi', 'yang', 'ingin', 'berpartisipasi', 'dalam', 'program', 'ini', 'silahkan', 'disalurkan', 'melalui', 'bank', 'riau', 'kepri', 'syariah', 'dengan', 'nomor']</t>
+          <t>['dialog', 'dan', 'bedah', 'buku', 'tanya', 'jawab', 'seputar', 'shalat', 'dipersembahkan', 'oleh', 'ukhuwah', 'angkatan', 'sembilan', 'enam', 'uas']</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['berpartisipasi', 'program', 'silahkan', 'disalurkan', 'bank', 'riau', 'kepri', 'syariah', 'nomor']</t>
+          <t>['dialog', 'bedah', 'buku', 'seputar', 'shalat', 'dipersembahkan', 'ukhuwah', 'angkatan', 'sembilan', 'enam', 'uas']</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['partisipasi', 'program', 'silah', 'salur', 'bank', 'riau', 'kepri', 'syariah', 'nomor']</t>
+          <t>['dialog', 'bedah', 'buku', 'putar', 'shalat', 'sembah', 'ukhuwah', 'angkat', 'sembilan', 'enam', 'uas']</t>
         </is>
       </c>
     </row>
@@ -3347,34 +3343,34 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>10341</v>
+        <v>13930</v>
       </c>
       <c r="C82" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>alhamdulillah hari ini program psbb langsung dibuka oleh tuan guru ustadz abdul shomad dan beliau memberikan suntik</t>
+          <t xml:space="preserve">bagi yang ingin berpartisipasi dalam program ini silahkan disalurkan melalui bank riau kepri syariah dengan nomor </t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'hari', 'ini', 'program', 'psbb', 'langsung', 'dibuka', 'oleh', 'tuan', 'guru', 'ustadz', 'abdul', 'shomad', 'dan', 'beliau', 'memberikan', 'suntik']</t>
+          <t>['bagi', 'yang', 'ingin', 'berpartisipasi', 'dalam', 'program', 'ini', 'silahkan', 'disalurkan', 'melalui', 'bank', 'riau', 'kepri', 'syariah', 'dengan', 'nomor']</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'program', 'psbb', 'langsung', 'dibuka', 'tuan', 'guru', 'ustadz', 'abdul', 'shomad', 'beliau', 'suntik']</t>
+          <t>['berpartisipasi', 'program', 'silahkan', 'disalurkan', 'bank', 'riau', 'kepri', 'syariah', 'nomor']</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'program', 'psbb', 'langsung', 'buka', 'tuan', 'guru', 'ustadz', 'abdul', 'shomad', 'beliau', 'suntik']</t>
+          <t>['partisipasi', 'program', 'silah', 'salur', 'bank', 'riau', 'kepri', 'syariah', 'nomor']</t>
         </is>
       </c>
     </row>
@@ -3383,34 +3379,34 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>10342</v>
+        <v>13931</v>
       </c>
       <c r="C83" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>bahkan ternyata kepedulian kepada sesama itulah yang juga membawa mereka kepada kesuksesan masa depan melalui rel</t>
+          <t>alhamdulillah hari ini program psbb langsung dibuka oleh tuan guru ustadz abdul shomad dan beliau memberikan suntik</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['bahkan', 'ternyata', 'kepedulian', 'kepada', 'sesama', 'itulah', 'yang', 'juga', 'membawa', 'mereka', 'kepada', 'kesuksesan', 'masa', 'depan', 'melalui', 'rel']</t>
+          <t>['alhamdulillah', 'hari', 'ini', 'program', 'psbb', 'langsung', 'dibuka', 'oleh', 'tuan', 'guru', 'ustadz', 'abdul', 'shomad', 'dan', 'beliau', 'memberikan', 'suntik']</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['kepedulian', 'membawa', 'kesuksesan', 'rel']</t>
+          <t>['alhamdulillah', 'program', 'psbb', 'langsung', 'dibuka', 'tuan', 'guru', 'ustadz', 'abdul', 'shomad', 'beliau', 'suntik']</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['peduli', 'bawa', 'sukses', 'rel']</t>
+          <t>['alhamdulillah', 'program', 'psbb', 'langsung', 'buka', 'tuan', 'guru', 'ustadz', 'abdul', 'shomad', 'beliau', 'suntik']</t>
         </is>
       </c>
     </row>
@@ -3419,34 +3415,34 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>10343</v>
+        <v>13932</v>
       </c>
       <c r="C84" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>sebuah program baru dalam rangka menumbuhkan kepedulian yang tinggi terhadap masyarakat yang membutuhkan kami ing</t>
+          <t>bahkan ternyata kepedulian kepada sesama itulah yang juga membawa mereka kepada kesuksesan masa depan melalui rel</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['sebuah', 'program', 'baru', 'dalam', 'rangka', 'menumbuhkan', 'kepedulian', 'yang', 'tinggi', 'terhadap', 'masyarakat', 'yang', 'membutuhkan', 'kami', 'ing']</t>
+          <t>['bahkan', 'ternyata', 'kepedulian', 'kepada', 'sesama', 'itulah', 'yang', 'juga', 'membawa', 'mereka', 'kepada', 'kesuksesan', 'masa', 'depan', 'melalui', 'rel']</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['program', 'rangka', 'menumbuhkan', 'kepedulian', 'masyarakat', 'membutuhkan', 'ing']</t>
+          <t>['kepedulian', 'membawa', 'kesuksesan', 'rel']</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['program', 'rangka', 'tumbuh', 'peduli', 'masyarakat', 'butuh', 'ing']</t>
+          <t>['peduli', 'bawa', 'sukses', 'rel']</t>
         </is>
       </c>
     </row>
@@ -3455,34 +3451,34 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>10344</v>
+        <v>13933</v>
       </c>
       <c r="C85" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>psbb program syifa budi berbagi selalu saja ada jalan jika ada kemauan dan selalu ada alasan jika tidak ada kema</t>
+          <t>sebuah program baru dalam rangka menumbuhkan kepedulian yang tinggi terhadap masyarakat yang membutuhkan kami ing</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['psbb', 'program', 'syifa', 'budi', 'berbagi', 'selalu', 'saja', 'ada', 'jalan', 'jika', 'ada', 'kemauan', 'dan', 'selalu', 'ada', 'alasan', 'jika', 'tidak', 'ada', 'kema']</t>
+          <t>['sebuah', 'program', 'baru', 'dalam', 'rangka', 'menumbuhkan', 'kepedulian', 'yang', 'tinggi', 'terhadap', 'masyarakat', 'yang', 'membutuhkan', 'kami', 'ing']</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 20 outcomes&gt;</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['psbb', 'program', 'syifa', 'budi', 'berbagi', 'jalan', 'kemauan', 'alasan', 'kema']</t>
+          <t>['program', 'rangka', 'menumbuhkan', 'kepedulian', 'masyarakat', 'membutuhkan', 'ing']</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['psbb', 'program', 'syifa', 'budi', 'bagi', 'jalan', 'mau', 'alas', 'kema']</t>
+          <t>['program', 'rangka', 'tumbuh', 'peduli', 'masyarakat', 'butuh', 'ing']</t>
         </is>
       </c>
     </row>
@@ -3491,34 +3487,34 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>10345</v>
+        <v>13934</v>
       </c>
       <c r="C86" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>ustadz mengapa beban hidup saya sangat berat ustadz karena menurut allah engkau lebih kuat</t>
+          <t>psbb program syifa budi berbagi selalu saja ada jalan jika ada kemauan dan selalu ada alasan jika tidak ada kema</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['ustadz', 'mengapa', 'beban', 'hidup', 'saya', 'sangat', 'berat', 'ustadz', 'karena', 'menurut', 'allah', 'engkau', 'lebih', 'kuat']</t>
+          <t>['psbb', 'program', 'syifa', 'budi', 'berbagi', 'selalu', 'saja', 'ada', 'jalan', 'jika', 'ada', 'kemauan', 'dan', 'selalu', 'ada', 'alasan', 'jika', 'tidak', 'ada', 'kema']</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>&lt;FreqDist with 15 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>['ustadz', 'beban', 'hidup', 'berat', 'ustadz', 'allah', 'engkau', 'kuat']</t>
+          <t>['psbb', 'program', 'syifa', 'budi', 'berbagi', 'jalan', 'kemauan', 'alasan', 'kema']</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['ustadz', 'beban', 'hidup', 'berat', 'ustadz', 'allah', 'engkau', 'kuat']</t>
+          <t>['psbb', 'program', 'syifa', 'budi', 'bagi', 'jalan', 'mau', 'alas', 'kema']</t>
         </is>
       </c>
     </row>
@@ -3527,30 +3523,34 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>10346</v>
+        <v>13935</v>
       </c>
       <c r="C87" t="n">
-        <v>141</v>
-      </c>
-      <c r="D87" t="inlineStr"/>
+        <v>179</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>ustadz mengapa beban hidup saya sangat berat ustadz karena menurut allah engkau lebih kuat</t>
+        </is>
+      </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['ustadz', 'mengapa', 'beban', 'hidup', 'saya', 'sangat', 'berat', 'ustadz', 'karena', 'menurut', 'allah', 'engkau', 'lebih', 'kuat']</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['ustadz', 'beban', 'hidup', 'berat', 'ustadz', 'allah', 'engkau', 'kuat']</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['ustadz', 'beban', 'hidup', 'berat', 'ustadz', 'allah', 'engkau', 'kuat']</t>
         </is>
       </c>
     </row>
@@ -3559,34 +3559,30 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>10347</v>
+        <v>13936</v>
       </c>
       <c r="C88" t="n">
-        <v>141</v>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>dapat poto pagi ini</t>
-        </is>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['dapat', 'poto', 'pagi', 'ini']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>['poto', 'pagi']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['poto', 'pagi']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3595,34 +3591,34 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>10348</v>
+        <v>13937</v>
       </c>
       <c r="C89" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>website alamat kantor jl hang tuah no pekanbaru bisa search di googlemaps yayasan tabung wakaf umat</t>
+          <t>dapat poto pagi ini</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['website', 'alamat', 'kantor', 'jl', 'hang', 'tuah', 'no', 'pekanbaru', 'bisa', 'search', 'di', 'googlemaps', 'yayasan', 'tabung', 'wakaf', 'umat']</t>
+          <t>['dapat', 'poto', 'pagi', 'ini']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>['website', 'alamat', 'kantor', 'jl', 'hang', 'tuah', 'no', 'pekanbaru', 'search', 'googlemaps', 'yayasan', 'tabung', 'wakaf', 'umat']</t>
+          <t>['poto', 'pagi']</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['website', 'alamat', 'kantor', 'jl', 'hang', 'tuah', 'no', 'pekanbaru', 'search', 'googlemaps', 'yayasan', 'tabung', 'wakaf', 'umat']</t>
+          <t>['poto', 'pagi']</t>
         </is>
       </c>
     </row>
@@ -3631,19 +3627,19 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>10349</v>
+        <v>13938</v>
       </c>
       <c r="C90" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>atas nama yayasan tabung wakaf umat mohon cantumkan kode di akhir nominal transfer contoh rp narah</t>
+          <t>website alamat kantor jl hang tuah no pekanbaru bisa search di googlemaps yayasan tabung wakaf umat</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['atas', 'nama', 'yayasan', 'tabung', 'wakaf', 'umat', 'mohon', 'cantumkan', 'kode', 'di', 'akhir', 'nominal', 'transfer', 'contoh', 'rp', 'narah']</t>
+          <t>['website', 'alamat', 'kantor', 'jl', 'hang', 'tuah', 'no', 'pekanbaru', 'bisa', 'search', 'di', 'googlemaps', 'yayasan', 'tabung', 'wakaf', 'umat']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -3653,12 +3649,12 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>['nama', 'yayasan', 'tabung', 'wakaf', 'umat', 'mohon', 'cantumkan', 'kode', 'nominal', 'transfer', 'contoh', 'rp', 'narah']</t>
+          <t>['website', 'alamat', 'kantor', 'jl', 'hang', 'tuah', 'no', 'pekanbaru', 'search', 'googlemaps', 'yayasan', 'tabung', 'wakaf', 'umat']</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['nama', 'yayasan', 'tabung', 'wakaf', 'umat', 'mohon', 'cantum', 'kode', 'nominal', 'transfer', 'contoh', 'rp', 'narah']</t>
+          <t>['website', 'alamat', 'kantor', 'jl', 'hang', 'tuah', 'no', 'pekanbaru', 'search', 'googlemaps', 'yayasan', 'tabung', 'wakaf', 'umat']</t>
         </is>
       </c>
     </row>
@@ -3667,34 +3663,34 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>10350</v>
+        <v>13939</v>
       </c>
       <c r="C91" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>bagi jamaah yang ingin berwakaf untuk pesantren nurul azhar palas silahkan transfer ke rekening bp</t>
+          <t>atas nama yayasan tabung wakaf umat mohon cantumkan kode di akhir nominal transfer contoh rp narah</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['bagi', 'jamaah', 'yang', 'ingin', 'berwakaf', 'untuk', 'pesantren', 'nurul', 'azhar', 'palas', 'silahkan', 'transfer', 'ke', 'rekening', 'bp']</t>
+          <t>['atas', 'nama', 'yayasan', 'tabung', 'wakaf', 'umat', 'mohon', 'cantumkan', 'kode', 'di', 'akhir', 'nominal', 'transfer', 'contoh', 'rp', 'narah']</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>['jamaah', 'berwakaf', 'pesantren', 'nurul', 'azhar', 'palas', 'silahkan', 'transfer', 'rekening', 'bp']</t>
+          <t>['nama', 'yayasan', 'tabung', 'wakaf', 'umat', 'mohon', 'cantumkan', 'kode', 'nominal', 'transfer', 'contoh', 'rp', 'narah']</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['jamaah', 'wakaf', 'pesantren', 'nurul', 'azhar', 'palas', 'silah', 'transfer', 'rekening', 'bp']</t>
+          <t>['nama', 'yayasan', 'tabung', 'wakaf', 'umat', 'mohon', 'cantum', 'kode', 'nominal', 'transfer', 'contoh', 'rp', 'narah']</t>
         </is>
       </c>
     </row>
@@ -3703,34 +3699,34 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>10351</v>
+        <v>13940</v>
       </c>
       <c r="C92" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>agenda jam bersama uas diakhiri dengan kajian eksklusif bersama uas yang dikhususkan untuk para peserta wisata</t>
+          <t>bagi jamaah yang ingin berwakaf untuk pesantren nurul azhar palas silahkan transfer ke rekening bp</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['agenda', 'jam', 'bersama', 'uas', 'diakhiri', 'dengan', 'kajian', 'eksklusif', 'bersama', 'uas', 'yang', 'dikhususkan', 'untuk', 'para', 'peserta', 'wisata']</t>
+          <t>['bagi', 'jamaah', 'yang', 'ingin', 'berwakaf', 'untuk', 'pesantren', 'nurul', 'azhar', 'palas', 'silahkan', 'transfer', 'ke', 'rekening', 'bp']</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>['agenda', 'jam', 'uas', 'kajian', 'eksklusif', 'uas', 'dikhususkan', 'peserta', 'wisata']</t>
+          <t>['jamaah', 'berwakaf', 'pesantren', 'nurul', 'azhar', 'palas', 'silahkan', 'transfer', 'rekening', 'bp']</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['agenda', 'jam', 'uas', 'kaji', 'eksklusif', 'uas', 'khusus', 'serta', 'wisata']</t>
+          <t>['jamaah', 'wakaf', 'pesantren', 'nurul', 'azhar', 'palas', 'silah', 'transfer', 'rekening', 'bp']</t>
         </is>
       </c>
     </row>
@@ -3739,34 +3735,34 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>10352</v>
+        <v>13941</v>
       </c>
       <c r="C93" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>dan talkshow edukasi cara penyembelihan hewan yang benar menurut syariat islam bersama ketua umum juleha indonesi</t>
+          <t>agenda jam bersama uas diakhiri dengan kajian eksklusif bersama uas yang dikhususkan untuk para peserta wisata</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['dan', 'talkshow', 'edukasi', 'cara', 'penyembelihan', 'hewan', 'yang', 'benar', 'menurut', 'syariat', 'islam', 'bersama', 'ketua', 'umum', 'juleha', 'indonesi']</t>
+          <t>['agenda', 'jam', 'bersama', 'uas', 'diakhiri', 'dengan', 'kajian', 'eksklusif', 'bersama', 'uas', 'yang', 'dikhususkan', 'untuk', 'para', 'peserta', 'wisata']</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>['talkshow', 'edukasi', 'penyembelihan', 'hewan', 'syariat', 'islam', 'ketua', 'juleha', 'indonesi']</t>
+          <t>['agenda', 'jam', 'uas', 'kajian', 'eksklusif', 'uas', 'dikhususkan', 'peserta', 'wisata']</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['talkshow', 'edukasi', 'sembelih', 'hewan', 'syariat', 'islam', 'ketua', 'juleha', 'indonesi']</t>
+          <t>['agenda', 'jam', 'uas', 'kaji', 'eksklusif', 'uas', 'khusus', 'serta', 'wisata']</t>
         </is>
       </c>
     </row>
@@ -3775,34 +3771,34 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>10353</v>
+        <v>13942</v>
       </c>
       <c r="C94" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>uas kemudian menyaksikan pelaksanaan khitan ceria peduli umat dan mengadakan talkshow edukasi pentingnya khitan pa</t>
+          <t>dan talkshow edukasi cara penyembelihan hewan yang benar menurut syariat islam bersama ketua umum juleha indonesi</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['uas', 'kemudian', 'menyaksikan', 'pelaksanaan', 'khitan', 'ceria', 'peduli', 'umat', 'dan', 'mengadakan', 'talkshow', 'edukasi', 'pentingnya', 'khitan', 'pa']</t>
+          <t>['dan', 'talkshow', 'edukasi', 'cara', 'penyembelihan', 'hewan', 'yang', 'benar', 'menurut', 'syariat', 'islam', 'bersama', 'ketua', 'umum', 'juleha', 'indonesi']</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>['uas', 'menyaksikan', 'pelaksanaan', 'khitan', 'ceria', 'peduli', 'umat', 'mengadakan', 'talkshow', 'edukasi', 'khitan', 'pa']</t>
+          <t>['talkshow', 'edukasi', 'penyembelihan', 'hewan', 'syariat', 'islam', 'ketua', 'juleha', 'indonesi']</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['uas', 'saksi', 'laksana', 'khitan', 'ceria', 'peduli', 'umat', 'ada', 'talkshow', 'edukasi', 'khitan', 'pa']</t>
+          <t>['talkshow', 'edukasi', 'sembelih', 'hewan', 'syariat', 'islam', 'ketua', 'juleha', 'indonesi']</t>
         </is>
       </c>
     </row>
@@ -3811,19 +3807,19 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>10354</v>
+        <v>13943</v>
       </c>
       <c r="C95" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>stlh itikaf dilanjutkan dengan shalat malam rakaat pembacaan ratib alhaddad dan muhasabah bada shalat su</t>
+          <t>uas kemudian menyaksikan pelaksanaan khitan ceria peduli umat dan mengadakan talkshow edukasi pentingnya khitan pa</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['stlh', 'itikaf', 'dilanjutkan', 'dengan', 'shalat', 'malam', 'rakaat', 'pembacaan', 'ratib', 'alhaddad', 'dan', 'muhasabah', 'bada', 'shalat', 'su']</t>
+          <t>['uas', 'kemudian', 'menyaksikan', 'pelaksanaan', 'khitan', 'ceria', 'peduli', 'umat', 'dan', 'mengadakan', 'talkshow', 'edukasi', 'pentingnya', 'khitan', 'pa']</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -3833,12 +3829,12 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>['stlh', 'itikaf', 'dilanjutkan', 'shalat', 'malam', 'rakaat', 'pembacaan', 'ratib', 'alhaddad', 'muhasabah', 'bada', 'shalat', 'su']</t>
+          <t>['uas', 'menyaksikan', 'pelaksanaan', 'khitan', 'ceria', 'peduli', 'umat', 'mengadakan', 'talkshow', 'edukasi', 'khitan', 'pa']</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['stlh', 'itikaf', 'lanjut', 'shalat', 'malam', 'rakaat', 'baca', 'ratib', 'alhaddad', 'muhasabah', 'bada', 'shalat', 'su']</t>
+          <t>['uas', 'saksi', 'laksana', 'khitan', 'ceria', 'peduli', 'umat', 'ada', 'talkshow', 'edukasi', 'khitan', 'pa']</t>
         </is>
       </c>
     </row>
@@ -3847,34 +3843,34 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>10355</v>
+        <v>13944</v>
       </c>
       <c r="C96" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>dini hari sabtu uas memulai giat dengan itikaf nurul azhar bersama asatidz sunan almusthafa di masjid aththayyi</t>
+          <t>stlh itikaf dilanjutkan dengan shalat malam rakaat pembacaan ratib alhaddad dan muhasabah bada shalat su</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['dini', 'hari', 'sabtu', 'uas', 'memulai', 'giat', 'dengan', 'itikaf', 'nurul', 'azhar', 'bersama', 'asatidz', 'sunan', 'almusthafa', 'di', 'masjid', 'aththayyi']</t>
+          <t>['stlh', 'itikaf', 'dilanjutkan', 'dengan', 'shalat', 'malam', 'rakaat', 'pembacaan', 'ratib', 'alhaddad', 'dan', 'muhasabah', 'bada', 'shalat', 'su']</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>['sabtu', 'uas', 'giat', 'itikaf', 'nurul', 'azhar', 'asatidz', 'sunan', 'almusthafa', 'masjid', 'aththayyi']</t>
+          <t>['stlh', 'itikaf', 'dilanjutkan', 'shalat', 'malam', 'rakaat', 'pembacaan', 'ratib', 'alhaddad', 'muhasabah', 'bada', 'shalat', 'su']</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['sabtu', 'uas', 'giat', 'itikaf', 'nurul', 'azhar', 'asatidz', 'sunan', 'almusthafa', 'masjid', 'aththayyi']</t>
+          <t>['stlh', 'itikaf', 'lanjut', 'shalat', 'malam', 'rakaat', 'baca', 'ratib', 'alhaddad', 'muhasabah', 'bada', 'shalat', 'su']</t>
         </is>
       </c>
     </row>
@@ -3883,34 +3879,34 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>10356</v>
+        <v>13945</v>
       </c>
       <c r="C97" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>agenda dimulai dengan khutbah jumat di masjid dawah rumbai yang dilanjutkan dengan berbagi beras spbu untuk dhuaf</t>
+          <t>dini hari sabtu uas memulai giat dengan itikaf nurul azhar bersama asatidz sunan almusthafa di masjid aththayyi</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['agenda', 'dimulai', 'dengan', 'khutbah', 'jumat', 'di', 'masjid', 'dawah', 'rumbai', 'yang', 'dilanjutkan', 'dengan', 'berbagi', 'beras', 'spbu', 'untuk', 'dhuaf']</t>
+          <t>['dini', 'hari', 'sabtu', 'uas', 'memulai', 'giat', 'dengan', 'itikaf', 'nurul', 'azhar', 'bersama', 'asatidz', 'sunan', 'almusthafa', 'di', 'masjid', 'aththayyi']</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>['agenda', 'khutbah', 'jumat', 'masjid', 'dawah', 'rumbai', 'dilanjutkan', 'berbagi', 'beras', 'spbu', 'dhuaf']</t>
+          <t>['sabtu', 'uas', 'giat', 'itikaf', 'nurul', 'azhar', 'asatidz', 'sunan', 'almusthafa', 'masjid', 'aththayyi']</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['agenda', 'khutbah', 'jumat', 'masjid', 'dawah', 'rumbai', 'lanjut', 'bagi', 'beras', 'spbu', 'dhuaf']</t>
+          <t>['sabtu', 'uas', 'giat', 'itikaf', 'nurul', 'azhar', 'asatidz', 'sunan', 'almusthafa', 'masjid', 'aththayyi']</t>
         </is>
       </c>
     </row>
@@ -3919,34 +3915,34 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>10357</v>
+        <v>13946</v>
       </c>
       <c r="C98" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>alhamdulillah rangkaian program jam bersama uas yayasan tabung wakaf umat pekan kedua bulan februari berlan</t>
+          <t>agenda dimulai dengan khutbah jumat di masjid dawah rumbai yang dilanjutkan dengan berbagi beras spbu untuk dhuaf</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'rangkaian', 'program', 'jam', 'bersama', 'uas', 'yayasan', 'tabung', 'wakaf', 'umat', 'pekan', 'kedua', 'bulan', 'februari', 'berlan']</t>
+          <t>['agenda', 'dimulai', 'dengan', 'khutbah', 'jumat', 'di', 'masjid', 'dawah', 'rumbai', 'yang', 'dilanjutkan', 'dengan', 'berbagi', 'beras', 'spbu', 'untuk', 'dhuaf']</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'rangkaian', 'program', 'jam', 'uas', 'yayasan', 'tabung', 'wakaf', 'umat', 'pekan', 'februari', 'berlan']</t>
+          <t>['agenda', 'khutbah', 'jumat', 'masjid', 'dawah', 'rumbai', 'dilanjutkan', 'berbagi', 'beras', 'spbu', 'dhuaf']</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'rangkai', 'program', 'jam', 'uas', 'yayasan', 'tabung', 'wakaf', 'umat', 'pekan', 'februari', 'berlan']</t>
+          <t>['agenda', 'khutbah', 'jumat', 'masjid', 'dawah', 'rumbai', 'lanjut', 'bagi', 'beras', 'spbu', 'dhuaf']</t>
         </is>
       </c>
     </row>
@@ -3955,34 +3951,34 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>10358</v>
+        <v>13947</v>
       </c>
       <c r="C99" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>narahubung konfirmasi ig official fb tabung wakaf umat channel youtube tab</t>
+          <t>alhamdulillah rangkaian program jam bersama uas yayasan tabung wakaf umat pekan kedua bulan februari berlan</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['narahubung', 'konfirmasi', 'ig', 'official', 'fb', 'tabung', 'wakaf', 'umat', 'channel', 'youtube', 'tab']</t>
+          <t>['alhamdulillah', 'rangkaian', 'program', 'jam', 'bersama', 'uas', 'yayasan', 'tabung', 'wakaf', 'umat', 'pekan', 'kedua', 'bulan', 'februari', 'berlan']</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>['narahubung', 'konfirmasi', 'ig', 'official', 'fb', 'tabung', 'wakaf', 'umat', 'channel', 'youtube', 'tab']</t>
+          <t>['alhamdulillah', 'rangkaian', 'program', 'jam', 'uas', 'yayasan', 'tabung', 'wakaf', 'umat', 'pekan', 'februari', 'berlan']</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['narahubung', 'konfirmasi', 'ig', 'official', 'fb', 'tabung', 'wakaf', 'umat', 'channel', 'youtube', 'tab']</t>
+          <t>['alhamdulillah', 'rangkai', 'program', 'jam', 'uas', 'yayasan', 'tabung', 'wakaf', 'umat', 'pekan', 'februari', 'berlan']</t>
         </is>
       </c>
     </row>
@@ -3991,34 +3987,34 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>10359</v>
+        <v>13948</v>
       </c>
       <c r="C100" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>bpd riau bank riau kepri cabang syariah kode bank atas nama yayasan tabung wakaf umat</t>
+          <t>narahubung konfirmasi ig official fb tabung wakaf umat channel youtube tab</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['bpd', 'riau', 'bank', 'riau', 'kepri', 'cabang', 'syariah', 'kode', 'bank', 'atas', 'nama', 'yayasan', 'tabung', 'wakaf', 'umat']</t>
+          <t>['narahubung', 'konfirmasi', 'ig', 'official', 'fb', 'tabung', 'wakaf', 'umat', 'channel', 'youtube', 'tab']</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>['bpd', 'riau', 'bank', 'riau', 'kepri', 'cabang', 'syariah', 'kode', 'bank', 'nama', 'yayasan', 'tabung', 'wakaf', 'umat']</t>
+          <t>['narahubung', 'konfirmasi', 'ig', 'official', 'fb', 'tabung', 'wakaf', 'umat', 'channel', 'youtube', 'tab']</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['bpd', 'riau', 'bank', 'riau', 'kepri', 'cabang', 'syariah', 'kode', 'bank', 'nama', 'yayasan', 'tabung', 'wakaf', 'umat']</t>
+          <t>['narahubung', 'konfirmasi', 'ig', 'official', 'fb', 'tabung', 'wakaf', 'umat', 'channel', 'youtube', 'tab']</t>
         </is>
       </c>
     </row>
@@ -4027,34 +4023,34 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>10360</v>
+        <v>13949</v>
       </c>
       <c r="C101" t="n">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>bagi anakanak yang belum ikut tunggu khitan ceria peduli umat selanjutnya insya allah kegiatan ini kami upayakan</t>
+          <t>bpd riau bank riau kepri cabang syariah kode bank atas nama yayasan tabung wakaf umat</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>['bagi', 'anakanak', 'yang', 'belum', 'ikut', 'tunggu', 'khitan', 'ceria', 'peduli', 'umat', 'selanjutnya', 'insya', 'allah', 'kegiatan', 'ini', 'kami', 'upayakan']</t>
+          <t>['bpd', 'riau', 'bank', 'riau', 'kepri', 'cabang', 'syariah', 'kode', 'bank', 'atas', 'nama', 'yayasan', 'tabung', 'wakaf', 'umat']</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>['anakanak', 'tunggu', 'khitan', 'ceria', 'peduli', 'umat', 'insya', 'allah', 'kegiatan', 'upayakan']</t>
+          <t>['bpd', 'riau', 'bank', 'riau', 'kepri', 'cabang', 'syariah', 'kode', 'bank', 'nama', 'yayasan', 'tabung', 'wakaf', 'umat']</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['anakanak', 'tunggu', 'khitan', 'ceria', 'peduli', 'umat', 'insya', 'allah', 'giat', 'upaya']</t>
+          <t>['bpd', 'riau', 'bank', 'riau', 'kepri', 'cabang', 'syariah', 'kode', 'bank', 'nama', 'yayasan', 'tabung', 'wakaf', 'umat']</t>
         </is>
       </c>
     </row>

--- a/public/preprocessing/@UAS_AbdulSomad.xlsx
+++ b/public/preprocessing/@UAS_AbdulSomad.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,30 +480,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13850</v>
+        <v>29452</v>
       </c>
       <c r="C2" t="n">
-        <v>179</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
+        <v>345</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>aisyah ra berkata aku tidak pernah melihat rasulullah saw menyempurnakan puasa satu bulan kecuali di bulan ramada</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['aisyah', 'ra', 'berkata', 'aku', 'tidak', 'pernah', 'melihat', 'rasulullah', 'saw', 'menyempurnakan', 'puasa', 'satu', 'bulan', 'kecuali', 'di', 'bulan', 'ramada']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['aisya', 'ra', 'berkata', 'aku', 'tidak', 'pernah', 'melihat', 'rasulullah', 'saw', 'menyempurnakan', 'puasa', 'satu', 'bulan', 'kecuali', 'di', 'bulan', 'ramada']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['aisya', 'ra', 'rasulullah', 'saw', 'menyempurnakan', 'puasa', 'kecuali', 'ramada']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['aisya', 'ra', 'rasulullah', 'saw', 'sempurna', 'puasa', 'kecuali', 'ramada']</t>
         </is>
       </c>
     </row>
@@ -507,34 +521,35 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>13851</v>
+        <v>29453</v>
       </c>
       <c r="C3" t="n">
-        <v>179</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>santri di pulau karimata lagi nyantai</t>
-        </is>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['santri', 'di', 'pulau', 'karimata', 'lagi', 'nyantai']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['santri', 'pulau', 'karimata', 'nyantai']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['santri', 'pulau', 'karimata', 'nyantai']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -543,34 +558,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>13852</v>
+        <v>29454</v>
       </c>
       <c r="C4" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>dukung terus channel youtube tabung wakaf umat official subscribe like and share berkah selalu jamaah</t>
+          <t>diantara objek yang mereka kunjungi adakah kompleks pemakaman marhum pekan senapelan rumah singgah tuanku kadi al</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['dukung', 'terus', 'channel', 'youtube', 'tabung', 'wakaf', 'umat', 'official', 'subscribe', 'like', 'and', 'share', 'berkah', 'selalu', 'jamaah']</t>
+          <t>['diantara', 'objek', 'yang', 'mereka', 'kunjungi', 'adakah', 'kompleks', 'pemakaman', 'marhum', 'pekan', 'senapelan', 'rumah', 'singgah', 'tuanku', 'kadi', 'al']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['diantara', 'objek', 'yang', 'mereka', 'kunjungi', 'adakah', 'kompleks', 'pemakaman', 'marhum', 'pekan', 'senapelan', 'rumah', 'singgah', 'tuanku', 'kadi', 'al']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['dukung', 'channel', 'youtube', 'tabung', 'wakaf', 'umat', 'official', 'subscribe', 'like', 'and', 'share', 'berkah', 'jamaah']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['dukung', 'channel', 'youtube', 'tabung', 'wakaf', 'umat', 'official', 'subscribe', 'like', 'and', 'share', 'berkah', 'jamaah']</t>
+          <t>['objek', 'kunjungi', 'adakah', 'kompleks', 'pemakaman', 'marhum', 'pekan', 'senapelan', 'rumah', 'singgah', 'tuanku', 'kadi', 'al']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['objek', 'kunjung', 'ada', 'kompleks', 'makam', 'marhum', 'pekan', 'senapelan', 'rumah', 'singgah', 'tuanku', 'kadi', 'al']</t>
         </is>
       </c>
     </row>
@@ -579,34 +599,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>13853</v>
+        <v>29455</v>
       </c>
       <c r="C5" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>terima kasih kpd para jamaah yang telah menjadi subscriber viewer lovers sharer dan semua pihak yg terlibat</t>
+          <t>daripada bis tidak terpakai naifahtours dan ytwu berinisiatif menghibur anak yatim dgn mengajak anak yatim panti</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'kpd', 'para', 'jamaah', 'yang', 'telah', 'menjadi', 'subscriber', 'viewer', 'lovers', 'sharer', 'dan', 'semua', 'pihak', 'yg', 'terlibat']</t>
+          <t>['daripada', 'bis', 'tidak', 'terpakai', 'naifahtours', 'dan', 'ytwu', 'berinisiatif', 'menghibur', 'anak', 'yatim', 'dgn', 'mengajak', 'anak', 'yatim', 'panti']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['daripada', 'bis', 'tidak', 'terpakai', 'naifahtours', 'dan', 'ytwu', 'berinisiatif', 'menghibur', 'anak', 'yatim', 'dengan', 'mengajak', 'anak', 'yatim', 'panti']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'kpd', 'jamaah', 'subscriber', 'viewer', 'lovers', 'sharer', 'terlibat']</t>
+          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'kpd', 'jamaah', 'subscriber', 'viewer', 'lovers', 'sharer', 'libat']</t>
+          <t>['bis', 'terpakai', 'naifahtours', 'ytwu', 'berinisiatif', 'menghibur', 'anak', 'yatim', 'mengajak', 'anak', 'yatim', 'panti']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['bis', 'pakai', 'naifahtours', 'ytwu', 'inisiatif', 'hibur', 'anak', 'yatim', 'ajak', 'anak', 'yatim', 'panti']</t>
         </is>
       </c>
     </row>
@@ -615,34 +640,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>13854</v>
+        <v>29456</v>
       </c>
       <c r="C6" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>hasil monetisasi ini insya allah akan digunakan untuk membeli beras untuk santri anak yatim dan masyarakat dhuafa</t>
+          <t>peserta wisata religi sangat puas mengaji bersama uas dalam agenda jam bersama uas di hari ketiga sebelum pula</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['hasil', 'monetisasi', 'ini', 'insya', 'allah', 'akan', 'digunakan', 'untuk', 'membeli', 'beras', 'untuk', 'santri', 'anak', 'yatim', 'dan', 'masyarakat', 'dhuafa']</t>
+          <t>['peserta', 'wisata', 'religi', 'sangat', 'puas', 'mengaji', 'bersama', 'uas', 'dalam', 'agenda', 'jam', 'bersama', 'uas', 'di', 'hari', 'ketiga', 'sebelum', 'pula']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['peserta', 'wisata', 'religi', 'sangat', 'puas', 'mengaji', 'bersama', 'ujian, akhir, semester', 'dalam', 'agenda', 'jam', 'bersama', 'ujian, akhir, semester', 'di', 'hari', 'ketiga', 'sebelum', 'pula']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['hasil', 'monetisasi', 'insya', 'allah', 'membeli', 'beras', 'santri', 'anak', 'yatim', 'masyarakat', 'dhuafa']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['hasil', 'monetisasi', 'insya', 'allah', 'beli', 'beras', 'santri', 'anak', 'yatim', 'masyarakat', 'dhuafa']</t>
+          <t>['peserta', 'wisata', 'religi', 'puas', 'mengaji', 'ujian, akhir, semester', 'agenda', 'jam', 'ujian, akhir, semester', 'ketiga']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['serta', 'wisata', 'religi', 'puas', 'aji', 'uji akhir semester', 'agenda', 'jam', 'uji akhir semester', 'tiga']</t>
         </is>
       </c>
     </row>
@@ -651,34 +681,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>13855</v>
+        <v>29457</v>
       </c>
       <c r="C7" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>pada hari senin februari monetisasi channel youtube tabung wakaf umat official alhamdulillah masuk ke rek</t>
+          <t>wisata religi jilid seyogyanya jumatahad maret bis untuk program wisata religi sudah disewa hari</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['pada', 'hari', 'senin', 'februari', 'monetisasi', 'channel', 'youtube', 'tabung', 'wakaf', 'umat', 'official', 'alhamdulillah', 'masuk', 'ke', 'rek']</t>
+          <t>['wisata', 'religi', 'jilid', 'seyogyanya', 'jumatahad', 'maret', 'bis', 'untuk', 'program', 'wisata', 'religi', 'sudah', 'disewa', 'hari']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['wisata', 'religi', 'jilid', 'seyogyanya', 'jumatahad', 'maret', 'bis', 'untuk', 'program', 'wisata', 'religi', 'sudah', 'disewa', 'hari']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['senin', 'februari', 'monetisasi', 'channel', 'youtube', 'tabung', 'wakaf', 'umat', 'official', 'alhamdulillah', 'masuk', 'rek']</t>
+          <t>&lt;FreqDist with 12 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['senin', 'februari', 'monetisasi', 'channel', 'youtube', 'tabung', 'wakaf', 'umat', 'official', 'alhamdulillah', 'masuk', 'rek']</t>
+          <t>['wisata', 'religi', 'jilid', 'seyogyanya', 'jumatahad', 'maret', 'bis', 'program', 'wisata', 'religi', 'disewa']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['wisata', 'religi', 'jilid', 'seyogyanya', 'jumatahad', 'maret', 'bis', 'program', 'wisata', 'religi', 'sewa']</t>
         </is>
       </c>
     </row>
@@ -687,34 +722,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>13856</v>
+        <v>29458</v>
       </c>
       <c r="C8" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">alhamdulillah channel youtube tabung wakaf umat official sudah dilihat kali dan subscriber sebanyak </t>
+          <t>memberi semangat motivasi dan mendoakan anakanak yatim piatu panti asuhan baiturrahman rimbo panjang pekanbaru</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'channel', 'youtube', 'tabung', 'wakaf', 'umat', 'official', 'sudah', 'dilihat', 'kali', 'dan', 'subscriber', 'sebanyak']</t>
+          <t>['memberi', 'semangat', 'motivasi', 'dan', 'mendoakan', 'anakanak', 'yatim', 'piatu', 'panti', 'asuhan', 'baiturrahman', 'rimbo', 'panjang', 'pekanbaru']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['memberi', 'semangat', 'motivasi', 'dan', 'mendoakan', 'anakanak', 'yatim', 'piatu', 'panti', 'asuhan', 'baiturrahman', 'rimbo', 'panjang', 'pekanbaru']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'channel', 'youtube', 'tabung', 'wakaf', 'umat', 'official', 'kali', 'subscriber']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'channel', 'youtube', 'tabung', 'wakaf', 'umat', 'official', 'kali', 'subscriber']</t>
+          <t>['semangat', 'motivasi', 'mendoakan', 'anakanak', 'yatim', 'piatu', 'panti', 'asuhan', 'baiturrahman', 'rimbo', 'pekanbaru']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['semangat', 'motivasi', 'doa', 'anakanak', 'yatim', 'piatu', 'panti', 'asuh', 'baiturrahman', 'rimbo', 'pekanbaru']</t>
         </is>
       </c>
     </row>
@@ -723,30 +763,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>13857</v>
+        <v>29459</v>
       </c>
       <c r="C9" t="n">
-        <v>179</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
+        <v>345</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>titipkan anak anda di dayah tahfidzul quran imam syafii agar mereka menjadi generasi yang kokoh dibidang akidah</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['titipkan', 'anak', 'anda', 'di', 'dayah', 'tahfidzul', 'quran', 'imam', 'syafii', 'agar', 'mereka', 'menjadi', 'generasi', 'yang', 'kokoh', 'dibidang', 'akidah']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['titipkan', 'anak', 'anda', 'di', 'dayah', 'tahfidzul', 'alquran', 'imam', 'syafii', 'agar', 'mereka', 'menjadi', 'generasi', 'yang', 'kokoh', 'dibidang', 'akidah']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['titipkan', 'anak', 'dayah', 'tahfidzul', 'alquran', 'imam', 'syafii', 'generasi', 'kokoh', 'dibidang', 'akidah']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['titip', 'anak', 'dayah', 'tahfidzul', 'alquran', 'imam', 'syafii', 'generasi', 'kokoh', 'bidang', 'akidah']</t>
         </is>
       </c>
     </row>
@@ -755,34 +804,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>13858</v>
+        <v>29460</v>
       </c>
       <c r="C10" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>seperti biasanya uas membuka peci dan meminta kh  anwar mansur dan kh agoes ali masyhuri membacakan doa dan men</t>
+          <t>setiap jengkal tanah yg anda wakafkan dan sedekahkan akan menjadi amal jariah di akhirat kelak no rek bank aceh</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['seperti', 'biasanya', 'uas', 'membuka', 'peci', 'dan', 'meminta', 'kh', 'anwar', 'mansur', 'dan', 'kh', 'agoes', 'ali', 'masyhuri', 'membacakan', 'doa', 'dan', 'men']</t>
+          <t>['setiap', 'jengkal', 'tanah', 'yg', 'anda', 'wakafkan', 'dan', 'sedekahkan', 'akan', 'menjadi', 'amal', 'jariah', 'di', 'akhirat', 'kelak', 'no', 'rek', 'bank', 'aceh']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 19 outcomes&gt;</t>
+          <t>['setiap', 'jengkal', 'tanah', 'yang', 'anda', 'wakafkan', 'dan', 'sedekahkan', 'akan', 'menjadi', 'amal', 'jariah', 'di', 'akhirat', 'kelak', 'no', 'rek', 'bank', 'aceh']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['uas', 'membuka', 'peci', 'kh', 'anwar', 'mansur', 'kh', 'agoes', 'ali', 'masyhuri', 'membacakan', 'doa', 'men']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['uas', 'buka', 'peci', 'kh', 'anwar', 'mansur', 'kh', 'agoes', 'ali', 'masyhur', 'baca', 'doa', 'men']</t>
+          <t>['jengkal', 'tanah', 'wakafkan', 'sedekahkan', 'amal', 'jariah', 'akhirat', 'kelak', 'no', 'rek', 'bank', 'aceh']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['jengkal', 'tanah', 'wakaf', 'sedekah', 'amal', 'jariah', 'akhirat', 'kelak', 'no', 'rek', 'bank', 'aceh']</t>
         </is>
       </c>
     </row>
@@ -791,34 +845,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>13859</v>
+        <v>29461</v>
       </c>
       <c r="C11" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>jadilah uas ketemu dan bisa silaturrahin dengan para kyai diantaranya kh marzuqi mustamar ketua pwnu jatim dan kh</t>
+          <t>saat ini dataqu imam syafii sdg melakukan pembebasan lahan mari bantu anak menghafal al quran dgn ikut menyumban</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['jadilah', 'uas', 'ketemu', 'dan', 'bisa', 'silaturrahin', 'dengan', 'para', 'kyai', 'diantaranya', 'kh', 'marzuqi', 'mustamar', 'ketua', 'pwnu', 'jatim', 'dan', 'kh']</t>
+          <t>['saat', 'ini', 'dataqu', 'imam', 'syafii', 'sdg', 'melakukan', 'pembebasan', 'lahan', 'mari', 'bantu', 'anak', 'menghafal', 'al', 'quran', 'dgn', 'ikut', 'menyumban']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>['saat', 'ini', 'dataqu', 'imam', 'syafii', 'sedang', 'melakukan', 'pembebasan', 'lahan', 'mari', 'bantu', 'anak', 'menghafal', 'al', 'alquran', 'dengan', 'ikut', 'menyumban']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['uas', 'ketemu', 'silaturrahin', 'kyai', 'kh', 'marzuqi', 'mustamar', 'ketua', 'pwnu', 'jatim', 'kh']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['uas', 'ketemu', 'silaturrahin', 'kyai', 'kh', 'marzuqi', 'mustamar', 'ketua', 'pwnu', 'jatim', 'kh']</t>
+          <t>['dataqu', 'imam', 'syafii', 'pembebasan', 'lahan', 'mari', 'bantu', 'anak', 'menghafal', 'al', 'alquran', 'menyumban']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['dataqu', 'imam', 'syafii', 'bebas', 'lahan', 'mari', 'bantu', 'anak', 'hafal', 'al', 'alquran', 'menyumban']</t>
         </is>
       </c>
     </row>
@@ -827,34 +886,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>13860</v>
+        <v>29462</v>
       </c>
       <c r="C12" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>tibatiba handphone sahabat uas berbunyi gus ali meminta supaya uas segera ke kantor pwnu walau lima menit adapu</t>
+          <t>dayah tahfidzul quran dataqu imam syafii sedang melaksanakan pengembangan dan pembangunan unit gedung baru yan</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['tibatiba', 'handphone', 'sahabat', 'uas', 'berbunyi', 'gus', 'ali', 'meminta', 'supaya', 'uas', 'segera', 'ke', 'kantor', 'pwnu', 'walau', 'lima', 'menit', 'adapu']</t>
+          <t>['dayah', 'tahfidzul', 'quran', 'dataqu', 'imam', 'syafii', 'sedang', 'melaksanakan', 'pengembangan', 'dan', 'pembangunan', 'unit', 'gedung', 'baru', 'yan']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['dayah', 'tahfidzul', 'alquran', 'dataqu', 'imam', 'syafii', 'sedang', 'melaksanakan', 'pengembangan', 'dan', 'pembangunan', 'unit', 'gedung', 'baru', 'yan']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['tibatiba', 'handphone', 'sahabat', 'uas', 'berbunyi', 'gus', 'ali', 'uas', 'kantor', 'pwnu', 'menit', 'adapu']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['tibatiba', 'handphone', 'sahabat', 'uas', 'bunyi', 'gus', 'ali', 'uas', 'kantor', 'pwnu', 'menit', 'adapu']</t>
+          <t>['dayah', 'tahfidzul', 'alquran', 'dataqu', 'imam', 'syafii', 'melaksanakan', 'pengembangan', 'pembangunan', 'unit', 'gedung', 'yan']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['dayah', 'tahfidzul', 'alquran', 'dataqu', 'imam', 'syafii', 'laksana', 'kembang', 'bangun', 'unit', 'gedung', 'yan']</t>
         </is>
       </c>
     </row>
@@ -863,34 +927,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>13861</v>
+        <v>29463</v>
       </c>
       <c r="C13" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>akhirnya uas bersilaturrahim dengan putraputri kyai dialog nyambung ternyata gus muhdlor junior uas di alazhar</t>
+          <t>sejak bulan juli komunitas hamba allah intens bersama yayasan tabung wakaf umat berbagi beras dalam program se</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['akhirnya', 'uas', 'bersilaturrahim', 'dengan', 'putraputri', 'kyai', 'dialog', 'nyambung', 'ternyata', 'gus', 'muhdlor', 'junior', 'uas', 'di', 'alazhar']</t>
+          <t>['sejak', 'bulan', 'juli', 'komunitas', 'hamba', 'allah', 'intens', 'bersama', 'yayasan', 'tabung', 'wakaf', 'umat', 'berbagi', 'beras', 'dalam', 'program', 'se']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['sejak', 'bulan', 'juli', 'komunitas', 'hamba', 'allah', 'intens', 'bersama', 'yayasan', 'tabung', 'wakaf', 'umat', 'berbagi', 'beras', 'dalam', 'program', 'se']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['uas', 'bersilaturrahim', 'putraputri', 'kyai', 'dialog', 'nyambung', 'gus', 'muhdlor', 'junior', 'uas', 'alazhar']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['uas', 'bersilaturrahim', 'putraputri', 'kyai', 'dialog', 'nyambung', 'gus', 'muhdlor', 'junior', 'uas', 'alazhar']</t>
+          <t>['juli', 'komunitas', 'hamba', 'allah', 'intens', 'yayasan', 'tabung', 'wakaf', 'umat', 'berbagi', 'beras', 'program']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['juli', 'komunitas', 'hamba', 'allah', 'intens', 'yayasan', 'tabung', 'wakaf', 'umat', 'bagi', 'beras', 'program']</t>
         </is>
       </c>
     </row>
@@ -899,34 +968,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>13862</v>
+        <v>29464</v>
       </c>
       <c r="C14" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">uas dibawa salah seorang sahabat sowan ke kediaman kh agoes ali masyhuri sesampainya di pondok pesantren bumi </t>
+          <t>kha setiap bulan berbagi sembako di pinggiran kota pekanbaru di kota pekanbaru dan di luar kota selain berbagi se</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['uas', 'dibawa', 'salah', 'seorang', 'sahabat', 'sowan', 'ke', 'kediaman', 'kh', 'agoes', 'ali', 'masyhuri', 'sesampainya', 'di', 'pondok', 'pesantren', 'bumi']</t>
+          <t>['kha', 'setiap', 'bulan', 'berbagi', 'sembako', 'di', 'pinggiran', 'kota', 'pekanbaru', 'di', 'kota', 'pekanbaru', 'dan', 'di', 'luar', 'kota', 'selain', 'berbagi', 'se']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['kah', 'setiap', 'bulan', 'berbagi', 'sembako', 'di', 'pinggiran', 'kota', 'pekanbaru', 'di', 'kota', 'pekanbaru', 'dan', 'di', 'luar', 'kota', 'selain', 'berbagi', 'se']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['uas', 'dibawa', 'salah', 'sahabat', 'sowan', 'kediaman', 'kh', 'agoes', 'ali', 'masyhuri', 'sesampainya', 'pondok', 'pesantren', 'bumi']</t>
+          <t>&lt;FreqDist with 13 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['uas', 'bawa', 'salah', 'sahabat', 'sowan', 'diam', 'kh', 'agoes', 'ali', 'masyhur', 'sampa', 'pondok', 'pesantren', 'bumi']</t>
+          <t>['kah', 'berbagi', 'sembako', 'pinggiran', 'kota', 'pekanbaru', 'kota', 'pekanbaru', 'kota', 'berbagi']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['kah', 'bagi', 'sembako', 'pinggir', 'kota', 'pekanbaru', 'kota', 'pekanbaru', 'kota', 'bagi']</t>
         </is>
       </c>
     </row>
@@ -935,34 +1009,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>13863</v>
+        <v>29465</v>
       </c>
       <c r="C15" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ust ikrom amri sulawesi ust abul khoir sumatera selatan uas pada acara munaqasyah  prof dr habib abdul ham</t>
+          <t>milad  komunitas hamba allah pekanbaru maret komunitas hamba allah berdiri karena keprihatinan ibukibuk</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['ust', 'ikrom', 'amri', 'sulawesi', 'ust', 'abul', 'khoir', 'sumatera', 'selatan', 'uas', 'pada', 'acara', 'munaqasyah', 'prof', 'dr', 'habib', 'abdul', 'ham']</t>
+          <t>['milad', 'komunitas', 'hamba', 'allah', 'pekanbaru', 'maret', 'komunitas', 'hamba', 'allah', 'berdiri', 'karena', 'keprihatinan', 'ibukibuk']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['milad', 'komunitas', 'hamba', 'allah', 'pekanbaru', 'maret', 'komunitas', 'hamba', 'allah', 'berdiri', 'karena', 'keprihatinan', 'ibukibuk']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['ust', 'ikrom', 'amri', 'sulawesi', 'ust', 'abul', 'khoir', 'sumatera', 'selatan', 'uas', 'acara', 'munaqasyah', 'prof', 'dr', 'habib', 'abdul', 'ham']</t>
+          <t>&lt;FreqDist with 10 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['ust', 'ikrom', 'amri', 'sulawesi', 'ust', 'abul', 'khoir', 'sumatera', 'selatan', 'uas', 'acara', 'munaqasyah', 'prof', 'dr', 'habib', 'abdul', 'ham']</t>
+          <t>['milad', 'komunitas', 'hamba', 'allah', 'pekanbaru', 'maret', 'komunitas', 'hamba', 'allah', 'berdiri', 'keprihatinan', 'ibukibuk']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['milad', 'komunitas', 'hamba', 'allah', 'pekanbaru', 'maret', 'komunitas', 'hamba', 'allah', 'diri', 'prihatin', 'ibukibuk']</t>
         </is>
       </c>
     </row>
@@ -971,34 +1050,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>13864</v>
+        <v>29466</v>
       </c>
       <c r="C16" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>acara munaqasyah  prof dr habib abdul hamid almahdaly di alazhar cairo akhirnya ust muhaimin mengirimkan poton</t>
+          <t>dikenal juga dengan nama sultan alam atau tengku alam atau raja alam yang merupakan sultan ke kerajaan siak ia</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['acara', 'munaqasyah', 'prof', 'dr', 'habib', 'abdul', 'hamid', 'almahdaly', 'di', 'alazhar', 'cairo', 'akhirnya', 'ust', 'muhaimin', 'mengirimkan', 'poton']</t>
+          <t>['dikenal', 'juga', 'dengan', 'nama', 'sultan', 'alam', 'atau', 'tengku', 'alam', 'atau', 'raja', 'alam', 'yang', 'merupakan', 'sultan', 'ke', 'kerajaan', 'siak', 'ia']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['dikenal', 'juga', 'dengan', 'nama', 'sultan', 'alam', 'atau', 'tengku', 'alam', 'atau', 'raja', 'alam', 'yang', 'merupakan', 'sultan', 'ke', 'kerajaan', 'siak', 'ia']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['acara', 'munaqasyah', 'prof', 'dr', 'habib', 'abdul', 'hamid', 'almahdaly', 'alazhar', 'cairo', 'ust', 'muhaimin', 'mengirimkan', 'poton']</t>
+          <t>&lt;FreqDist with 15 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['acara', 'munaqasyah', 'prof', 'dr', 'habib', 'abdul', 'hamid', 'almahdaly', 'alazhar', 'cairo', 'ust', 'muhaimin', 'kirim', 'poton']</t>
+          <t>['dikenal', 'nama', 'sultan', 'alam', 'tengku', 'alam', 'raja', 'alam', 'sultan', 'kerajaan', 'siak']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['kenal', 'nama', 'sultan', 'alam', 'tengku', 'alam', 'raja', 'alam', 'sultan', 'raja', 'siak']</t>
         </is>
       </c>
     </row>
@@ -1007,30 +1091,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>13865</v>
+        <v>29467</v>
       </c>
       <c r="C17" t="n">
-        <v>179</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
+        <v>345</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>marhum pekan merupakan sultan ke kerajaan siak dikenal sebagai pendiri kota pekanbaru yang sebelumnya telah diri</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['marhum', 'pekan', 'merupakan', 'sultan', 'ke', 'kerajaan', 'siak', 'dikenal', 'sebagai', 'pendiri', 'kota', 'pekanbaru', 'yang', 'sebelumnya', 'telah', 'diri']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['marhum', 'pekan', 'merupakan', 'sultan', 'ke', 'kerajaan', 'siak', 'dikenal', 'sebagai', 'pendiri', 'kota', 'pekanbaru', 'yang', 'sebelumnya', 'telah', 'diri']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['marhum', 'pekan', 'sultan', 'kerajaan', 'siak', 'dikenal', 'pendiri', 'kota', 'pekanbaru']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['marhum', 'pekan', 'sultan', 'raja', 'siak', 'kenal', 'diri', 'kota', 'pekanbaru']</t>
         </is>
       </c>
     </row>
@@ -1039,34 +1132,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>13866</v>
+        <v>29468</v>
       </c>
       <c r="C18" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ada ustadz muhaimin dari malaysia menonton video sidang munaqasyah  prof dr habib abd hamid almahdaly di ala</t>
+          <t>mereka yang dimakamkan di kawasan ini berasal dari keluarga kerajaan siak sri indrapura yang memerintah di pekanbar</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['ada', 'ustadz', 'muhaimin', 'dari', 'malaysia', 'menonton', 'video', 'sidang', 'munaqasyah', 'prof', 'dr', 'habib', 'abd', 'hamid', 'almahdaly', 'di', 'ala']</t>
+          <t>['mereka', 'yang', 'dimakamkan', 'di', 'kawasan', 'ini', 'berasal', 'dari', 'keluarga', 'kerajaan', 'siak', 'sri', 'indrapura', 'yang', 'memerintah', 'di', 'pekanbar']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['mereka', 'yang', 'dimakamkan', 'di', 'kawasan', 'ini', 'berasal', 'dari', 'keluarga', 'kerajaan', 'siak', 'sri', 'indrapura', 'yang', 'memerintah', 'di', 'pekanbar']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['ustadz', 'muhaimin', 'malaysia', 'menonton', 'video', 'sidang', 'munaqasyah', 'prof', 'dr', 'habib', 'abd', 'hamid', 'almahdaly', 'ala']</t>
+          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['ustadz', 'muhaimin', 'malaysia', 'tonton', 'video', 'sidang', 'munaqasyah', 'prof', 'dr', 'habib', 'abd', 'hamid', 'almahdaly', 'ala']</t>
+          <t>['dimakamkan', 'kawasan', 'berasal', 'keluarga', 'kerajaan', 'siak', 'sri', 'indrapura', 'memerintah', 'pekanbar']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['makam', 'kawasan', 'asal', 'keluarga', 'raja', 'siak', 'sri', 'indrapura', 'perintah', 'pekanbar']</t>
         </is>
       </c>
     </row>
@@ -1075,34 +1173,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>13867</v>
+        <v>29469</v>
       </c>
       <c r="C19" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>pembebasan lahan tahfidz alquran</t>
+          <t>di tempat inilah sultan siak beserta pengiringnya beristirahat sejenak sebelum melanjutkan perjalanannya komplek</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['pembebasan', 'lahan', 'tahfidz', 'alquran']</t>
+          <t>['di', 'tempat', 'inilah', 'sultan', 'siak', 'beserta', 'pengiringnya', 'beristirahat', 'sejenak', 'sebelum', 'melanjutkan', 'perjalanannya', 'komplek']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['di', 'tempat', 'inilah', 'sultan', 'siak', 'beserta', 'pengiringnya', 'beristirahat', 'sejenak', 'sebelum', 'melanjutkan', 'perjalanannya', 'kompleks']</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['pembebasan', 'lahan', 'tahfidz', 'alquran']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['bebas', 'lahan', 'tahfidz', 'alquran']</t>
+          <t>['sultan', 'siak', 'beserta', 'pengiringnya', 'beristirahat', 'melanjutkan', 'perjalanannya', 'kompleks']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['sultan', 'siak', 'serta', 'iring', 'istirahat', 'lanjut', 'jalan', 'kompleks']</t>
         </is>
       </c>
     </row>
@@ -1111,34 +1214,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>13868</v>
+        <v>29470</v>
       </c>
       <c r="C20" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>infaqwakaf pembangunan ponpes darul ihsan bsi bank syariah mandiri no rekening an yayasan</t>
+          <t>rumah ini terletak di tepi sungai siak tak jauh di bawah jembatan siak iii pekanbaru rumah panggung kayu berbentu</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['infaqwakaf', 'pembangunan', 'ponpes', 'darul', 'ihsan', 'bsi', 'bank', 'syariah', 'mandiri', 'no', 'rekening', 'an', 'yayasan']</t>
+          <t>['rumah', 'ini', 'terletak', 'di', 'tepi', 'sungai', 'siak', 'tak', 'jauh', 'di', 'bawah', 'jembatan', 'siak', 'iii', 'pekanbaru', 'rumah', 'panggung', 'kayu', 'berbentu']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['rumah', 'ini', 'terletak', 'di', 'tepi', 'sungai', 'siak', 'tak', 'jauh', 'di', 'bawah', 'jembatan', 'siak', 'iii', 'pekanbaru', 'rumah', 'panggung', 'kayu', 'berbentu']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['infaqwakaf', 'pembangunan', 'ponpes', 'darul', 'ihsan', 'bsi', 'bank', 'syariah', 'mandiri', 'no', 'rekening', 'an', 'yayasan']</t>
+          <t>&lt;FreqDist with 16 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['infaqwakaf', 'bangun', 'ponpes', 'darul', 'ihsan', 'bsi', 'bank', 'syariah', 'mandiri', 'no', 'rekening', 'an', 'yayasan']</t>
+          <t>['rumah', 'terletak', 'tepi', 'sungai', 'siak', 'jembatan', 'siak', 'iii', 'pekanbaru', 'rumah', 'panggung', 'kayu', 'berbentu']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['rumah', 'letak', 'tepi', 'sungai', 'siak', 'jembatan', 'siak', 'iii', 'pekanbaru', 'rumah', 'panggung', 'kayu', 'berbentu']</t>
         </is>
       </c>
     </row>
@@ -1147,34 +1255,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>13869</v>
+        <v>29471</v>
       </c>
       <c r="C21" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>bagi beras ke suku anak dlm jambi bersama jambi madani center jmc mari support bank mega syariah no rekening</t>
+          <t>diantara yang mereka kunjungi rumah singgah tuan kadi rumah singgah tuan kadi yang berbentuk rumah panggung ber</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['bagi', 'beras', 'ke', 'suku', 'anak', 'dlm', 'jambi', 'bersama', 'jambi', 'madani', 'center', 'jmc', 'mari', 'support', 'bank', 'mega', 'syariah', 'no', 'rekening']</t>
+          <t>['diantara', 'yang', 'mereka', 'kunjungi', 'rumah', 'singgah', 'tuan', 'kadi', 'rumah', 'singgah', 'tuan', 'kadi', 'yang', 'berbentuk', 'rumah', 'panggung', 'ber']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['diantara', 'yang', 'mereka', 'kunjungi', 'rumah', 'singgah', 'tuan', 'kadi', 'rumah', 'singgah', 'tuan', 'kadi', 'yang', 'berbentuk', 'rumah', 'panggung', 'ber']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['beras', 'suku', 'anak', 'dlm', 'jambi', 'jambi', 'madani', 'center', 'jmc', 'mari', 'support', 'bank', 'mega', 'syariah', 'no', 'rekening']</t>
+          <t>&lt;FreqDist with 11 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['beras', 'suku', 'anak', 'dlm', 'jambi', 'jambi', 'madani', 'center', 'jmc', 'mari', 'support', 'bank', 'mega', 'syariah', 'no', 'rekening']</t>
+          <t>['kunjungi', 'rumah', 'singgah', 'tuan', 'kadi', 'rumah', 'singgah', 'tuan', 'kadi', 'berbentuk', 'rumah', 'panggung', 'ber']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['kunjung', 'rumah', 'singgah', 'tuan', 'kadi', 'rumah', 'singgah', 'tuan', 'kadi', 'bentuk', 'rumah', 'panggung', 'ber']</t>
         </is>
       </c>
     </row>
@@ -1183,34 +1296,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>13870</v>
+        <v>29472</v>
       </c>
       <c r="C22" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>yuk sedekah beras rekening donasi bank sumut syariah an zayyan insani sejahtera syukron medan</t>
+          <t>daripada bis tidak terpakai naifahtours dan ytwu berinisiatif menghibur anakanak yatim dengan mengajak anak yatim</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['yuk', 'sedekah', 'beras', 'rekening', 'donasi', 'bank', 'sumut', 'syariah', 'an', 'zayyan', 'insani', 'sejahtera', 'syukron', 'medan']</t>
+          <t>['daripada', 'bis', 'tidak', 'terpakai', 'naifahtours', 'dan', 'ytwu', 'berinisiatif', 'menghibur', 'anakanak', 'yatim', 'dengan', 'mengajak', 'anak', 'yatim']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['daripada', 'bis', 'tidak', 'terpakai', 'naifahtours', 'dan', 'ytwu', 'berinisiatif', 'menghibur', 'anakanak', 'yatim', 'dengan', 'mengajak', 'anak', 'yatim']</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['yuk', 'sedekah', 'beras', 'rekening', 'donasi', 'bank', 'sumut', 'syariah', 'an', 'zayyan', 'insani', 'sejahtera', 'syukron', 'medan']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['yuk', 'sedekah', 'beras', 'rekening', 'donasi', 'bank', 'sumut', 'syariah', 'an', 'zayyan', 'insani', 'sejahtera', 'syukron', 'medan']</t>
+          <t>['bis', 'terpakai', 'naifahtours', 'ytwu', 'berinisiatif', 'menghibur', 'anakanak', 'yatim', 'mengajak', 'anak', 'yatim']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['bis', 'pakai', 'naifahtours', 'ytwu', 'inisiatif', 'hibur', 'anakanak', 'yatim', 'ajak', 'anak', 'yatim']</t>
         </is>
       </c>
     </row>
@@ -1219,34 +1337,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>13871</v>
+        <v>29473</v>
       </c>
       <c r="C23" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">perumpamaan orang yang menginfakkan hartanya di jalan allah seperti sebutir biji yang menumbuhkan tujuh tangkai </t>
+          <t>peserta wisata religi sangat puas mengaji bersama uas dalam agenda jam bersama uas di hari ketiga sebelum pula</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['perumpamaan', 'orang', 'yang', 'menginfakkan', 'hartanya', 'di', 'jalan', 'allah', 'seperti', 'sebutir', 'biji', 'yang', 'menumbuhkan', 'tujuh', 'tangkai']</t>
+          <t>['peserta', 'wisata', 'religi', 'sangat', 'puas', 'mengaji', 'bersama', 'uas', 'dalam', 'agenda', 'jam', 'bersama', 'uas', 'di', 'hari', 'ketiga', 'sebelum', 'pula']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['peserta', 'wisata', 'religi', 'sangat', 'puas', 'mengaji', 'bersama', 'ujian, akhir, semester', 'dalam', 'agenda', 'jam', 'bersama', 'ujian, akhir, semester', 'di', 'hari', 'ketiga', 'sebelum', 'pula']</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['perumpamaan', 'orang', 'menginfakkan', 'hartanya', 'jalan', 'allah', 'sebutir', 'biji', 'menumbuhkan', 'tujuh', 'tangkai']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['umpama', 'orang', 'infak', 'harta', 'jalan', 'allah', 'butir', 'biji', 'tumbuh', 'tujuh', 'tangkai']</t>
+          <t>['peserta', 'wisata', 'religi', 'puas', 'mengaji', 'ujian, akhir, semester', 'agenda', 'jam', 'ujian, akhir, semester', 'ketiga']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['serta', 'wisata', 'religi', 'puas', 'aji', 'uji akhir semester', 'agenda', 'jam', 'uji akhir semester', 'tiga']</t>
         </is>
       </c>
     </row>
@@ -1255,34 +1378,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>13872</v>
+        <v>29474</v>
       </c>
       <c r="C24" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>allah subhanahu wa taala berfirman</t>
+          <t xml:space="preserve">yayasan tabung wakaf umat dan naifahtours hibur anak yatim dengan program one day tour religi pekanbaru wisata </t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['allah', 'subhanahu', 'wa', 'taala', 'berfirman']</t>
+          <t>['yayasan', 'tabung', 'wakaf', 'umat', 'dan', 'naifahtours', 'hibur', 'anak', 'yatim', 'dengan', 'program', 'one', 'day', 'tour', 'religi', 'pekanbaru', 'wisata']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['yayasan', 'tabung', 'wakaf', 'umat', 'dan', 'naifahtours', 'hibur', 'anak', 'yatim', 'dengan', 'program', 'one', 'day', 'tour', 'religi', 'pekanbaru', 'wisata']</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['allah', 'subhanahu', 'wa', 'taala', 'berfirman']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['allah', 'subhanahu', 'wa', 'taala', 'firman']</t>
+          <t>['yayasan', 'tabung', 'wakaf', 'umat', 'naifahtours', 'hibur', 'anak', 'yatim', 'program', 'one', 'day', 'tour', 'religi', 'pekanbaru', 'wisata']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['yayasan', 'tabung', 'wakaf', 'umat', 'naifahtours', 'hibur', 'anak', 'yatim', 'program', 'one', 'day', 'tour', 'religi', 'pekanbaru', 'wisata']</t>
         </is>
       </c>
     </row>
@@ -1291,34 +1419,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>13873</v>
+        <v>29475</v>
       </c>
       <c r="C25" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>bagaimana saya ingin bersedekah beras niat hub kontak kami kami akan konfrimasi data dan alamat tim kami</t>
+          <t>mari bangun peradaban islam yg gemilang dgn mensupport wakaf pembebasan lahan masjid muslim united</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['bagaimana', 'saya', 'ingin', 'bersedekah', 'beras', 'niat', 'hub', 'kontak', 'kami', 'kami', 'akan', 'konfrimasi', 'data', 'dan', 'alamat', 'tim', 'kami']</t>
+          <t>['mari', 'bangun', 'peradaban', 'islam', 'yg', 'gemilang', 'dgn', 'mensupport', 'wakaf', 'pembebasan', 'lahan', 'masjid', 'muslim', 'united']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>['mari', 'bangun', 'peradaban', 'islam', 'yang', 'gemilang', 'dengan', 'mensupport', 'wakaf', 'pembebasan', 'lahan', 'masjid', 'muslim', 'united']</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['bersedekah', 'beras', 'niat', 'hub', 'kontak', 'konfrimasi', 'data', 'alamat', 'tim']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['sedekah', 'beras', 'niat', 'hub', 'kontak', 'konfrimasi', 'data', 'alamat', 'tim']</t>
+          <t>['mari', 'bangun', 'peradaban', 'islam', 'gemilang', 'mensupport', 'wakaf', 'pembebasan', 'lahan', 'masjid', 'muslim', 'united']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['mari', 'bangun', 'adab', 'islam', 'gemilang', 'mensupport', 'wakaf', 'bebas', 'lahan', 'masjid', 'muslim', 'united']</t>
         </is>
       </c>
     </row>
@@ -1327,34 +1460,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>13874</v>
+        <v>29476</v>
       </c>
       <c r="C26" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>semoga dengan hadirnya zayyan insani sejahtera membawa kemaslahatan dan kesejahteraan bagi ummat di sumatera utara</t>
+          <t xml:space="preserve">dan kami ingin mengajak semua masjid takmir dan entitas dakwah untuk menerapkan standart smq subuh masjid dan </t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['semoga', 'dengan', 'hadirnya', 'zayyan', 'insani', 'sejahtera', 'membawa', 'kemaslahatan', 'dan', 'kesejahteraan', 'bagi', 'ummat', 'di', 'sumatera', 'utara']</t>
+          <t>['dan', 'kami', 'ingin', 'mengajak', 'semua', 'masjid', 'takmir', 'dan', 'entitas', 'dakwah', 'untuk', 'menerapkan', 'standart', 'smq', 'subuh', 'masjid', 'dan']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['dan', 'kami', 'ingin', 'mengajak', 'semua', 'masjid', 'takmir', 'dan', 'entitas', 'dakwah', 'untuk', 'menerapkan', 'standart', 'smq', 'subuh', 'masjid', 'dan']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['semoga', 'hadirnya', 'zayyan', 'insani', 'sejahtera', 'membawa', 'kemaslahatan', 'kesejahteraan', 'ummat', 'sumatera', 'utara']</t>
+          <t>&lt;FreqDist with 14 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['moga', 'hadir', 'zayyan', 'insani', 'sejahtera', 'bawa', 'maslahat', 'sejahtera', 'ummat', 'sumatera', 'utara']</t>
+          <t>['mengajak', 'masjid', 'takmir', 'entitas', 'dakwah', 'menerapkan', 'standart', 'smq', 'subuh', 'masjid']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['ajak', 'masjid', 'takmir', 'entitas', 'dakwah', 'terap', 'standart', 'smq', 'subuh', 'masjid']</t>
         </is>
       </c>
     </row>
@@ -1363,34 +1501,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>13875</v>
+        <v>29477</v>
       </c>
       <c r="C27" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>medan februari telah disalurkan kepada para mustahiq beras sebanyak ton kegiatan ini insya allah</t>
+          <t>nanton video ini sampai habis temanteman semuanya akan mengerti alasan mengapa official membuat ma</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['medan', 'februari', 'telah', 'disalurkan', 'kepada', 'para', 'mustahiq', 'beras', 'sebanyak', 'ton', 'kegiatan', 'ini', 'insya', 'allah']</t>
+          <t>['nanton', 'video', 'ini', 'sampai', 'habis', 'temanteman', 'semuanya', 'akan', 'mengerti', 'alasan', 'mengapa', 'official', 'membuat', 'ma']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>['nanton', 'video', 'ini', 'sampai', 'habis', 'temanteman', 'semuanya', 'akan', 'mengerti', 'alasan', 'mengapa', 'official', 'membuat', 'sama']</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>['medan', 'februari', 'disalurkan', 'mustahiq', 'beras', 'ton', 'kegiatan', 'insya', 'allah']</t>
-        </is>
-      </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['medan', 'februari', 'salur', 'mustahiq', 'beras', 'ton', 'giat', 'insya', 'allah']</t>
+          <t>['nanton', 'video', 'habis', 'temanteman', 'mengerti', 'alasan', 'official']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['nanton', 'video', 'habis', 'temanteman', 'erti', 'alas', 'official']</t>
         </is>
       </c>
     </row>
@@ -1399,34 +1542,35 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>13876</v>
+        <v>29478</v>
       </c>
       <c r="C28" t="n">
-        <v>179</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>medan februari bismillahirrahmanirrahim assalamualaikum warahmatullahi wabarakatuh syukur kita ucapk</t>
-        </is>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['medan', 'februari', 'bismillahirrahmanirrahim', 'assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'syukur', 'kita', 'ucapk']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['medan', 'februari', 'bismillahirrahmanirrahim', 'assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'syukur', 'ucapk']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['medan', 'februari', 'bismillahirrahmanirrahim', 'assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'syukur', 'ucapk']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1435,34 +1579,35 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>13877</v>
+        <v>29479</v>
       </c>
       <c r="C29" t="n">
-        <v>179</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>sodaghosodagho incekincek di tanjung balai jangan lupo membayagh aigh ledeng sebolum tanggal</t>
-        </is>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['sodaghosodagho', 'incekincek', 'di', 'tanjung', 'balai', 'jangan', 'lupo', 'membayagh', 'aigh', 'ledeng', 'sebolum', 'tanggal']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['sodaghosodagho', 'incekincek', 'tanjung', 'balai', 'lupo', 'membayagh', 'aigh', 'ledeng', 'sebolum', 'tanggal']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['sodaghosodagho', 'incekincek', 'tanjung', 'balai', 'lupo', 'membayagh', 'aigh', 'ledeng', 'sebolum', 'tanggal']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1471,34 +1616,35 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>13878</v>
+        <v>29480</v>
       </c>
       <c r="C30" t="n">
-        <v>179</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>untuk pemesanan ziyan atau admin jejak ig ziyan fb ziyan al ghifari</t>
-        </is>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['untuk', 'pemesanan', 'ziyan', 'atau', 'admin', 'jejak', 'ig', 'ziyan', 'fb', 'ziyan', 'al', 'ghifari']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 12 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['pemesanan', 'ziyan', 'admin', 'jejak', 'ig', 'ziyan', 'fb', 'ziyan', 'al', 'ghifari']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['mesan', 'ziyan', 'admin', 'jejak', 'ig', 'ziyan', 'fb', 'ziyan', 'al', 'ghifari']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1507,34 +1653,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>13879</v>
+        <v>29481</v>
       </c>
       <c r="C31" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>judul dari negeri matahari terbenam potret islam dan keilmuan di maroko nonfiksi penulis ziyan al gh</t>
+          <t>bagaimana hukumnya investasi digital coin</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['judul', 'dari', 'negeri', 'matahari', 'terbenam', 'potret', 'islam', 'dan', 'keilmuan', 'di', 'maroko', 'nonfiksi', 'penulis', 'ziyan', 'al', 'gh']</t>
+          <t>['bagaimana', 'hukumnya', 'investasi', 'digital', 'coin']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['bagaimana', 'hukumnya', 'investasi', 'digital', 'coin']</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['judul', 'negeri', 'matahari', 'terbenam', 'potret', 'islam', 'keilmuan', 'maroko', 'nonfiksi', 'penulis', 'ziyan', 'al', 'gh']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['judul', 'negeri', 'matahari', 'benam', 'potret', 'islam', 'ilmu', 'maroko', 'nonfiksi', 'tulis', 'ziyan', 'al', 'gh']</t>
+          <t>['hukumnya', 'investasi', 'digital', 'coin']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['hukum', 'investasi', 'digital', 'coin']</t>
         </is>
       </c>
     </row>
@@ -1543,34 +1694,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>13880</v>
+        <v>29482</v>
       </c>
       <c r="C32" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>ditulis langsung oleh adik kelas saya ziyan al ghifari lc ziyan mahasiswa  di universitas hassan ii kerajaan maroko</t>
+          <t>talkshow tentang berinteraksi dengan bank syariah dan kajian eksklusif bersama peserta wisata religi dan donatur ya</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['ditulis', 'langsung', 'oleh', 'adik', 'kelas', 'saya', 'ziyan', 'al', 'ghifari', 'lc', 'ziyan', 'mahasiswa', 'di', 'universitas', 'hassan', 'ii', 'kerajaan', 'maroko']</t>
+          <t>['talkshow', 'tentang', 'berinteraksi', 'dengan', 'bank', 'syariah', 'dan', 'kajian', 'eksklusif', 'bersama', 'peserta', 'wisata', 'religi', 'dan', 'donatur', 'ya']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['talkshow', 'tentang', 'berinteraksi', 'dengan', 'bank', 'syariat', 'dan', 'kajian', 'eksklusif', 'bersama', 'peserta', 'wisata', 'religi', 'dan', 'donatur', 'ya']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['ditulis', 'langsung', 'adik', 'kelas', 'ziyan', 'al', 'ghifari', 'lc', 'ziyan', 'mahasiswa', 'universitas', 'hassan', 'ii', 'kerajaan', 'maroko']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['tulis', 'langsung', 'adik', 'kelas', 'ziyan', 'al', 'ghifari', 'lc', 'ziyan', 'mahasiswa', 'universitas', 'hassan', 'ii', 'raja', 'maroko']</t>
+          <t>['talkshow', 'berinteraksi', 'bank', 'syariat', 'kajian', 'eksklusif', 'peserta', 'wisata', 'religi', 'donatur']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['talkshow', 'interaksi', 'bank', 'syariat', 'kaji', 'eksklusif', 'serta', 'wisata', 'religi', 'donatur']</t>
         </is>
       </c>
     </row>
@@ -1579,34 +1735,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>13881</v>
+        <v>29483</v>
       </c>
       <c r="C33" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">buku ini membahas tentang pengalaman penulis selama berada di maroko mengulik tradisi dan budaya masyarakat </t>
+          <t>dan dilanjutkan dgn menyaksikan pelaksanaan khitan ceria peduli umat yg terselenggara atas kerjasama ytwu dan sunat</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['buku', 'ini', 'membahas', 'tentang', 'pengalaman', 'penulis', 'selama', 'berada', 'di', 'maroko', 'mengulik', 'tradisi', 'dan', 'budaya', 'masyarakat']</t>
+          <t>['dan', 'dilanjutkan', 'dgn', 'menyaksikan', 'pelaksanaan', 'khitan', 'ceria', 'peduli', 'umat', 'yg', 'terselenggara', 'atas', 'kerjasama', 'ytwu', 'dan', 'sunat']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['dan', 'dilanjutkan', 'dengan', 'menyaksikan', 'pelaksanaan', 'khitan', 'ceria', 'peduli', 'umat', 'yang', 'terselenggara', 'atas', 'kerja, sama', 'ytwu', 'dan', 'sunat']</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['buku', 'membahas', 'pengalaman', 'penulis', 'maroko', 'mengulik', 'tradisi', 'budaya', 'masyarakat']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['buku', 'bahas', 'alam', 'tulis', 'maroko', 'ulik', 'tradisi', 'budaya', 'masyarakat']</t>
+          <t>['dilanjutkan', 'menyaksikan', 'pelaksanaan', 'khitan', 'ceria', 'peduli', 'umat', 'terselenggara', 'kerja, sama', 'ytwu', 'sunat']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['lanjut', 'saksi', 'laksana', 'khitan', 'ceria', 'peduli', 'umat', 'selenggara', 'kerja sama', 'ytwu', 'sunat']</t>
         </is>
       </c>
     </row>
@@ -1615,34 +1776,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>13882</v>
+        <v>29484</v>
       </c>
       <c r="C34" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>masa kini maroko menjadi salah satu tujuan menuntut ilmu agama islam bagi mahasiswa dari seluruh penjuru dunia</t>
+          <t>uas kemudian menyampaikan kuliah subuh pembacaan kitab mukhtashar altarghib wa altarhib edisi di masjid al muh</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['masa', 'kini', 'maroko', 'menjadi', 'salah', 'satu', 'tujuan', 'menuntut', 'ilmu', 'agama', 'islam', 'bagi', 'mahasiswa', 'dari', 'seluruh', 'penjuru', 'dunia']</t>
+          <t>['uas', 'kemudian', 'menyampaikan', 'kuliah', 'subuh', 'pembacaan', 'kitab', 'mukhtashar', 'altarghib', 'wa', 'altarhib', 'edisi', 'di', 'masjid', 'al', 'muh']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['ujian, akhir, semester', 'kemudian', 'menyampaikan', 'kuliah', 'subuh', 'pembacaan', 'kitab', 'mukhtashar', 'altarghib', 'wa', 'altarhib', 'edisi', 'di', 'masjid', 'al', 'muh']</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['maroko', 'salah', 'tujuan', 'menuntut', 'ilmu', 'agama', 'islam', 'mahasiswa', 'penjuru', 'dunia']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['maroko', 'salah', 'tuju', 'tuntut', 'ilmu', 'agama', 'islam', 'mahasiswa', 'penjuru', 'dunia']</t>
+          <t>['ujian, akhir, semester', 'kuliah', 'subuh', 'pembacaan', 'kitab', 'mukhtashar', 'altarghib', 'wa', 'altarhib', 'edisi', 'masjid', 'al', 'muh']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['uji akhir semester', 'kuliah', 'subuh', 'baca', 'kitab', 'mukhtashar', 'altarghib', 'wa', 'altarhib', 'edisi', 'masjid', 'al', 'muh']</t>
         </is>
       </c>
     </row>
@@ -1651,34 +1817,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>13883</v>
+        <v>29485</v>
       </c>
       <c r="C35" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>maroko merupakan salah satu kiblat cahaya ilmu pada masa lampau dengan jamiah alqorowiyyin dan madrassa ben</t>
+          <t>kemudian ditutup dengan doa dan muhasabah yang berakhir sejenak menjelang subuh di masjid nur ilahi jl srikandi pekanbaru</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['maroko', 'merupakan', 'salah', 'satu', 'kiblat', 'cahaya', 'ilmu', 'pada', 'masa', 'lampau', 'dengan', 'jamiah', 'alqorowiyyin', 'dan', 'madrassa', 'ben']</t>
+          <t>['kemudian', 'ditutup', 'dengan', 'doa', 'dan', 'muhasabah', 'yang', 'berakhir', 'sejenak', 'menjelang', 'subuh', 'di', 'masjid', 'nur', 'ilahi', 'jl', 'srikandi', 'pekanbaru']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['kemudian', 'ditutup', 'dengan', 'doa', 'dan', 'muhasabah', 'yang', 'berakhir', 'sejenak', 'menjelang', 'subuh', 'di', 'masjid', 'nur', 'ilahi', 'jalan', 'srikandi', 'pekanbaru']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['maroko', 'salah', 'kiblat', 'cahaya', 'ilmu', 'lampau', 'jamiah', 'alqorowiyyin', 'madrassa', 'ben']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['maroko', 'salah', 'kiblat', 'cahaya', 'ilmu', 'lampau', 'jamiah', 'alqorowiyyin', 'madrassa', 'ben']</t>
+          <t>['ditutup', 'doa', 'muhasabah', 'menjelang', 'subuh', 'masjid', 'nur', 'ilahi', 'jalan', 'srikandi', 'pekanbaru']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['tutup', 'doa', 'muhasabah', 'jelang', 'subuh', 'masjid', 'nur', 'ilahi', 'jalan', 'srikandi', 'pekanbaru']</t>
         </is>
       </c>
     </row>
@@ -1687,34 +1858,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>13884</v>
+        <v>29486</v>
       </c>
       <c r="C36" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">lepaskan anakanak ikan ke kolam saat penghafal quran memakannya mengenyangkan perut yang lapar selamat kita </t>
+          <t>sabtu maret uas melanjutkan agenda dengan itikaf nurul azhar sejak pkl dinihari yang diawali denga</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['lepaskan', 'anakanak', 'ikan', 'ke', 'kolam', 'saat', 'penghafal', 'quran', 'memakannya', 'mengenyangkan', 'perut', 'yang', 'lapar', 'selamat', 'kita']</t>
+          <t>['sabtu', 'maret', 'uas', 'melanjutkan', 'agenda', 'dengan', 'itikaf', 'nurul', 'azhar', 'sejak', 'pkl', 'dinihari', 'yang', 'diawali', 'denga']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['sabtu', 'maret', 'ujian, akhir, semester', 'melanjutkan', 'agenda', 'dengan', 'itikaf', 'nurul', 'azhar', 'sejak', 'pukul', 'dini, hari', 'yang', 'diawali', 'dengan']</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['lepaskan', 'anakanak', 'ikan', 'kolam', 'penghafal', 'quran', 'memakannya', 'mengenyangkan', 'perut', 'lapar', 'selamat']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['lepas', 'anakanak', 'ikan', 'kolam', 'hafal', 'quran', 'makan', 'kenyang', 'perut', 'lapar', 'selamat']</t>
+          <t>['sabtu', 'maret', 'ujian, akhir, semester', 'melanjutkan', 'agenda', 'itikaf', 'nurul', 'azhar', 'dini, hari', 'diawali']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['sabtu', 'maret', 'uji akhir semester', 'lanjut', 'agenda', 'itikaf', 'nurul', 'azhar', 'dini hari', 'awal']</t>
         </is>
       </c>
     </row>
@@ -1723,34 +1899,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>13885</v>
+        <v>29487</v>
       </c>
       <c r="C37" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>tanamkan sebutir benih bertunas bercabang berbuah dimakan orang bertenaga dia untuk menyembah allah jadi amal</t>
+          <t>sore harinya uas menyampaikan kajian eksklusif keluarga besar yayasan tabung wakaf umat dan relawan di aula smpsma</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['tanamkan', 'sebutir', 'benih', 'bertunas', 'bercabang', 'berbuah', 'dimakan', 'orang', 'bertenaga', 'dia', 'untuk', 'menyembah', 'allah', 'jadi', 'amal']</t>
+          <t>['sore', 'harinya', 'uas', 'menyampaikan', 'kajian', 'eksklusif', 'keluarga', 'besar', 'yayasan', 'tabung', 'wakaf', 'umat', 'dan', 'relawan', 'di', 'aula', 'smpsma']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['sore', 'harinya', 'ujian, akhir, semester', 'menyampaikan', 'kajian', 'eksklusif', 'keluarga', 'besar', 'yayasan', 'tabung', 'wakaf', 'umat', 'dan', 'relawan', 'di', 'aula', 'smpsma']</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['tanamkan', 'sebutir', 'benih', 'bertunas', 'bercabang', 'berbuah', 'dimakan', 'orang', 'bertenaga', 'menyembah', 'allah', 'amal']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['tanam', 'butir', 'benih', 'tunas', 'cabang', 'buah', 'makan', 'orang', 'tenaga', 'sembah', 'allah', 'amal']</t>
+          <t>['sore', 'harinya', 'ujian, akhir, semester', 'kajian', 'eksklusif', 'keluarga', 'yayasan', 'tabung', 'wakaf', 'umat', 'relawan', 'aula', 'smpsma']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['sore', 'hari', 'uji akhir semester', 'kaji', 'eksklusif', 'keluarga', 'yayasan', 'tabung', 'wakaf', 'umat', 'rawan', 'aula', 'smpsma']</t>
         </is>
       </c>
     </row>
@@ -1759,34 +1940,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>13886</v>
+        <v>29488</v>
       </c>
       <c r="C38" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>paket sudah termasuk bus pariwisata pemandu wisata hotel bintang makan hari siang dan malam hari</t>
+          <t>yayasan tabung wakaf umat insya allah akan membantu ibu linda ummi kalsum janda untuk membangun kembali rumahnya</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['paket', 'sudah', 'termasuk', 'bus', 'pariwisata', 'pemandu', 'wisata', 'hotel', 'bintang', 'makan', 'hari', 'siang', 'dan', 'malam', 'hari']</t>
+          <t>['yayasan', 'tabung', 'wakaf', 'umat', 'insya', 'allah', 'akan', 'membantu', 'ibu', 'linda', 'ummi', 'kalsum', 'janda', 'untuk', 'membangun', 'kembali', 'rumahnya']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['yayasan', 'tabung', 'wakaf', 'umat', 'insya', 'allah', 'akan', 'membantu', 'ibu', 'linda', 'ibu', 'kalsum', 'janda', 'untuk', 'membangun', 'kembali', 'rumahnya']</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['paket', 'bus', 'pariwisata', 'pemandu', 'wisata', 'hotel', 'bintang', 'makan', 'siang', 'malam']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['paket', 'bus', 'pariwisata', 'pandu', 'wisata', 'hotel', 'bintang', 'makan', 'siang', 'malam']</t>
+          <t>['yayasan', 'tabung', 'wakaf', 'umat', 'insya', 'allah', 'membantu', 'linda', 'kalsum', 'janda', 'membangun', 'rumahnya']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['yayasan', 'tabung', 'wakaf', 'umat', 'insya', 'allah', 'bantu', 'linda', 'kalsum', 'janda', 'bangun', 'rumah']</t>
         </is>
       </c>
     </row>
@@ -1795,34 +1981,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>13887</v>
+        <v>29489</v>
       </c>
       <c r="C39" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>kajian eksklusif bersama uas di hotel melihat lokasi pesantren nurul azhar palas yayasan tabung wakaf umat</t>
+          <t>jam bersama uas bulan maret jumat maret agenda diawali dengan kunjungan uas untuk berbagi beras</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['kajian', 'eksklusif', 'bersama', 'uas', 'di', 'hotel', 'melihat', 'lokasi', 'pesantren', 'nurul', 'azhar', 'palas', 'yayasan', 'tabung', 'wakaf', 'umat']</t>
+          <t>['jam', 'bersama', 'uas', 'bulan', 'maret', 'jumat', 'maret', 'agenda', 'diawali', 'dengan', 'kunjungan', 'uas', 'untuk', 'berbagi', 'beras']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['jam', 'bersama', 'ujian, akhir, semester', 'bulan', 'maret', 'jumat', 'maret', 'agenda', 'diawali', 'dengan', 'kunjungan', 'ujian, akhir, semester', 'untuk', 'berbagi', 'beras']</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['kajian', 'eksklusif', 'uas', 'hotel', 'lokasi', 'pesantren', 'nurul', 'azhar', 'palas', 'yayasan', 'tabung', 'wakaf', 'umat']</t>
+          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['kaji', 'eksklusif', 'uas', 'hotel', 'lokasi', 'pesantren', 'nurul', 'azhar', 'palas', 'yayasan', 'tabung', 'wakaf', 'umat']</t>
+          <t>['jam', 'ujian, akhir, semester', 'maret', 'jumat', 'maret', 'agenda', 'diawali', 'kunjungan', 'ujian, akhir, semester', 'berbagi', 'beras']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['jam', 'uji akhir semester', 'maret', 'jumat', 'maret', 'agenda', 'awal', 'kunjung', 'uji akhir semester', 'bagi', 'beras']</t>
         </is>
       </c>
     </row>
@@ -1831,34 +2022,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>13888</v>
+        <v>29490</v>
       </c>
       <c r="C40" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>para peserta akan mendapatkan benefit mengikuti langsung khutbah jumat uas mengikuti langsung program sos</t>
+          <t>kajian eksklusif bersama uas di hotel melihat lokasi pesantren nurul azhar palas yayasan tabung wakaf umat</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['para', 'peserta', 'akan', 'mendapatkan', 'benefit', 'mengikuti', 'langsung', 'khutbah', 'jumat', 'uas', 'mengikuti', 'langsung', 'program', 'sos']</t>
+          <t>['kajian', 'eksklusif', 'bersama', 'uas', 'di', 'hotel', 'melihat', 'lokasi', 'pesantren', 'nurul', 'azhar', 'palas', 'yayasan', 'tabung', 'wakaf', 'umat']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 14 outcomes&gt;</t>
+          <t>['kajian', 'eksklusif', 'bersama', 'ujian, akhir, semester', 'di', 'hotel', 'melihat', 'lokasi', 'pesantren', 'nurul', 'azhar', 'palas', 'yayasan', 'tabung', 'wakaf', 'umat']</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['peserta', 'benefit', 'mengikuti', 'langsung', 'khutbah', 'jumat', 'uas', 'mengikuti', 'langsung', 'program', 'sos']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['serta', 'benefit', 'ikut', 'langsung', 'khutbah', 'jumat', 'uas', 'ikut', 'langsung', 'program', 'sos']</t>
+          <t>['kajian', 'eksklusif', 'ujian, akhir, semester', 'hotel', 'lokasi', 'pesantren', 'nurul', 'azhar', 'palas', 'yayasan', 'tabung', 'wakaf', 'umat']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['kaji', 'eksklusif', 'uji akhir semester', 'hotel', 'lokasi', 'pesantren', 'nurul', 'azhar', 'palas', 'yayasan', 'tabung', 'wakaf', 'umat']</t>
         </is>
       </c>
     </row>
@@ -1867,34 +2063,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>13889</v>
+        <v>29491</v>
       </c>
       <c r="C41" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">selama program wisata religi peserta akan diajak terlibat dengan program yayasan tabung wakaf umat jam bersama </t>
+          <t>peserta akan mengikuti langsung khutbah jumat uas program sosial yayasan tabung wakaf umat berbagi beras</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['selama', 'program', 'wisata', 'religi', 'peserta', 'akan', 'diajak', 'terlibat', 'dengan', 'program', 'yayasan', 'tabung', 'wakaf', 'umat', 'jam', 'bersama']</t>
+          <t>['peserta', 'akan', 'mengikuti', 'langsung', 'khutbah', 'jumat', 'uas', 'program', 'sosial', 'yayasan', 'tabung', 'wakaf', 'umat', 'berbagi', 'beras']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['peserta', 'akan', 'mengikuti', 'langsung', 'khotbah', 'jumat', 'ujian, akhir, semester', 'program', 'sosial', 'yayasan', 'tabung', 'wakaf', 'umat', 'berbagi', 'beras']</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['program', 'wisata', 'religi', 'peserta', 'diajak', 'terlibat', 'program', 'yayasan', 'tabung', 'wakaf', 'umat', 'jam']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['program', 'wisata', 'religi', 'serta', 'ajak', 'libat', 'program', 'yayasan', 'tabung', 'wakaf', 'umat', 'jam']</t>
+          <t>['peserta', 'mengikuti', 'langsung', 'khotbah', 'jumat', 'ujian, akhir, semester', 'program', 'sosial', 'yayasan', 'tabung', 'wakaf', 'umat', 'berbagi', 'beras']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['serta', 'ikut', 'langsung', 'khotbah', 'jumat', 'uji akhir semester', 'program', 'sosial', 'yayasan', 'tabung', 'wakaf', 'umat', 'bagi', 'beras']</t>
         </is>
       </c>
     </row>
@@ -1903,34 +2104,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>13890</v>
+        <v>29492</v>
       </c>
       <c r="C42" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>wisata religi jilid mengaji bersama uas hari malam maret  memfasilitasi jamaah yg ingin mndgr</t>
+          <t xml:space="preserve">selama program wisata religi peserta akan diajak terlibat dengan program yayasan tabung wakaf umat jam bersama </t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['wisata', 'religi', 'jilid', 'mengaji', 'bersama', 'uas', 'hari', 'malam', 'maret', 'memfasilitasi', 'jamaah', 'yg', 'ingin', 'mndgr']</t>
+          <t>['selama', 'program', 'wisata', 'religi', 'peserta', 'akan', 'diajak', 'terlibat', 'dengan', 'program', 'yayasan', 'tabung', 'wakaf', 'umat', 'jam', 'bersama']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['selama', 'program', 'wisata', 'religi', 'peserta', 'akan', 'diajak', 'terlibat', 'dengan', 'program', 'yayasan', 'tabung', 'wakaf', 'umat', 'jam', 'bersama']</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['wisata', 'religi', 'jilid', 'mengaji', 'uas', 'malam', 'maret', 'memfasilitasi', 'jamaah', 'mndgr']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['wisata', 'religi', 'jilid', 'aji', 'uas', 'malam', 'maret', 'fasilitas', 'jamaah', 'mndgr']</t>
+          <t>['program', 'wisata', 'religi', 'peserta', 'diajak', 'terlibat', 'program', 'yayasan', 'tabung', 'wakaf', 'umat', 'jam']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['program', 'wisata', 'religi', 'serta', 'ajak', 'libat', 'program', 'yayasan', 'tabung', 'wakaf', 'umat', 'jam']</t>
         </is>
       </c>
     </row>
@@ -1939,34 +2145,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>13891</v>
+        <v>29493</v>
       </c>
       <c r="C43" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>narahubung konfirmasi ig official fb tabung wakaf umat channel youtube tab</t>
+          <t>untuk memfasilitasi jamaah yg ingin mendengarkan langsung kajian uas atau bertemu langsung dgn uas sekaligus melih</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['narahubung', 'konfirmasi', 'ig', 'official', 'fb', 'tabung', 'wakaf', 'umat', 'channel', 'youtube', 'tab']</t>
+          <t>['untuk', 'memfasilitasi', 'jamaah', 'yg', 'ingin', 'mendengarkan', 'langsung', 'kajian', 'uas', 'atau', 'bertemu', 'langsung', 'dgn', 'uas', 'sekaligus', 'melih']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['untuk', 'memfasilitasi', 'jamaah', 'yang', 'ingin', 'mendengarkan', 'langsung', 'kajian', 'ujian, akhir, semester', 'atau', 'bertemu', 'langsung', 'dengan', 'ujian, akhir, semester', 'sekaligus', 'melih']</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['narahubung', 'konfirmasi', 'ig', 'official', 'fb', 'tabung', 'wakaf', 'umat', 'channel', 'youtube', 'tab']</t>
+          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['narahubung', 'konfirmasi', 'ig', 'official', 'fb', 'tabung', 'wakaf', 'umat', 'channel', 'youtube', 'tab']</t>
+          <t>['memfasilitasi', 'jamaah', 'mendengarkan', 'langsung', 'kajian', 'ujian, akhir, semester', 'bertemu', 'langsung', 'ujian, akhir, semester', 'melih']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['fasilitas', 'jamaah', 'dengar', 'langsung', 'kaji', 'uji akhir semester', 'temu', 'langsung', 'uji akhir semester', 'melih']</t>
         </is>
       </c>
     </row>
@@ -1975,34 +2186,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>13892</v>
+        <v>29494</v>
       </c>
       <c r="C44" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>bpd riau bank riau kepri syariah bsm bank syariah indonesia bank mu</t>
+          <t>imam muhammad ibn idris bercerita tentang dunia singa mati kelaparan di tengah rimba daging domba dimakan anjing</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['bpd', 'riau', 'bank', 'riau', 'kepri', 'syariah', 'bsm', 'bank', 'syariah', 'indonesia', 'bank', 'mu']</t>
+          <t>['imam', 'muhammad', 'ibn', 'idris', 'bercerita', 'tentang', 'dunia', 'singa', 'mati', 'kelaparan', 'di', 'tengah', 'rimba', 'daging', 'domba', 'dimakan', 'anjing']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 12 outcomes&gt;</t>
+          <t>['imam', 'muhammad', 'ibn', 'idris', 'bercerita', 'tentang', 'dunia', 'singa', 'mati', 'kelaparan', 'di', 'tengah', 'rimba', 'daging', 'domba', 'dimakan', 'anjing']</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['bpd', 'riau', 'bank', 'riau', 'kepri', 'syariah', 'bsm', 'bank', 'syariah', 'indonesia', 'bank', 'mu']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['bpd', 'riau', 'bank', 'riau', 'kepri', 'syariah', 'bsm', 'bank', 'syariah', 'indonesia', 'bank', 'mu']</t>
+          <t>['imam', 'muhammad', 'ibn', 'idris', 'bercerita', 'dunia', 'singa', 'mati', 'kelaparan', 'rimba', 'daging', 'domba', 'dimakan', 'anjing']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['imam', 'muhammad', 'ibn', 'idris', 'cerita', 'dunia', 'singa', 'mati', 'lapar', 'rimba', 'daging', 'domba', 'makan', 'anjing']</t>
         </is>
       </c>
     </row>
@@ -2011,34 +2227,35 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>13893</v>
+        <v>29495</v>
       </c>
       <c r="C45" t="n">
-        <v>179</v>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>jamaah yang ingin berwakaf untuk pembangunan pesantren nurul azhar palas bisa wakaf setara dengan setengah sak sem</t>
-        </is>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['jamaah', 'yang', 'ingin', 'berwakaf', 'untuk', 'pembangunan', 'pesantren', 'nurul', 'azhar', 'palas', 'bisa', 'wakaf', 'setara', 'dengan', 'setengah', 'sak', 'sem']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['jamaah', 'berwakaf', 'pembangunan', 'pesantren', 'nurul', 'azhar', 'palas', 'wakaf', 'setara', 'sak', 'sem']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['jamaah', 'wakaf', 'bangun', 'pesantren', 'nurul', 'azhar', 'palas', 'wakaf', 'tara', 'sak', 'sem']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2047,34 +2264,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>13894</v>
+        <v>29496</v>
       </c>
       <c r="C46" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>total dana yang dibutuhkan untuk bangunan tahap pertama rp satu milyar lima ratus dua belas juta rupiah untuk unit rumah</t>
+          <t>catatan setiap mahasantri</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['total', 'dana', 'yang', 'dibutuhkan', 'untuk', 'bangunan', 'tahap', 'pertama', 'rp', 'satu', 'milyar', 'lima', 'ratus', 'dua', 'belas', 'juta', 'rupiah', 'untuk', 'unit', 'rumah']</t>
+          <t>['catatan', 'setiap', 'mahasantri']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
+          <t>['catatan', 'setiap', 'mahasantri']</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['total', 'dana', 'dibutuhkan', 'bangunan', 'tahap', 'rp', 'milyar', 'ratus', 'belas', 'juta', 'rupiah', 'unit', 'rumah']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['total', 'dana', 'butuh', 'bangun', 'tahap', 'rp', 'milyar', 'ratus', 'belas', 'juta', 'rupiah', 'unit', 'rumah']</t>
+          <t>['catatan', 'mahasantri']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['catat', 'mahasantri']</t>
         </is>
       </c>
     </row>
@@ -2083,34 +2305,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>13895</v>
+        <v>29497</v>
       </c>
       <c r="C47" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve">saat ini telah dipasang pagar dan hari senin februari insya allah akan dimulai pembangunan tahap pertama </t>
+          <t>program dai mukim selama bulan program magang wirausaha selama bulan dan penugasan pondok selama bulan ya</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['saat', 'ini', 'telah', 'dipasang', 'pagar', 'dan', 'hari', 'senin', 'februari', 'insya', 'allah', 'akan', 'dimulai', 'pembangunan', 'tahap', 'pertama']</t>
+          <t>['program', 'dai', 'mukim', 'selama', 'bulan', 'program', 'magang', 'wirausaha', 'selama', 'bulan', 'dan', 'penugasan', 'pondok', 'selama', 'bulan', 'ya']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['program', 'dai', 'mukim', 'selama', 'bulan', 'program', 'magang', 'wirausaha', 'selama', 'bulan', 'dan', 'penugasan', 'pondok', 'selama', 'bulan', 'ya']</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['dipasang', 'pagar', 'senin', 'februari', 'insya', 'allah', 'pembangunan', 'tahap']</t>
+          <t>&lt;FreqDist with 11 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['pasang', 'pagar', 'senin', 'februari', 'insya', 'allah', 'bangun', 'tahap']</t>
+          <t>['program', 'dai', 'mukim', 'program', 'magang', 'wirausaha', 'penugasan', 'pondok']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['program', 'dai', 'mukim', 'program', 'magang', 'wirausaha', 'tugas', 'pondok']</t>
         </is>
       </c>
     </row>
@@ -2119,34 +2346,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>13896</v>
+        <v>29498</v>
       </c>
       <c r="C48" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>santri tdk dibebankan biaya pendidikan slma belajar ytwu akan mengupayakan pengelolaan zakat infaq sedekah dan</t>
+          <t>program mahasantri selama empat tahun tahfidzul quran dan dakwah dilaksanakan pada semester iiv juga prog</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['santri', 'tdk', 'dibebankan', 'biaya', 'pendidikan', 'slma', 'belajar', 'ytwu', 'akan', 'mengupayakan', 'pengelolaan', 'zakat', 'infaq', 'sedekah', 'dan']</t>
+          <t>['program', 'mahasantri', 'selama', 'empat', 'tahun', 'tahfidzul', 'quran', 'dan', 'dakwah', 'dilaksanakan', 'pada', 'semester', 'iiv', 'juga', 'prog']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['program', 'mahasantri', 'selama', 'empat', 'tahun', 'tahfidzul', 'alquran', 'dan', 'dakwah', 'dilaksanakan', 'pada', 'semester', 'iiv', 'juga', 'program']</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['santri', 'dibebankan', 'biaya', 'pendidikan', 'slma', 'belajar', 'ytwu', 'mengupayakan', 'pengelolaan', 'zakat', 'infaq', 'sedekah']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['santri', 'beban', 'biaya', 'didik', 'slma', 'ajar', 'ytwu', 'upaya', 'kelola', 'zakat', 'infaq', 'sedekah']</t>
+          <t>['program', 'mahasantri', 'tahfidzul', 'alquran', 'dakwah', 'dilaksanakan', 'semester', 'iiv', 'program']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['program', 'mahasantri', 'tahfidzul', 'alquran', 'dakwah', 'laksana', 'semester', 'iiv', 'program']</t>
         </is>
       </c>
     </row>
@@ -2155,34 +2387,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>13897</v>
+        <v>29499</v>
       </c>
       <c r="C49" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>dengan format pendidikan tahun yang fokus mencetak santri hafal alquran mahir membaca kitab kuning ahli zikir</t>
+          <t>kemasyarakatan program dai mukim pendampingan jamaah bakti sosial phbi dll kewirausahaan magang wirau</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['dengan', 'format', 'pendidikan', 'tahun', 'yang', 'fokus', 'mencetak', 'santri', 'hafal', 'alquran', 'mahir', 'membaca', 'kitab', 'kuning', 'ahli', 'zikir']</t>
+          <t>['kemasyarakatan', 'program', 'dai', 'mukim', 'pendampingan', 'jamaah', 'bakti', 'sosial', 'phbi', 'dll', 'kewirausahaan', 'magang', 'wirau']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['kemasyarakatan', 'program', 'dai', 'mukim', 'pendampingan', 'jamaah', 'bakti', 'sosial', 'phbi', 'dan, lain, lain', 'kewirausahaan', 'magang', 'wirau']</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['format', 'pendidikan', 'fokus', 'mencetak', 'santri', 'hafal', 'alquran', 'mahir', 'membaca', 'kitab', 'kuning', 'ahli', 'zikir']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['format', 'didik', 'fokus', 'cetak', 'santri', 'hafal', 'alquran', 'mahir', 'baca', 'kitab', 'kuning', 'ahli', 'zikir']</t>
+          <t>['kemasyarakatan', 'program', 'dai', 'mukim', 'pendampingan', 'jamaah', 'bakti', 'sosial', 'phbi', 'dan, lain, lain', 'kewirausahaan', 'magang', 'wirau']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['masyarakat', 'program', 'dai', 'mukim', 'damping', 'jamaah', 'bakti', 'sosial', 'phbi', 'dan lain lain', 'kewirausahaan', 'magang', 'wirau']</t>
         </is>
       </c>
     </row>
@@ -2191,34 +2428,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>13898</v>
+        <v>29500</v>
       </c>
       <c r="C50" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>pesantren nurul azhar palas adalah wadah pendidikan yang berada di jalan tengku mahmud palas rumbai kota pekanbaru</t>
+          <t>sistem belajar mulazamah talaqqy halaqoh quran dan sosial kemasyarakatan lima kurikulum al</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['pesantren', 'nurul', 'azhar', 'palas', 'adalah', 'wadah', 'pendidikan', 'yang', 'berada', 'di', 'jalan', 'tengku', 'mahmud', 'palas', 'rumbai', 'kota', 'pekanbaru']</t>
+          <t>['sistem', 'belajar', 'mulazamah', 'talaqqy', 'halaqoh', 'quran', 'dan', 'sosial', 'kemasyarakatan', 'lima', 'kurikulum', 'al']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['sistem', 'belajar', 'mulazamah', 'talaqqy', 'halaqah', 'alquran', 'dan', 'sosial', 'kemasyarakatan', 'lima', 'kurikulum', 'al']</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['pesantren', 'nurul', 'azhar', 'palas', 'wadah', 'pendidikan', 'jalan', 'tengku', 'mahmud', 'palas', 'rumbai', 'kota', 'pekanbaru']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['pesantren', 'nurul', 'azhar', 'palas', 'wadah', 'didik', 'jalan', 'tengku', 'mahmud', 'palas', 'rumbai', 'kota', 'pekanbaru']</t>
+          <t>['sistem', 'belajar', 'mulazamah', 'talaqqy', 'halaqah', 'alquran', 'sosial', 'kemasyarakatan', 'kurikulum', 'al']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['sistem', 'ajar', 'mulazamah', 'talaqqy', 'halaqah', 'alquran', 'sosial', 'masyarakat', 'kurikulum', 'al']</t>
         </is>
       </c>
     </row>
@@ -2227,34 +2469,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>13899</v>
+        <v>29501</v>
       </c>
       <c r="C51" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>judul buku karya uas dapatkan bukubuku karya ustadz abdul somad pemesana</t>
+          <t xml:space="preserve">kewajiban berdakwah senantiasa melekat pada diri setiap muslim selaras dengan kemampuan dan keadaan insyaallah </t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['judul', 'buku', 'karya', 'uas', 'dapatkan', 'bukubuku', 'karya', 'ustadz', 'abdul', 'somad', 'pemesana']</t>
+          <t>['kewajiban', 'berdakwah', 'senantiasa', 'melekat', 'pada', 'diri', 'setiap', 'muslim', 'selaras', 'dengan', 'kemampuan', 'dan', 'keadaan', 'insyaallah']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
+          <t>['kewajiban', 'berdakwah', 'senantiasa', 'melekat', 'pada', 'diri', 'setiap', 'muslim', 'selaras', 'dengan', 'kemampuan', 'dan', 'keadaan', 'insyaallah']</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['judul', 'buku', 'karya', 'uas', 'dapatkan', 'bukubuku', 'karya', 'ustadz', 'abdul', 'somad', 'pemesana']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['judul', 'buku', 'karya', 'uas', 'dapat', 'bukubuku', 'karya', 'ustadz', 'abdul', 'somad', 'sana']</t>
+          <t>['kewajiban', 'berdakwah', 'senantiasa', 'melekat', 'muslim', 'selaras', 'kemampuan', 'insyaallah']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['wajib', 'dakwah', 'senantiasa', 'lekat', 'muslim', 'selaras', 'mampu', 'insyaallah']</t>
         </is>
       </c>
     </row>
@@ -2263,34 +2510,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>13900</v>
+        <v>29502</v>
       </c>
       <c r="C52" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>infaqwakaf pembangunan ponpes darul ihsan bsi bank syariah mandiri no rekening an yayasan jamb</t>
+          <t>saya telah melihat bibit itu berakar tumbuh dan mekar ketua yayasan pesantren masyarakat merapi</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['infaqwakaf', 'pembangunan', 'ponpes', 'darul', 'ihsan', 'bsi', 'bank', 'syariah', 'mandiri', 'no', 'rekening', 'an', 'yayasan', 'jamb']</t>
+          <t>['saya', 'telah', 'melihat', 'bibit', 'itu', 'berakar', 'tumbuh', 'dan', 'mekar', 'ketua', 'yayasan', 'pesantren', 'masyarakat', 'merapi']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
+          <t>['saya', 'telah', 'melihat', 'bibit', 'itu', 'berakar', 'tumbuh', 'dan', 'mekar', 'ketua', 'yayasan', 'pesantren', 'masyarakat', 'merapi']</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>['infaqwakaf', 'pembangunan', 'ponpes', 'darul', 'ihsan', 'bsi', 'bank', 'syariah', 'mandiri', 'no', 'rekening', 'an', 'yayasan', 'jamb']</t>
-        </is>
-      </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['infaqwakaf', 'bangun', 'ponpes', 'darul', 'ihsan', 'bsi', 'bank', 'syariah', 'mandiri', 'no', 'rekening', 'an', 'yayasan', 'jamb']</t>
+          <t>['bibit', 'berakar', 'tumbuh', 'mekar', 'ketua', 'yayasan', 'pesantren', 'masyarakat', 'merapi']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['bibit', 'akar', 'tumbuh', 'mekar', 'ketua', 'yayasan', 'pesantren', 'masyarakat', 'rapi']</t>
         </is>
       </c>
     </row>
@@ -2299,34 +2551,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>13901</v>
+        <v>29503</v>
       </c>
       <c r="C53" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>keliling pesantren darullhsan jambi mari support infaq wakaf semen bank mega syariah no rekening</t>
+          <t>pesantren masyarakat merapi merbabu pm adalah persemaian kecil untuk citacita besar melahirkan daidaiyah</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['keliling', 'pesantren', 'darullhsan', 'jambi', 'mari', 'support', 'infaq', 'wakaf', 'semen', 'bank', 'mega', 'syariah', 'no', 'rekening']</t>
+          <t>['pesantren', 'masyarakat', 'merapi', 'merbabu', 'pm', 'adalah', 'persemaian', 'kecil', 'untuk', 'citacita', 'besar', 'melahirkan', 'daidaiyah']</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['pesantren', 'masyarakat', 'merapi', 'merbabu', 'pm', 'adalah', 'persemaian', 'kecil', 'untuk', 'citacita', 'besar', 'melahirkan', 'daidaiyah']</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>['keliling', 'pesantren', 'darullhsan', 'jambi', 'mari', 'support', 'infaq', 'wakaf', 'semen', 'bank', 'mega', 'syariah', 'no', 'rekening']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['keliling', 'pesantren', 'darullhsan', 'jambi', 'mari', 'support', 'infaq', 'wakaf', 'semen', 'bank', 'mega', 'syariah', 'no', 'rekening']</t>
+          <t>['pesantren', 'masyarakat', 'merapi', 'merbabu', 'pm', 'persemaian', 'citacita', 'melahirkan', 'daidaiyah']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['pesantren', 'masyarakat', 'rapi', 'merbabu', 'pm', 'semai', 'citacita', 'lahir', 'daidaiyah']</t>
         </is>
       </c>
     </row>
@@ -2335,34 +2592,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>13902</v>
+        <v>29504</v>
       </c>
       <c r="C54" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>bagi yang ingin ikut serta dapat mengirim donasi ke bank syariah mandiri no rek an yayasan wakaf</t>
+          <t>berdakwah bukam hanya di atas mimbar tapi berdakwah adalah seperti mereka yang masuk ke pelosokpelosok lereng gun</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['bagi', 'yang', 'ingin', 'ikut', 'serta', 'dapat', 'mengirim', 'donasi', 'ke', 'bank', 'syariah', 'mandiri', 'no', 'rek', 'an', 'yayasan', 'wakaf']</t>
+          <t>['berdakwah', 'bukam', 'hanya', 'di', 'atas', 'mimbar', 'tapi', 'berdakwah', 'adalah', 'seperti', 'mereka', 'yang', 'masuk', 'ke', 'pelosokpelosok', 'lereng', 'gun']</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['berdakwah', 'bukam', 'hanya', 'di', 'atas', 'mimbar', 'tapi', 'berdakwah', 'adalah', 'seperti', 'mereka', 'yang', 'masuk', 'ke', 'pelosokpelosok', 'lereng', 'gun']</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['mengirim', 'donasi', 'bank', 'syariah', 'mandiri', 'no', 'rek', 'an', 'yayasan', 'wakaf']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['kirim', 'donasi', 'bank', 'syariah', 'mandiri', 'no', 'rek', 'an', 'yayasan', 'wakaf']</t>
+          <t>['berdakwah', 'bukam', 'mimbar', 'berdakwah', 'masuk', 'pelosokpelosok', 'lereng', 'gun']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['dakwah', 'bukam', 'mimbar', 'dakwah', 'masuk', 'pelosokpelosok', 'lereng', 'gun']</t>
         </is>
       </c>
     </row>
@@ -2371,34 +2633,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>13903</v>
+        <v>29505</v>
       </c>
       <c r="C55" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>yayasan wakaf hajjah rohana berbagi pembagian paket sembako kepada dhuafa tanggal</t>
+          <t>penerimaan mahasantri baru pesantren masyarakat merapi merbabu pm tahun akademik pada program</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['yayasan', 'wakaf', 'hajjah', 'rohana', 'berbagi', 'pembagian', 'paket', 'sembako', 'kepada', 'dhuafa', 'tanggal']</t>
+          <t>['penerimaan', 'mahasantri', 'baru', 'pesantren', 'masyarakat', 'merapi', 'merbabu', 'pm', 'tahun', 'akademik', 'pada', 'program']</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['penerimaan', 'mahasantri', 'baru', 'pesantren', 'masyarakat', 'merapi', 'merbabu', 'pm', 'tahun', 'akademik', 'pada', 'program']</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['yayasan', 'wakaf', 'hajjah', 'rohana', 'berbagi', 'pembagian', 'paket', 'sembako', 'dhuafa', 'tanggal']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['yayasan', 'wakaf', 'hajjah', 'rohana', 'bagi', 'bagi', 'paket', 'sembako', 'dhuafa', 'tanggal']</t>
+          <t>['penerimaan', 'mahasantri', 'pesantren', 'masyarakat', 'merapi', 'merbabu', 'pm', 'akademik', 'program']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['terima', 'mahasantri', 'pesantren', 'masyarakat', 'rapi', 'merbabu', 'pm', 'akademik', 'program']</t>
         </is>
       </c>
     </row>
@@ -2407,34 +2674,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>13904</v>
+        <v>29506</v>
       </c>
       <c r="C56" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve">kalau pernah shalat malam kalau pernah bersedekah jumah mubarokah jangan lupa baca surah alkahfi baca yasin </t>
+          <t>kami bertemu di iain susqo bertemu lagi setelah puluhan tahun berlalu bersama dalam amal sholih semoga bert</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['kalau', 'pernah', 'shalat', 'malam', 'kalau', 'pernah', 'bersedekah', 'jumah', 'mubarokah', 'jangan', 'lupa', 'baca', 'surah', 'alkahfi', 'baca', 'yasin']</t>
+          <t>['kami', 'bertemu', 'di', 'iain', 'susqo', 'bertemu', 'lagi', 'setelah', 'puluhan', 'tahun', 'berlalu', 'bersama', 'dalam', 'amal', 'sholih', 'semoga', 'bert']</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 16 outcomes&gt;</t>
+          <t>['kami', 'bertemu', 'di', 'institut, agama, islam, negeri', 'susqo', 'bertemu', 'lagi', 'setelah', 'puluhan', 'tahun', 'berlalu', 'bersama', 'dalam', 'amal', 'sholih', 'semoga', 'bert']</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['shalat', 'malam', 'bersedekah', 'jumah', 'mubarokah', 'lupa', 'baca', 'surah', 'alkahfi', 'baca', 'yasin']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['shalat', 'malam', 'sedekah', 'jumah', 'mubarokah', 'lupa', 'baca', 'surah', 'alkahfi', 'baca', 'yasin']</t>
+          <t>['bertemu', 'institut, agama, islam, negeri', 'susqo', 'bertemu', 'puluhan', 'amal', 'sholih', 'semoga', 'bert']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['temu', 'institut agama islam negeri', 'susqo', 'temu', 'puluh', 'amal', 'sholih', 'moga', 'bert']</t>
         </is>
       </c>
     </row>
@@ -2443,34 +2715,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>13905</v>
+        <v>29507</v>
       </c>
       <c r="C57" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>tidak berbaring tapi dibaringkan menghadap kiblat hidung menempel ke tanah tatapan mata tak sampai sejengkal su</t>
+          <t>wisuda tahfizh dan alim santri pesantren darululum kubang pekanbaru riau</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['tidak', 'berbaring', 'tapi', 'dibaringkan', 'menghadap', 'kiblat', 'hidung', 'menempel', 'ke', 'tanah', 'tatapan', 'mata', 'tak', 'sampai', 'sejengkal', 'su']</t>
+          <t>['wisuda', 'tahfizh', 'dan', 'alim', 'santri', 'pesantren', 'darululum', 'kubang', 'pekanbaru', 'riau']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['wisuda', 'tahfizh', 'dan', 'alim', 'santri', 'pesantren', 'darululum', 'kubang', 'pekanbaru', 'riau']</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['berbaring', 'dibaringkan', 'menghadap', 'kiblat', 'hidung', 'menempel', 'tanah', 'tatapan', 'mata', 'sejengkal', 'su']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['baring', 'baring', 'hadap', 'kiblat', 'hidung', 'tempel', 'tanah', 'tatap', 'mata', 'jengkal', 'su']</t>
+          <t>['wisuda', 'tahfizh', 'alim', 'santri', 'pesantren', 'darululum', 'kubang', 'pekanbaru', 'riau']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['wisuda', 'tahfizh', 'alim', 'santri', 'pesantren', 'darululum', 'kubang', 'pekanbaru', 'riau']</t>
         </is>
       </c>
     </row>
@@ -2479,34 +2756,35 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>13906</v>
+        <v>29508</v>
       </c>
       <c r="C58" t="n">
-        <v>179</v>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>seperti mata kail pancing ditarik dari daging yang basah mata memandang ruh keluar mata tak tertutup tapi ditut</t>
-        </is>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['seperti', 'mata', 'kail', 'pancing', 'ditarik', 'dari', 'daging', 'yang', 'basah', 'mata', 'memandang', 'ruh', 'keluar', 'mata', 'tak', 'tertutup', 'tapi', 'ditut']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['mata', 'kail', 'pancing', 'ditarik', 'daging', 'basah', 'mata', 'memandang', 'ruh', 'mata', 'tertutup', 'ditut']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['mata', 'kail', 'pancing', 'tarik', 'daging', 'basah', 'mata', 'pandang', 'ruh', 'mata', 'tutup', 'ditut']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2515,34 +2793,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>13907</v>
+        <v>29509</v>
       </c>
       <c r="C59" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>ruh yang suci bersemayam dalam jasad yang kotor darah daging lemak membusuk jasad jadi mulia karena ruh keti</t>
+          <t>bu es campur untuk semua anakanak ini pesan uas</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['ruh', 'yang', 'suci', 'bersemayam', 'dalam', 'jasad', 'yang', 'kotor', 'darah', 'daging', 'lemak', 'membusuk', 'jasad', 'jadi', 'mulia', 'karena', 'ruh', 'keti']</t>
+          <t>['bu', 'es', 'campur', 'untuk', 'semua', 'anakanak', 'ini', 'pesan', 'uas']</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 18 outcomes&gt;</t>
+          <t>['bu', 'es', 'campur', 'untuk', 'semua', 'anakanak', 'ini', 'pesan', 'ujian, akhir, semester']</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['ruh', 'suci', 'bersemayam', 'jasad', 'kotor', 'darah', 'daging', 'lemak', 'membusuk', 'jasad', 'mulia', 'ruh', 'keti']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['ruh', 'suci', 'semayam', 'jasad', 'kotor', 'darah', 'daging', 'lemak', 'busuk', 'jasad', 'mulia', 'ruh', 'keti']</t>
+          <t>['bu', 'es', 'campur', 'anakanak', 'pesan', 'ujian, akhir, semester']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['bu', 'es', 'campur', 'anakanak', 'pesan', 'uji akhir semester']</t>
         </is>
       </c>
     </row>
@@ -2551,34 +2834,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>13908</v>
+        <v>29510</v>
       </c>
       <c r="C60" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>infaqwakaf pembangunan ponpes darul ihsan bsi bank syariah mandiri no rekening an yayasan</t>
+          <t>ig official fb tabung wakaf umat channel youtube tabung wakaf umat official website</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['infaqwakaf', 'pembangunan', 'ponpes', 'darul', 'ihsan', 'bsi', 'bank', 'syariah', 'mandiri', 'no', 'rekening', 'an', 'yayasan']</t>
+          <t>['ig', 'official', 'fb', 'tabung', 'wakaf', 'umat', 'channel', 'youtube', 'tabung', 'wakaf', 'umat', 'official', 'website']</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['instagram', 'official', 'facebook', 'tabung', 'wakaf', 'umat', 'channel', 'youtube', 'tabung', 'wakaf', 'umat', 'official', 'website']</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['infaqwakaf', 'pembangunan', 'ponpes', 'darul', 'ihsan', 'bsi', 'bank', 'syariah', 'mandiri', 'no', 'rekening', 'an', 'yayasan']</t>
+          <t>&lt;FreqDist with 9 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['infaqwakaf', 'bangun', 'ponpes', 'darul', 'ihsan', 'bsi', 'bank', 'syariah', 'mandiri', 'no', 'rekening', 'an', 'yayasan']</t>
+          <t>['instagram', 'official', 'facebook', 'tabung', 'wakaf', 'umat', 'channel', 'youtube', 'tabung', 'wakaf', 'umat', 'official', 'website']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['instagram', 'official', 'facebook', 'tabung', 'wakaf', 'umat', 'channel', 'youtube', 'tabung', 'wakaf', 'umat', 'official', 'website']</t>
         </is>
       </c>
     </row>
@@ -2587,34 +2875,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>13909</v>
+        <v>29511</v>
       </c>
       <c r="C61" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>bersama jmc jambi madani centre infaq wakaf semen bank mega syariah no rekening an yayasan</t>
+          <t>quota terbatas peserta hanya orang bagi jamaah yang ingin ikut mendukung kegiatan kebaikan ini silahkan tra</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['bersama', 'jmc', 'jambi', 'madani', 'centre', 'infaq', 'wakaf', 'semen', 'bank', 'mega', 'syariah', 'no', 'rekening', 'an', 'yayasan']</t>
+          <t>['quota', 'terbatas', 'peserta', 'hanya', 'orang', 'bagi', 'jamaah', 'yang', 'ingin', 'ikut', 'mendukung', 'kegiatan', 'kebaikan', 'ini', 'silahkan', 'tra']</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['kuota', 'terbatas', 'peserta', 'hanya', 'orang', 'bagi', 'jamaah', 'yang', 'ingin', 'ikut', 'mendukung', 'kegiatan', 'kebaikan', 'ini', 'silakan', 'tra']</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['jmc', 'jambi', 'madani', 'centre', 'infaq', 'wakaf', 'semen', 'bank', 'mega', 'syariah', 'no', 'rekening', 'an', 'yayasan']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['jmc', 'jambi', 'madani', 'centre', 'infaq', 'wakaf', 'semen', 'bank', 'mega', 'syariah', 'no', 'rekening', 'an', 'yayasan']</t>
+          <t>['kuota', 'terbatas', 'peserta', 'orang', 'jamaah', 'mendukung', 'kegiatan', 'kebaikan', 'silakan', 'tra']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['kuota', 'batas', 'serta', 'orang', 'jamaah', 'dukung', 'giat', 'baik', 'sila', 'tra']</t>
         </is>
       </c>
     </row>
@@ -2623,34 +2916,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>13910</v>
+        <v>29512</v>
       </c>
       <c r="C62" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>narahubung konfirmasi ig official fb tabung wakaf umat channel youtube tab</t>
+          <t>khitan ceria peduli umat bulan maret insya allah diadakan pada haritgl sabtu maret waktu</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['narahubung', 'konfirmasi', 'ig', 'official', 'fb', 'tabung', 'wakaf', 'umat', 'channel', 'youtube', 'tab']</t>
+          <t>['khitan', 'ceria', 'peduli', 'umat', 'bulan', 'maret', 'insya', 'allah', 'diadakan', 'pada', 'haritgl', 'sabtu', 'maret', 'waktu']</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['khitan', 'ceria', 'peduli', 'umat', 'bulan', 'maret', 'insya', 'allah', 'diadakan', 'pada', 'haritgl', 'sabtu', 'maret', 'waktu']</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['narahubung', 'konfirmasi', 'ig', 'official', 'fb', 'tabung', 'wakaf', 'umat', 'channel', 'youtube', 'tab']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['narahubung', 'konfirmasi', 'ig', 'official', 'fb', 'tabung', 'wakaf', 'umat', 'channel', 'youtube', 'tab']</t>
+          <t>['khitan', 'ceria', 'peduli', 'umat', 'maret', 'insya', 'allah', 'diadakan', 'haritgl', 'sabtu', 'maret']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['khitan', 'ceria', 'peduli', 'umat', 'maret', 'insya', 'allah', 'ada', 'haritgl', 'sabtu', 'maret']</t>
         </is>
       </c>
     </row>
@@ -2659,34 +2957,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>13911</v>
+        <v>29513</v>
       </c>
       <c r="C63" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>sertakan kode di akhir nominal transfer contoh rp jamaah bisa berwakaf meski setara dengan nilai sete</t>
+          <t>khitan ceria peduli umat bulan maret ytwu bekerjasama dengan sunathrone klamp indonesia kembali mengadakan kh</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['sertakan', 'kode', 'di', 'akhir', 'nominal', 'transfer', 'contoh', 'rp', 'jamaah', 'bisa', 'berwakaf', 'meski', 'setara', 'dengan', 'nilai', 'sete']</t>
+          <t>['khitan', 'ceria', 'peduli', 'umat', 'bulan', 'maret', 'ytwu', 'bekerjasama', 'dengan', 'sunathrone', 'klamp', 'indonesia', 'kembali', 'mengadakan', 'kh']</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['khitan', 'ceria', 'peduli', 'umat', 'bulan', 'maret', 'ytwu', 'bekerja, sama', 'dengan', 'sunathrone', 'klamp', 'indonesia', 'kembali', 'mengadakan', 'kh']</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['sertakan', 'kode', 'nominal', 'transfer', 'contoh', 'rp', 'jamaah', 'berwakaf', 'setara', 'nilai', 'sete']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['serta', 'kode', 'nominal', 'transfer', 'contoh', 'rp', 'jamaah', 'wakaf', 'tara', 'nilai', 'sete']</t>
+          <t>['khitan', 'ceria', 'peduli', 'umat', 'maret', 'ytwu', 'bekerja, sama', 'sunathrone', 'klamp', 'indonesia', 'mengadakan', 'kh']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['khitan', 'ceria', 'peduli', 'umat', 'maret', 'ytwu', 'kerja sama', 'sunathrone', 'klamp', 'indonesia', 'ada', 'kh']</t>
         </is>
       </c>
     </row>
@@ -2695,34 +2998,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>13912</v>
+        <v>29514</v>
       </c>
       <c r="C64" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>bagi jamaah yang ingin ikut berwakaf untuk pembangunan pesantren attauhid suku talang mamak bisa salurkan ke reke</t>
+          <t xml:space="preserve">uas ajak anak yang melihatlihat kami untuk berkumpul sambil memperlihatkan video seorang anak yg sedang mengaji </t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['bagi', 'jamaah', 'yang', 'ingin', 'ikut', 'berwakaf', 'untuk', 'pembangunan', 'pesantren', 'attauhid', 'suku', 'talang', 'mamak', 'bisa', 'salurkan', 'ke', 'reke']</t>
+          <t>['uas', 'ajak', 'anak', 'yang', 'melihatlihat', 'kami', 'untuk', 'berkumpul', 'sambil', 'memperlihatkan', 'video', 'seorang', 'anak', 'yg', 'sedang', 'mengaji']</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['ujian, akhir, semester', 'ajak', 'anak', 'yang', 'melihatlihat', 'kami', 'untuk', 'berkumpul', 'sambil', 'memperlihatkan', 'video', 'seorang', 'anak', 'yang', 'sedang', 'mengaji']</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['jamaah', 'berwakaf', 'pembangunan', 'pesantren', 'attauhid', 'suku', 'talang', 'mamak', 'salurkan', 'reke']</t>
+          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['jamaah', 'wakaf', 'bangun', 'pesantren', 'attauhid', 'suku', 'talang', 'mamak', 'salur', 'reke']</t>
+          <t>['ujian, akhir, semester', 'ajak', 'anak', 'melihatlihat', 'berkumpul', 'video', 'anak', 'mengaji']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['uji akhir semester', 'ajak', 'anak', 'melihatlihat', 'kumpul', 'video', 'anak', 'aji']</t>
         </is>
       </c>
     </row>
@@ -2731,34 +3039,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>13913</v>
+        <v>29515</v>
       </c>
       <c r="C65" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>pesantren ini akan menjadi tempat untuk mencetak orang berilmu dari suku talang mamak dan diharapkan menjadi dai ya</t>
+          <t xml:space="preserve">diantara kebiasaan uas saat berkunjung ke suatu tempat duduk sejenak dan bercerita dengan anakanak atau berfoto </t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['pesantren', 'ini', 'akan', 'menjadi', 'tempat', 'untuk', 'mencetak', 'orang', 'berilmu', 'dari', 'suku', 'talang', 'mamak', 'dan', 'diharapkan', 'menjadi', 'dai', 'ya']</t>
+          <t>['diantara', 'kebiasaan', 'uas', 'saat', 'berkunjung', 'ke', 'suatu', 'tempat', 'duduk', 'sejenak', 'dan', 'bercerita', 'dengan', 'anakanak', 'atau', 'berfoto']</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['diantara', 'kebiasaan', 'ujian, akhir, semester', 'saat', 'berkunjung', 'ke', 'suatu', 'tempat', 'duduk', 'sejenak', 'dan', 'bercerita', 'dengan', 'anakanak', 'atau', 'berfoto']</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['pesantren', 'mencetak', 'orang', 'berilmu', 'suku', 'talang', 'mamak', 'diharapkan', 'dai']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['pesantren', 'cetak', 'orang', 'beril', 'suku', 'talang', 'mamak', 'harap', 'dai']</t>
+          <t>['kebiasaan', 'ujian, akhir, semester', 'berkunjung', 'duduk', 'bercerita', 'anakanak', 'berfoto']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['biasa', 'uji akhir semester', 'kunjung', 'duduk', 'cerita', 'anakanak', 'foto']</t>
         </is>
       </c>
     </row>
@@ -2767,34 +3080,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>13914</v>
+        <v>29516</v>
       </c>
       <c r="C66" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t xml:space="preserve">kamis februari alhamdulilah telah dimulai kembali kelanjutan pembangunan pesantren attauhid suku talang </t>
+          <t>bersama anakanak harapan bangsa di palas pekanbaru riau</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['kamis', 'februari', 'alhamdulilah', 'telah', 'dimulai', 'kembali', 'kelanjutan', 'pembangunan', 'pesantren', 'attauhid', 'suku', 'talang']</t>
+          <t>['bersama', 'anakanak', 'harapan', 'bangsa', 'di', 'palas', 'pekanbaru', 'riau']</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['bersama', 'anakanak', 'harapan', 'bangsa', 'di', 'palas', 'pekanbaru', 'riau']</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['kamis', 'februari', 'alhamdulilah', 'kelanjutan', 'pembangunan', 'pesantren', 'attauhid', 'suku', 'talang']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['kamis', 'februari', 'alhamdulilah', 'lanjut', 'bangun', 'pesantren', 'attauhid', 'suku', 'talang']</t>
+          <t>['anakanak', 'harapan', 'bangsa', 'palas', 'pekanbaru', 'riau']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['anakanak', 'harap', 'bangsa', 'palas', 'pekanbaru', 'riau']</t>
         </is>
       </c>
     </row>
@@ -2803,34 +3121,35 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>13915</v>
+        <v>29517</v>
       </c>
       <c r="C67" t="n">
-        <v>179</v>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>kyai habib ustadz syekh</t>
-        </is>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['kyai', 'habib', 'ustadz', 'syekh']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['kyai', 'habib', 'ustadz', 'syekh']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['kyai', 'habib', 'ustadz', 'syekh']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2839,34 +3158,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>13916</v>
+        <v>29518</v>
       </c>
       <c r="C68" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>menuju suku duano dan suku anak dalam jambi</t>
+          <t>info fb baitulmaal munzalan ig id youtube al</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['menuju', 'suku', 'duano', 'dan', 'suku', 'anak', 'dalam', 'jambi']</t>
+          <t>['info', 'fb', 'baitulmaal', 'munzalan', 'ig', 'id', 'youtube', 'al']</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 8 outcomes&gt;</t>
+          <t>['info', 'facebook', 'baitulmaal', 'munzalan', 'instagram', 'id', 'youtube', 'al']</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['suku', 'duano', 'suku', 'anak', 'jambi']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['suku', 'duano', 'suku', 'anak', 'jambi']</t>
+          <t>['info', 'facebook', 'baitulmaal', 'munzalan', 'instagram', 'id', 'youtube', 'al']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['info', 'facebook', 'baitulmaal', 'munzalan', 'instagram', 'id', 'youtube', 'al']</t>
         </is>
       </c>
     </row>
@@ -2875,34 +3199,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>13917</v>
+        <v>29519</v>
       </c>
       <c r="C69" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>narahubung konfirmasi ig official fb tabung wakaf umat channel youtube tab</t>
+          <t>insya allah apa yang ayah bunda abang kakak berikan pahala nya akan mengalir terus walau usia telah terputus si</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['narahubung', 'konfirmasi', 'ig', 'official', 'fb', 'tabung', 'wakaf', 'umat', 'channel', 'youtube', 'tab']</t>
+          <t>['insya', 'allah', 'apa', 'yang', 'ayah', 'bunda', 'abang', 'kakak', 'berikan', 'pahala', 'nya', 'akan', 'mengalir', 'terus', 'walau', 'usia', 'telah', 'terputus', 'si']</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['insya', 'allah', 'apa', 'yang', 'ayah', 'bunda', 'abang', 'kakak', 'berikan', 'pahala', 'nya', 'akan', 'mengalir', 'terus', 'walau', 'usia', 'telah', 'terputus', 'sih']</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['narahubung', 'konfirmasi', 'ig', 'official', 'fb', 'tabung', 'wakaf', 'umat', 'channel', 'youtube', 'tab']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['narahubung', 'konfirmasi', 'ig', 'official', 'fb', 'tabung', 'wakaf', 'umat', 'channel', 'youtube', 'tab']</t>
+          <t>['insya', 'allah', 'ayah', 'bunda', 'abang', 'kakak', 'pahala', 'mengalir', 'usia', 'terputus']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['insya', 'allah', 'ayah', 'bunda', 'abang', 'kakak', 'pahala', 'alir', 'usia', 'putus']</t>
         </is>
       </c>
     </row>
@@ -2911,34 +3240,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>13918</v>
+        <v>29520</v>
       </c>
       <c r="C70" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>untuk wakaf mushaf alquran silahkan transfer ke rekening bpd riau bank riau kepri syariah</t>
+          <t xml:space="preserve">atas izin allah gedung ini akan selesai dengan caracara allah tapi sebelum itu pastikan nama ayah bunda abang </t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['untuk', 'wakaf', 'mushaf', 'alquran', 'silahkan', 'transfer', 'ke', 'rekening', 'bpd', 'riau', 'bank', 'riau', 'kepri', 'syariah']</t>
+          <t>['atas', 'izin', 'allah', 'gedung', 'ini', 'akan', 'selesai', 'dengan', 'caracara', 'allah', 'tapi', 'sebelum', 'itu', 'pastikan', 'nama', 'ayah', 'bunda', 'abang']</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['atas', 'izin', 'allah', 'gedung', 'ini', 'akan', 'selesai', 'dengan', 'caracara', 'allah', 'tapi', 'sebelum', 'itu', 'pastikan', 'nama', 'ayah', 'bunda', 'abang']</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['wakaf', 'mushaf', 'alquran', 'silahkan', 'transfer', 'rekening', 'bpd', 'riau', 'bank', 'riau', 'kepri', 'syariah']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['wakaf', 'mushaf', 'alquran', 'silah', 'transfer', 'rekening', 'bpd', 'riau', 'bank', 'riau', 'kepri', 'syariah']</t>
+          <t>['izin', 'allah', 'gedung', 'selesai', 'caracara', 'allah', 'pastikan', 'nama', 'ayah', 'bunda', 'abang']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['izin', 'allah', 'gedung', 'selesai', 'caracara', 'allah', 'pasti', 'nama', 'ayah', 'bunda', 'abang']</t>
         </is>
       </c>
     </row>
@@ -2947,34 +3281,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>13919</v>
+        <v>29521</v>
       </c>
       <c r="C71" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>untuk wakaf pembangunan pesantren nurul azhar palas silahkan transfer ke rekening bpd riau bank ri</t>
+          <t>munzalan tower sendiri insyaallah akan menjadi pusat peradaban umat selain itu munzalan tower juga merupakan gedun</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['untuk', 'wakaf', 'pembangunan', 'pesantren', 'nurul', 'azhar', 'palas', 'silahkan', 'transfer', 'ke', 'rekening', 'bpd', 'riau', 'bank', 'ri']</t>
+          <t>['munzalan', 'tower', 'sendiri', 'insyaallah', 'akan', 'menjadi', 'pusat', 'peradaban', 'umat', 'selain', 'itu', 'munzalan', 'tower', 'juga', 'merupakan', 'gedun']</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['munzalan', 'tower', 'sendiri', 'insyaallah', 'akan', 'menjadi', 'pusat', 'peradaban', 'umat', 'selain', 'itu', 'munzalan', 'tower', 'juga', 'merupakan', 'gedun']</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['wakaf', 'pembangunan', 'pesantren', 'nurul', 'azhar', 'palas', 'silahkan', 'transfer', 'rekening', 'bpd', 'riau', 'bank', 'ri']</t>
+          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['wakaf', 'bangun', 'pesantren', 'nurul', 'azhar', 'palas', 'silah', 'transfer', 'rekening', 'bpd', 'riau', 'bank', 'ri']</t>
+          <t>['munzalan', 'tower', 'insyaallah', 'pusat', 'peradaban', 'umat', 'munzalan', 'tower', 'gedun']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['munzalan', 'tower', 'insyaallah', 'pusat', 'adab', 'umat', 'munzalan', 'tower', 'gedun']</t>
         </is>
       </c>
     </row>
@@ -2983,34 +3322,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>13920</v>
+        <v>29522</v>
       </c>
       <c r="C72" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>dukung terus ytwu untuk program sedekah beras bersama uas spbu silahkan transfer ke rekening ba</t>
+          <t>munzalan tower check audzubillaahiminasyaithanirrajiim bismillahirrahmanirrahim alhamdulillah atas izin allah</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['dukung', 'terus', 'ytwu', 'untuk', 'program', 'sedekah', 'beras', 'bersama', 'uas', 'spbu', 'silahkan', 'transfer', 'ke', 'rekening', 'ba']</t>
+          <t>['munzalan', 'tower', 'check', 'audzubillaahiminasyaithanirrajiim', 'bismillahirrahmanirrahim', 'alhamdulillah', 'atas', 'izin', 'allah']</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['munzalan', 'tower', 'check', 'audzubillaahiminasyaithanirrajiim', 'bismillahirrahmanirrahim', 'alhamdulillah', 'atas', 'izin', 'allah']</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['dukung', 'ytwu', 'program', 'sedekah', 'beras', 'uas', 'spbu', 'silahkan', 'transfer', 'rekening', 'ba']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['dukung', 'ytwu', 'program', 'sedekah', 'beras', 'uas', 'spbu', 'silah', 'transfer', 'rekening', 'ba']</t>
+          <t>['munzalan', 'tower', 'check', 'audzubillaahiminasyaithanirrajiim', 'bismillahirrahmanirrahim', 'alhamdulillah', 'izin', 'allah']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['munzalan', 'tower', 'check', 'audzubillaahiminasyaithanirrajiim', 'bismillahirrahmanirrahim', 'alhamdulillah', 'izin', 'allah']</t>
         </is>
       </c>
     </row>
@@ -3019,34 +3363,35 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>13921</v>
+        <v>29523</v>
       </c>
       <c r="C73" t="n">
-        <v>179</v>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>terima kasih jamaah terima kasih sahabatsahabat pegiat komunitas terima kasih para relawan semoga allah membal</t>
-        </is>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'jamaah', 'terima', 'kasih', 'sahabatsahabat', 'pegiat', 'komunitas', 'terima', 'kasih', 'para', 'relawan', 'semoga', 'allah', 'membal']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 15 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'jamaah', 'terima', 'kasih', 'sahabatsahabat', 'pegiat', 'komunitas', 'terima', 'kasih', 'relawan', 'semoga', 'allah', 'membal']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'jamaah', 'terima', 'kasih', 'sahabatsahabat', 'giat', 'komunitas', 'terima', 'kasih', 'rawan', 'moga', 'allah', 'membal']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3055,34 +3400,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>13922</v>
+        <v>29524</v>
       </c>
       <c r="C74" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>alhamdulillah programprogram seperti spbu wakaf mushaf alquran jam bersama uas guru mengaji di pinggiran</t>
+          <t>sajadah panjang bimbo</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'programprogram', 'seperti', 'spbu', 'wakaf', 'mushaf', 'alquran', 'jam', 'bersama', 'uas', 'guru', 'mengaji', 'di', 'pinggiran']</t>
+          <t>['sajadah', 'panjang', 'bimbo']</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['sajadah', 'panjang', 'bimbo']</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'programprogram', 'spbu', 'wakaf', 'mushaf', 'alquran', 'jam', 'uas', 'guru', 'mengaji', 'pinggiran']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'programprogram', 'spbu', 'wakaf', 'mushaf', 'alquran', 'jam', 'uas', 'guru', 'aji', 'pinggir']</t>
+          <t>['sajadah', 'bimbo']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['sajadah', 'bimbo']</t>
         </is>
       </c>
     </row>
@@ -3091,34 +3441,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>13923</v>
+        <v>29525</v>
       </c>
       <c r="C75" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>programprogram yayasan tabung wakaf umat sukses karena didukung jamaah tahun yayasan tabung wakaf umat mera</t>
+          <t>call centre whatsapp website ig org</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['programprogram', 'yayasan', 'tabung', 'wakaf', 'umat', 'sukses', 'karena', 'didukung', 'jamaah', 'tahun', 'yayasan', 'tabung', 'wakaf', 'umat', 'mera']</t>
+          <t>['call', 'centre', 'whatsapp', 'website', 'ig', 'org']</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 15 outcomes&gt;</t>
+          <t>['call', 'centre', 'whatsapp', 'website', 'instagram', 'orang']</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['programprogram', 'yayasan', 'tabung', 'wakaf', 'umat', 'sukses', 'didukung', 'jamaah', 'yayasan', 'tabung', 'wakaf', 'umat', 'mera']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['programprogram', 'yayasan', 'tabung', 'wakaf', 'umat', 'sukses', 'dukung', 'jamaah', 'yayasan', 'tabung', 'wakaf', 'umat', 'mera']</t>
+          <t>['call', 'centre', 'whatsapp', 'website', 'instagram', 'orang']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['call', 'centre', 'whatsapp', 'website', 'instagram', 'orang']</t>
         </is>
       </c>
     </row>
@@ -3127,34 +3482,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>13924</v>
+        <v>29526</v>
       </c>
       <c r="C76" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>dapat hadiah topi dari palestina hadiah syaikh ahmad alshafadi alsafide</t>
+          <t>silahkan berwakaf melalui rekening bni syariah mandiri an yayasan dompet dhuafa rep</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['dapat', 'hadiah', 'topi', 'dari', 'palestina', 'hadiah', 'syaikh', 'ahmad', 'alshafadi', 'alsafide']</t>
+          <t>['silahkan', 'berwakaf', 'melalui', 'rekening', 'bni', 'syariah', 'mandiri', 'an', 'yayasan', 'dompet', 'dhuafa', 'rep']</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
+          <t>['silakan', 'berwakaf', 'melalui', 'rekening', 'bank, negara, indonesia', 'syariat', 'mandiri', 'an', 'yayasan', 'dompet', 'dhuafa', 'rep']</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['hadiah', 'topi', 'palestina', 'hadiah', 'syaikh', 'ahmad', 'alshafadi', 'alsafide']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['hadiah', 'topi', 'palestina', 'hadiah', 'syaikh', 'ahmad', 'alshafadi', 'alsafide']</t>
+          <t>['silakan', 'berwakaf', 'rekening', 'bank, negara, indonesia', 'syariat', 'mandiri', 'an', 'yayasan', 'dompet', 'dhuafa', 'rep']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['sila', 'wakaf', 'rekening', 'bank negara indonesia', 'syariat', 'mandiri', 'an', 'yayasan', 'dompet', 'dhuafa', 'rep']</t>
         </is>
       </c>
     </row>
@@ -3163,34 +3523,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>13925</v>
+        <v>29527</v>
       </c>
       <c r="C77" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>omset rp cp ust jamal ust zulfan bank muamalat no rek an tatang yudiansyah or zulfan</t>
+          <t>wakaf pesantren darul hadis riau mari berwakaf untuk pembangunan pesantren mahasiswa takhasus hadis darul hadis ri</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['omset', 'rp', 'cp', 'ust', 'jamal', 'ust', 'zulfan', 'bank', 'muamalat', 'no', 'rek', 'an', 'tatang', 'yudiansyah', 'or', 'zulfan']</t>
+          <t>['wakaf', 'pesantren', 'darul', 'hadis', 'riau', 'mari', 'berwakaf', 'untuk', 'pembangunan', 'pesantren', 'mahasiswa', 'takhasus', 'hadis', 'darul', 'hadis', 'ri']</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
+          <t>['wakaf', 'pesantren', 'darul', 'hadis', 'riau', 'mari', 'berwakaf', 'untuk', 'pembangunan', 'pesantren', 'mahasiswa', 'takhasus', 'hadis', 'darul', 'hadis', 'ri']</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['omset', 'rp', 'cp', 'ust', 'jamal', 'ust', 'zulfan', 'bank', 'muamalat', 'no', 'rek', 'an', 'tatang', 'yudiansyah', 'or', 'zulfan']</t>
+          <t>&lt;FreqDist with 12 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['omset', 'rp', 'cp', 'ust', 'jamal', 'ust', 'zulfan', 'bank', 'muamalat', 'no', 'rek', 'an', 'tatang', 'yudiansyah', 'or', 'zulfan']</t>
+          <t>['wakaf', 'pesantren', 'darul', 'hadis', 'riau', 'mari', 'berwakaf', 'pembangunan', 'pesantren', 'mahasiswa', 'takhasus', 'hadis', 'darul', 'hadis', 'ri']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['wakaf', 'pesantren', 'darul', 'hadis', 'riau', 'mari', 'wakaf', 'bangun', 'pesantren', 'mahasiswa', 'takhasus', 'hadis', 'darul', 'hadis', 'ri']</t>
         </is>
       </c>
     </row>
@@ -3199,34 +3564,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>13926</v>
+        <v>29528</v>
       </c>
       <c r="C78" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>seorang guru yang memahami tatacara dan bacaan shalat yang benar sesuai sunnah akan mengajarkan kepada muridmuridn</t>
+          <t>judul buku karya uas dapatkan bukubuku karya ustadz abdul somad pemesana</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['seorang', 'guru', 'yang', 'memahami', 'tatacara', 'dan', 'bacaan', 'shalat', 'yang', 'benar', 'sesuai', 'sunnah', 'akan', 'mengajarkan', 'kepada', 'muridmuridn']</t>
+          <t>['judul', 'buku', 'karya', 'uas', 'dapatkan', 'bukubuku', 'karya', 'ustadz', 'abdul', 'somad', 'pemesana']</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['judul', 'buku', 'karya', 'ujian, akhir, semester', 'dapatkan', 'bukubuku', 'karya', 'ustaz', 'abdul', 'somad', 'pemesana']</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['guru', 'memahami', 'tatacara', 'bacaan', 'shalat', 'sesuai', 'sunnah', 'mengajarkan', 'muridmuridn']</t>
+          <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['guru', 'paham', 'tatacara', 'baca', 'shalat', 'sesuai', 'sunnah', 'ajar', 'muridmuridn']</t>
+          <t>['judul', 'buku', 'karya', 'ujian, akhir, semester', 'dapatkan', 'bukubuku', 'karya', 'ustaz', 'abdul', 'somad', 'pemesana']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['judul', 'buku', 'karya', 'uji akhir semester', 'dapat', 'bukubuku', 'karya', 'ustaz', 'abdul', 'somad', 'sana']</t>
         </is>
       </c>
     </row>
@@ -3235,34 +3605,35 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>13927</v>
+        <v>29529</v>
       </c>
       <c r="C79" t="n">
-        <v>179</v>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>fasilitas buku tanya jawab shalat ditandatangani uas sertifikat coffee breaksnack door prize</t>
-        </is>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['fasilitas', 'buku', 'tanya', 'jawab', 'shalat', 'ditandatangani', 'uas', 'sertifikat', 'coffee', 'breaksnack', 'door', 'prize']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['fasilitas', 'buku', 'shalat', 'ditandatangani', 'uas', 'sertifikat', 'coffee', 'breaksnack', 'door', 'prize']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['fasilitas', 'buku', 'shalat', 'ditandatangani', 'uas', 'sertifikat', 'coffee', 'breaksnack', 'door', 'prize']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3271,34 +3642,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>13928</v>
+        <v>29530</v>
       </c>
       <c r="C80" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>dilaksanakan pada haritggl ahad februari tempat ballroom prime park hotel jl jend sudirman pekanba</t>
+          <t>bagi yang ingin ikut serta dapat mengirim donasi ke bank syariah mandiri no rek an yayasan wakaf</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['dilaksanakan', 'pada', 'haritggl', 'ahad', 'februari', 'tempat', 'ballroom', 'prime', 'park', 'hotel', 'jl', 'jend', 'sudirman', 'pekanba']</t>
+          <t>['bagi', 'yang', 'ingin', 'ikut', 'serta', 'dapat', 'mengirim', 'donasi', 'ke', 'bank', 'syariah', 'mandiri', 'no', 'rek', 'an', 'yayasan', 'wakaf']</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['bagi', 'yang', 'ingin', 'ikut', 'serta', 'dapat', 'mengirim', 'donasi', 'ke', 'bank', 'syariat', 'mandiri', 'no', 'rek', 'an', 'yayasan', 'wakaf']</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['dilaksanakan', 'haritggl', 'ahad', 'februari', 'ballroom', 'prime', 'park', 'hotel', 'jl', 'jend', 'sudirman', 'pekanba']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['laksana', 'haritggl', 'ahad', 'februari', 'ballroom', 'prime', 'park', 'hotel', 'jl', 'jend', 'sudirman', 'pekanba']</t>
+          <t>['mengirim', 'donasi', 'bank', 'syariat', 'mandiri', 'no', 'rek', 'an', 'yayasan', 'wakaf']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['kirim', 'donasi', 'bank', 'syariat', 'mandiri', 'no', 'rek', 'an', 'yayasan', 'wakaf']</t>
         </is>
       </c>
     </row>
@@ -3307,34 +3683,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>13929</v>
+        <v>29531</v>
       </c>
       <c r="C81" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>dialog dan bedah buku tanya jawab seputar shalat dipersembahkan oleh ukhuwah angkatan sembilan enam uas</t>
+          <t>yayasan wakaf hajjah rohana berbagi pembagian paket sembako kepada dhuafa tanggal</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['dialog', 'dan', 'bedah', 'buku', 'tanya', 'jawab', 'seputar', 'shalat', 'dipersembahkan', 'oleh', 'ukhuwah', 'angkatan', 'sembilan', 'enam', 'uas']</t>
+          <t>['yayasan', 'wakaf', 'hajjah', 'rohana', 'berbagi', 'pembagian', 'paket', 'sembako', 'kepada', 'dhuafa', 'tanggal']</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['yayasan', 'wakaf', 'hajjah', 'rohana', 'berbagi', 'pembagian', 'paket', 'sembako', 'kepada', 'dhuafa', 'tanggal']</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['dialog', 'bedah', 'buku', 'seputar', 'shalat', 'dipersembahkan', 'ukhuwah', 'angkatan', 'sembilan', 'enam', 'uas']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['dialog', 'bedah', 'buku', 'putar', 'shalat', 'sembah', 'ukhuwah', 'angkat', 'sembilan', 'enam', 'uas']</t>
+          <t>['yayasan', 'wakaf', 'hajjah', 'rohana', 'berbagi', 'pembagian', 'paket', 'sembako', 'dhuafa', 'tanggal']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['yayasan', 'wakaf', 'hajjah', 'rohana', 'bagi', 'bagi', 'paket', 'sembako', 'dhuafa', 'tanggal']</t>
         </is>
       </c>
     </row>
@@ -3343,34 +3724,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>13930</v>
+        <v>29532</v>
       </c>
       <c r="C82" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t xml:space="preserve">bagi yang ingin berpartisipasi dalam program ini silahkan disalurkan melalui bank riau kepri syariah dengan nomor </t>
+          <t>narahubung konfirmasi ig official fb tabung wakaf umat channel youtube tab</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['bagi', 'yang', 'ingin', 'berpartisipasi', 'dalam', 'program', 'ini', 'silahkan', 'disalurkan', 'melalui', 'bank', 'riau', 'kepri', 'syariah', 'dengan', 'nomor']</t>
+          <t>['narahubung', 'konfirmasi', 'ig', 'official', 'fb', 'tabung', 'wakaf', 'umat', 'channel', 'youtube', 'tab']</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['narahubung', 'konfirmasi', 'instagram', 'official', 'facebook', 'tabung', 'wakaf', 'umat', 'channel', 'youtube', 'tab']</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['berpartisipasi', 'program', 'silahkan', 'disalurkan', 'bank', 'riau', 'kepri', 'syariah', 'nomor']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['partisipasi', 'program', 'silah', 'salur', 'bank', 'riau', 'kepri', 'syariah', 'nomor']</t>
+          <t>['narahubung', 'konfirmasi', 'instagram', 'official', 'facebook', 'tabung', 'wakaf', 'umat', 'channel', 'youtube', 'tab']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['narahubung', 'konfirmasi', 'instagram', 'official', 'facebook', 'tabung', 'wakaf', 'umat', 'channel', 'youtube', 'tab']</t>
         </is>
       </c>
     </row>
@@ -3379,34 +3765,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>13931</v>
+        <v>29533</v>
       </c>
       <c r="C83" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>alhamdulillah hari ini program psbb langsung dibuka oleh tuan guru ustadz abdul shomad dan beliau memberikan suntik</t>
+          <t>total dana yang dibutuhkan untuk bangunan tahap pertama rp satu milyar lima ratus dua belas juta rupiah untuk unit rumah</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'hari', 'ini', 'program', 'psbb', 'langsung', 'dibuka', 'oleh', 'tuan', 'guru', 'ustadz', 'abdul', 'shomad', 'dan', 'beliau', 'memberikan', 'suntik']</t>
+          <t>['total', 'dana', 'yang', 'dibutuhkan', 'untuk', 'bangunan', 'tahap', 'pertama', 'rp', 'satu', 'milyar', 'lima', 'ratus', 'dua', 'belas', 'juta', 'rupiah', 'untuk', 'unit', 'rumah']</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['total', 'dana', 'yang', 'dibutuhkan', 'untuk', 'bangunan', 'tahap', 'pertama', 'rupiah', 'satu', 'milyar', 'lima', 'ratus', 'dua', 'belas', 'juta', 'rupiah', 'untuk', 'unit', 'rumah']</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'program', 'psbb', 'langsung', 'dibuka', 'tuan', 'guru', 'ustadz', 'abdul', 'shomad', 'beliau', 'suntik']</t>
+          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'program', 'psbb', 'langsung', 'buka', 'tuan', 'guru', 'ustadz', 'abdul', 'shomad', 'beliau', 'suntik']</t>
+          <t>['total', 'dana', 'dibutuhkan', 'bangunan', 'tahap', 'rupiah', 'milyar', 'ratus', 'belas', 'juta', 'rupiah', 'unit', 'rumah']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['total', 'dana', 'butuh', 'bangun', 'tahap', 'rupiah', 'milyar', 'ratus', 'belas', 'juta', 'rupiah', 'unit', 'rumah']</t>
         </is>
       </c>
     </row>
@@ -3415,34 +3806,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>13932</v>
+        <v>29534</v>
       </c>
       <c r="C84" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>bahkan ternyata kepedulian kepada sesama itulah yang juga membawa mereka kepada kesuksesan masa depan melalui rel</t>
+          <t>ukuran per unit  harga permeter rp tiga juta lima ratus ribu rupiah harga perunit rp</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['bahkan', 'ternyata', 'kepedulian', 'kepada', 'sesama', 'itulah', 'yang', 'juga', 'membawa', 'mereka', 'kepada', 'kesuksesan', 'masa', 'depan', 'melalui', 'rel']</t>
+          <t>['ukuran', 'per', 'unit', 'harga', 'permeter', 'rp', 'tiga', 'juta', 'lima', 'ratus', 'ribu', 'rupiah', 'harga', 'perunit', 'rp']</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['ukuran', 'per', 'unit', 'harga', 'permeter', 'rupiah', 'tiga', 'juta', 'lima', 'ratus', 'ribu', 'rupiah', 'harga', 'perunit', 'rupiah']</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['kepedulian', 'membawa', 'kesuksesan', 'rel']</t>
+          <t>&lt;FreqDist with 12 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['peduli', 'bawa', 'sukses', 'rel']</t>
+          <t>['ukuran', 'unit', 'harga', 'permeter', 'rupiah', 'juta', 'ratus', 'ribu', 'rupiah', 'harga', 'perunit', 'rupiah']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['ukur', 'unit', 'harga', 'meter', 'rupiah', 'juta', 'ratus', 'ribu', 'rupiah', 'harga', 'unit', 'rupiah']</t>
         </is>
       </c>
     </row>
@@ -3451,34 +3847,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>13933</v>
+        <v>29535</v>
       </c>
       <c r="C85" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>sebuah program baru dalam rangka menumbuhkan kepedulian yang tinggi terhadap masyarakat yang membutuhkan kami ing</t>
+          <t>dan membuat program wakaf kitab serta program infaq perlengkapan santri saat ini proses pembangunan sedang berlan</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['sebuah', 'program', 'baru', 'dalam', 'rangka', 'menumbuhkan', 'kepedulian', 'yang', 'tinggi', 'terhadap', 'masyarakat', 'yang', 'membutuhkan', 'kami', 'ing']</t>
+          <t>['dan', 'membuat', 'program', 'wakaf', 'kitab', 'serta', 'program', 'infaq', 'perlengkapan', 'santri', 'saat', 'ini', 'proses', 'pembangunan', 'sedang', 'berlan']</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['dan', 'membuat', 'program', 'wakaf', 'kitab', 'serta', 'program', 'infaq', 'perlengkapan', 'santri', 'saat', 'ini', 'proses', 'pembangunan', 'sedang', 'berlan']</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['program', 'rangka', 'menumbuhkan', 'kepedulian', 'masyarakat', 'membutuhkan', 'ing']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['program', 'rangka', 'tumbuh', 'peduli', 'masyarakat', 'butuh', 'ing']</t>
+          <t>['program', 'wakaf', 'kitab', 'program', 'infaq', 'perlengkapan', 'santri', 'proses', 'pembangunan', 'berlan']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['program', 'wakaf', 'kitab', 'program', 'infaq', 'lengkap', 'santri', 'proses', 'bangun', 'berlan']</t>
         </is>
       </c>
     </row>
@@ -3487,34 +3888,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>13934</v>
+        <v>29536</v>
       </c>
       <c r="C86" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>psbb program syifa budi berbagi selalu saja ada jalan jika ada kemauan dan selalu ada alasan jika tidak ada kema</t>
+          <t>santri tidak dibebankan biaya pendidikan selama belajar yayasan tabung wakaf umat akan mengupayakan pengelolaan za</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['psbb', 'program', 'syifa', 'budi', 'berbagi', 'selalu', 'saja', 'ada', 'jalan', 'jika', 'ada', 'kemauan', 'dan', 'selalu', 'ada', 'alasan', 'jika', 'tidak', 'ada', 'kema']</t>
+          <t>['santri', 'tidak', 'dibebankan', 'biaya', 'pendidikan', 'selama', 'belajar', 'yayasan', 'tabung', 'wakaf', 'umat', 'akan', 'mengupayakan', 'pengelolaan', 'za']</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 20 outcomes&gt;</t>
+          <t>['santri', 'tidak', 'dibebankan', 'biaya', 'pendidikan', 'selama', 'belajar', 'yayasan', 'tabung', 'wakaf', 'umat', 'akan', 'mengupayakan', 'pengelolaan', 'saja']</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>['psbb', 'program', 'syifa', 'budi', 'berbagi', 'jalan', 'kemauan', 'alasan', 'kema']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['psbb', 'program', 'syifa', 'budi', 'bagi', 'jalan', 'mau', 'alas', 'kema']</t>
+          <t>['santri', 'dibebankan', 'biaya', 'pendidikan', 'belajar', 'yayasan', 'tabung', 'wakaf', 'umat', 'mengupayakan', 'pengelolaan']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['santri', 'beban', 'biaya', 'didik', 'ajar', 'yayasan', 'tabung', 'wakaf', 'umat', 'upaya', 'kelola']</t>
         </is>
       </c>
     </row>
@@ -3523,34 +3929,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>13935</v>
+        <v>29537</v>
       </c>
       <c r="C87" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>ustadz mengapa beban hidup saya sangat berat ustadz karena menurut allah engkau lebih kuat</t>
+          <t xml:space="preserve">pesantren nurul azhar dengan format pendidikan tahun fokus mencetak santri hafal alquran mahir membaca kitab </t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['ustadz', 'mengapa', 'beban', 'hidup', 'saya', 'sangat', 'berat', 'ustadz', 'karena', 'menurut', 'allah', 'engkau', 'lebih', 'kuat']</t>
+          <t>['pesantren', 'nurul', 'azhar', 'dengan', 'format', 'pendidikan', 'tahun', 'fokus', 'mencetak', 'santri', 'hafal', 'alquran', 'mahir', 'membaca', 'kitab']</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['pesantren', 'nurul', 'azhar', 'dengan', 'format', 'pendidikan', 'tahun', 'fokus', 'mencetak', 'santri', 'hafal', 'alquran', 'mahir', 'membaca', 'kitab']</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['ustadz', 'beban', 'hidup', 'berat', 'ustadz', 'allah', 'engkau', 'kuat']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['ustadz', 'beban', 'hidup', 'berat', 'ustadz', 'allah', 'engkau', 'kuat']</t>
+          <t>['pesantren', 'nurul', 'azhar', 'format', 'pendidikan', 'fokus', 'mencetak', 'santri', 'hafal', 'alquran', 'mahir', 'membaca', 'kitab']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['pesantren', 'nurul', 'azhar', 'format', 'didik', 'fokus', 'cetak', 'santri', 'hafal', 'alquran', 'mahir', 'baca', 'kitab']</t>
         </is>
       </c>
     </row>
@@ -3559,30 +3970,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>13936</v>
+        <v>29538</v>
       </c>
       <c r="C88" t="n">
-        <v>179</v>
-      </c>
-      <c r="D88" t="inlineStr"/>
+        <v>345</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>pesantren nurul azhar palas adalah wadah pendidikan yang berada di jalan tengku mahmud kelurahan rantau panjang pal</t>
+        </is>
+      </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['pesantren', 'nurul', 'azhar', 'palas', 'adalah', 'wadah', 'pendidikan', 'yang', 'berada', 'di', 'jalan', 'tengku', 'mahmud', 'kelurahan', 'rantau', 'panjang', 'pal']</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['pesantren', 'nurul', 'azhar', 'palas', 'adalah', 'wadah', 'pendidikan', 'yang', 'berada', 'di', 'jalan', 'tengku', 'mahmud', 'kelurahan', 'rantau', 'panjang', 'pal']</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['pesantren', 'nurul', 'azhar', 'palas', 'wadah', 'pendidikan', 'jalan', 'tengku', 'mahmud', 'kelurahan', 'rantau', 'pal']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['pesantren', 'nurul', 'azhar', 'palas', 'wadah', 'didik', 'jalan', 'tengku', 'mahmud', 'lurah', 'rantau', 'pal']</t>
         </is>
       </c>
     </row>
@@ -3591,34 +4011,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>13937</v>
+        <v>29539</v>
       </c>
       <c r="C89" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>dapat poto pagi ini</t>
+          <t>bpd riau bank riau kepri syariah bsm bank syariah indonesia bank mua</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['dapat', 'poto', 'pagi', 'ini']</t>
+          <t>['bpd', 'riau', 'bank', 'riau', 'kepri', 'syariah', 'bsm', 'bank', 'syariah', 'indonesia', 'bank', 'mua']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['badan, permusyawaratan, desa', 'riau', 'bank', 'riau', 'kepulauan, riau', 'syariat', 'bsm', 'bank', 'syariat', 'indonesia', 'bank', 'mua']</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>['poto', 'pagi']</t>
+          <t>&lt;FreqDist with 8 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['poto', 'pagi']</t>
+          <t>['badan, permusyawaratan, desa', 'riau', 'bank', 'riau', 'kepulauan, riau', 'syariat', 'bsm', 'bank', 'syariat', 'indonesia', 'bank', 'mua']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['badan musyawarat desa', 'riau', 'bank', 'riau', 'pulau riau', 'syariat', 'bsm', 'bank', 'syariat', 'indonesia', 'bank', 'mua']</t>
         </is>
       </c>
     </row>
@@ -3627,34 +4052,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>13938</v>
+        <v>29540</v>
       </c>
       <c r="C90" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>website alamat kantor jl hang tuah no pekanbaru bisa search di googlemaps yayasan tabung wakaf umat</t>
+          <t>wakaf pembangunan pesantren nurul azhar palas mari berwakaf bersama uas untuk pembangunan pesantren nurul azhar pa</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['website', 'alamat', 'kantor', 'jl', 'hang', 'tuah', 'no', 'pekanbaru', 'bisa', 'search', 'di', 'googlemaps', 'yayasan', 'tabung', 'wakaf', 'umat']</t>
+          <t>['wakaf', 'pembangunan', 'pesantren', 'nurul', 'azhar', 'palas', 'mari', 'berwakaf', 'bersama', 'uas', 'untuk', 'pembangunan', 'pesantren', 'nurul', 'azhar', 'pa']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['wakaf', 'pembangunan', 'pesantren', 'nurul', 'azhar', 'palas', 'mari', 'berwakaf', 'bersama', 'ujian, akhir, semester', 'untuk', 'pembangunan', 'pesantren', 'nurul', 'azhar', 'pak']</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>['website', 'alamat', 'kantor', 'jl', 'hang', 'tuah', 'no', 'pekanbaru', 'search', 'googlemaps', 'yayasan', 'tabung', 'wakaf', 'umat']</t>
+          <t>&lt;FreqDist with 12 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['website', 'alamat', 'kantor', 'jl', 'hang', 'tuah', 'no', 'pekanbaru', 'search', 'googlemaps', 'yayasan', 'tabung', 'wakaf', 'umat']</t>
+          <t>['wakaf', 'pembangunan', 'pesantren', 'nurul', 'azhar', 'palas', 'mari', 'berwakaf', 'ujian, akhir, semester', 'pembangunan', 'pesantren', 'nurul', 'azhar']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['wakaf', 'bangun', 'pesantren', 'nurul', 'azhar', 'palas', 'mari', 'wakaf', 'uji akhir semester', 'bangun', 'pesantren', 'nurul', 'azhar']</t>
         </is>
       </c>
     </row>
@@ -3663,34 +4093,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>13939</v>
+        <v>29541</v>
       </c>
       <c r="C91" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>atas nama yayasan tabung wakaf umat mohon cantumkan kode di akhir nominal transfer contoh rp narah</t>
+          <t>konsultasi pengurusan tanah waqaf ke kanwil badan pertanahan nasional provinsi riau kabar gembira tanah waqaf seg</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['atas', 'nama', 'yayasan', 'tabung', 'wakaf', 'umat', 'mohon', 'cantumkan', 'kode', 'di', 'akhir', 'nominal', 'transfer', 'contoh', 'rp', 'narah']</t>
+          <t>['konsultasi', 'pengurusan', 'tanah', 'waqaf', 'ke', 'kanwil', 'badan', 'pertanahan', 'nasional', 'provinsi', 'riau', 'kabar', 'gembira', 'tanah', 'waqaf', 'seg']</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['konsultasi', 'pengurusan', 'tanah', 'waqaf', 'ke', 'kanwil', 'badan', 'pertanahan', 'nasional', 'provinsi', 'riau', 'kabar', 'gembira', 'tanah', 'waqaf', 'seg']</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>['nama', 'yayasan', 'tabung', 'wakaf', 'umat', 'mohon', 'cantumkan', 'kode', 'nominal', 'transfer', 'contoh', 'rp', 'narah']</t>
+          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['nama', 'yayasan', 'tabung', 'wakaf', 'umat', 'mohon', 'cantum', 'kode', 'nominal', 'transfer', 'contoh', 'rp', 'narah']</t>
+          <t>['konsultasi', 'pengurusan', 'tanah', 'waqaf', 'kanwil', 'badan', 'pertanahan', 'nasional', 'provinsi', 'riau', 'kabar', 'gembira', 'tanah', 'waqaf', 'seg']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['konsultasi', 'urus', 'tanah', 'waqaf', 'kanwil', 'badan', 'tanah', 'nasional', 'provinsi', 'riau', 'kabar', 'gembira', 'tanah', 'waqaf', 'seg']</t>
         </is>
       </c>
     </row>
@@ -3699,34 +4134,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>13940</v>
+        <v>29542</v>
       </c>
       <c r="C92" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>bagi jamaah yang ingin berwakaf untuk pesantren nurul azhar palas silahkan transfer ke rekening bp</t>
+          <t>narahubung konfirmasi ig official fb tabung wakaf umat channel youtube tab</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['bagi', 'jamaah', 'yang', 'ingin', 'berwakaf', 'untuk', 'pesantren', 'nurul', 'azhar', 'palas', 'silahkan', 'transfer', 'ke', 'rekening', 'bp']</t>
+          <t>['narahubung', 'konfirmasi', 'ig', 'official', 'fb', 'tabung', 'wakaf', 'umat', 'channel', 'youtube', 'tab']</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['narahubung', 'konfirmasi', 'instagram', 'official', 'facebook', 'tabung', 'wakaf', 'umat', 'channel', 'youtube', 'tab']</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>['jamaah', 'berwakaf', 'pesantren', 'nurul', 'azhar', 'palas', 'silahkan', 'transfer', 'rekening', 'bp']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['jamaah', 'wakaf', 'pesantren', 'nurul', 'azhar', 'palas', 'silah', 'transfer', 'rekening', 'bp']</t>
+          <t>['narahubung', 'konfirmasi', 'instagram', 'official', 'facebook', 'tabung', 'wakaf', 'umat', 'channel', 'youtube', 'tab']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['narahubung', 'konfirmasi', 'instagram', 'official', 'facebook', 'tabung', 'wakaf', 'umat', 'channel', 'youtube', 'tab']</t>
         </is>
       </c>
     </row>
@@ -3735,34 +4175,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>13941</v>
+        <v>29543</v>
       </c>
       <c r="C93" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>agenda jam bersama uas diakhiri dengan kajian eksklusif bersama uas yang dikhususkan untuk para peserta wisata</t>
+          <t>bulan februari lalu kami berbagi kg kepada masyarakat dhuafa santri dan anak yatim bagi jamaah yang ing</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['agenda', 'jam', 'bersama', 'uas', 'diakhiri', 'dengan', 'kajian', 'eksklusif', 'bersama', 'uas', 'yang', 'dikhususkan', 'untuk', 'para', 'peserta', 'wisata']</t>
+          <t>['bulan', 'februari', 'lalu', 'kami', 'berbagi', 'kg', 'kepada', 'masyarakat', 'dhuafa', 'santri', 'dan', 'anak', 'yatim', 'bagi', 'jamaah', 'yang', 'ing']</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
+          <t>['bulan', 'februari', 'lalu', 'kami', 'berbagi', 'kg', 'kepada', 'masyarakat', 'dhuafa', 'santri', 'dan', 'anak', 'yatim', 'bagi', 'jamaah', 'yang', 'ing']</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>['agenda', 'jam', 'uas', 'kajian', 'eksklusif', 'uas', 'dikhususkan', 'peserta', 'wisata']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['agenda', 'jam', 'uas', 'kaji', 'eksklusif', 'uas', 'khusus', 'serta', 'wisata']</t>
+          <t>['februari', 'berbagi', 'kg', 'masyarakat', 'dhuafa', 'santri', 'anak', 'yatim', 'jamaah', 'ing']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['februari', 'bagi', 'kg', 'masyarakat', 'dhuafa', 'santri', 'anak', 'yatim', 'jamaah', 'ing']</t>
         </is>
       </c>
     </row>
@@ -3771,34 +4216,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>13942</v>
+        <v>29544</v>
       </c>
       <c r="C94" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>dan talkshow edukasi cara penyembelihan hewan yang benar menurut syariat islam bersama ketua umum juleha indonesi</t>
+          <t>spbu edisi bulan maret rasa lapar tak bisa ditunda solusinya mesti segera disediakan beras itulah sebabnya</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['dan', 'talkshow', 'edukasi', 'cara', 'penyembelihan', 'hewan', 'yang', 'benar', 'menurut', 'syariat', 'islam', 'bersama', 'ketua', 'umum', 'juleha', 'indonesi']</t>
+          <t>['spbu', 'edisi', 'bulan', 'maret', 'rasa', 'lapar', 'tak', 'bisa', 'ditunda', 'solusinya', 'mesti', 'segera', 'disediakan', 'beras', 'itulah', 'sebabnya']</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
+          <t>['spbu', 'edisi', 'bulan', 'maret', 'rasa', 'lapar', 'tak', 'bisa', 'ditunda', 'solusinya', 'mesti', 'segera', 'disediakan', 'beras', 'itulah', 'sebabnya']</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>['talkshow', 'edukasi', 'penyembelihan', 'hewan', 'syariat', 'islam', 'ketua', 'juleha', 'indonesi']</t>
-        </is>
-      </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['talkshow', 'edukasi', 'sembelih', 'hewan', 'syariat', 'islam', 'ketua', 'juleha', 'indonesi']</t>
+          <t>['spbu', 'edisi', 'maret', 'lapar', 'ditunda', 'solusinya', 'mesti', 'disediakan', 'beras']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['spbu', 'edisi', 'maret', 'lapar', 'tunda', 'solusi', 'mesti', 'sedia', 'beras']</t>
         </is>
       </c>
     </row>
@@ -3807,34 +4257,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>13943</v>
+        <v>29545</v>
       </c>
       <c r="C95" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>uas kemudian menyaksikan pelaksanaan khitan ceria peduli umat dan mengadakan talkshow edukasi pentingnya khitan pa</t>
+          <t>uas di kanwil bpn riau awas kejahatan pertahanan</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['uas', 'kemudian', 'menyaksikan', 'pelaksanaan', 'khitan', 'ceria', 'peduli', 'umat', 'dan', 'mengadakan', 'talkshow', 'edukasi', 'pentingnya', 'khitan', 'pa']</t>
+          <t>['uas', 'di', 'kanwil', 'bpn', 'riau', 'awas', 'kejahatan', 'pertahanan']</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['ujian, akhir, semester', 'di', 'kanwil', 'bpn', 'riau', 'awas', 'kejahatan', 'pertahanan']</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>['uas', 'menyaksikan', 'pelaksanaan', 'khitan', 'ceria', 'peduli', 'umat', 'mengadakan', 'talkshow', 'edukasi', 'khitan', 'pa']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['uas', 'saksi', 'laksana', 'khitan', 'ceria', 'peduli', 'umat', 'ada', 'talkshow', 'edukasi', 'khitan', 'pa']</t>
+          <t>['ujian, akhir, semester', 'kanwil', 'bpn', 'riau', 'awas', 'kejahatan', 'pertahanan']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['uji akhir semester', 'kanwil', 'bpn', 'riau', 'awas', 'jahat', 'tahan']</t>
         </is>
       </c>
     </row>
@@ -3843,34 +4298,35 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>13944</v>
+        <v>29546</v>
       </c>
       <c r="C96" t="n">
-        <v>179</v>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>stlh itikaf dilanjutkan dengan shalat malam rakaat pembacaan ratib alhaddad dan muhasabah bada shalat su</t>
-        </is>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['stlh', 'itikaf', 'dilanjutkan', 'dengan', 'shalat', 'malam', 'rakaat', 'pembacaan', 'ratib', 'alhaddad', 'dan', 'muhasabah', 'bada', 'shalat', 'su']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>['stlh', 'itikaf', 'dilanjutkan', 'shalat', 'malam', 'rakaat', 'pembacaan', 'ratib', 'alhaddad', 'muhasabah', 'bada', 'shalat', 'su']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['stlh', 'itikaf', 'lanjut', 'shalat', 'malam', 'rakaat', 'baca', 'ratib', 'alhaddad', 'muhasabah', 'bada', 'shalat', 'su']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3879,34 +4335,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>13945</v>
+        <v>29547</v>
       </c>
       <c r="C97" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>dini hari sabtu uas memulai giat dengan itikaf nurul azhar bersama asatidz sunan almusthafa di masjid aththayyi</t>
+          <t>santri di pulau karimata lagi nyantai</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['dini', 'hari', 'sabtu', 'uas', 'memulai', 'giat', 'dengan', 'itikaf', 'nurul', 'azhar', 'bersama', 'asatidz', 'sunan', 'almusthafa', 'di', 'masjid', 'aththayyi']</t>
+          <t>['santri', 'di', 'pulau', 'karimata', 'lagi', 'nyantai']</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['santri', 'di', 'pulau', 'karimata', 'lagi', 'bersantai']</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>['sabtu', 'uas', 'giat', 'itikaf', 'nurul', 'azhar', 'asatidz', 'sunan', 'almusthafa', 'masjid', 'aththayyi']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['sabtu', 'uas', 'giat', 'itikaf', 'nurul', 'azhar', 'asatidz', 'sunan', 'almusthafa', 'masjid', 'aththayyi']</t>
+          <t>['santri', 'pulau', 'karimata', 'bersantai']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['santri', 'pulau', 'karimata', 'santa']</t>
         </is>
       </c>
     </row>
@@ -3915,34 +4376,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>13946</v>
+        <v>29548</v>
       </c>
       <c r="C98" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>agenda dimulai dengan khutbah jumat di masjid dawah rumbai yang dilanjutkan dengan berbagi beras spbu untuk dhuaf</t>
+          <t>dukung terus channel youtube tabung wakaf umat official subscribe like and share berkah selalu jamaah</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['agenda', 'dimulai', 'dengan', 'khutbah', 'jumat', 'di', 'masjid', 'dawah', 'rumbai', 'yang', 'dilanjutkan', 'dengan', 'berbagi', 'beras', 'spbu', 'untuk', 'dhuaf']</t>
+          <t>['dukung', 'terus', 'channel', 'youtube', 'tabung', 'wakaf', 'umat', 'official', 'subscribe', 'like', 'and', 'share', 'berkah', 'selalu', 'jamaah']</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['dukung', 'terus', 'channel', 'youtube', 'tabung', 'wakaf', 'umat', 'official', 'subscribe', 'like', 'and', 'bagikan', 'berkah', 'selalu', 'jamaah']</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>['agenda', 'khutbah', 'jumat', 'masjid', 'dawah', 'rumbai', 'dilanjutkan', 'berbagi', 'beras', 'spbu', 'dhuaf']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['agenda', 'khutbah', 'jumat', 'masjid', 'dawah', 'rumbai', 'lanjut', 'bagi', 'beras', 'spbu', 'dhuaf']</t>
+          <t>['dukung', 'channel', 'youtube', 'tabung', 'wakaf', 'umat', 'official', 'subscribe', 'like', 'and', 'bagikan', 'berkah', 'jamaah']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['dukung', 'channel', 'youtube', 'tabung', 'wakaf', 'umat', 'official', 'subscribe', 'like', 'and', 'bagi', 'berkah', 'jamaah']</t>
         </is>
       </c>
     </row>
@@ -3951,34 +4417,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>13947</v>
+        <v>29549</v>
       </c>
       <c r="C99" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>alhamdulillah rangkaian program jam bersama uas yayasan tabung wakaf umat pekan kedua bulan februari berlan</t>
+          <t>terima kasih kpd para jamaah yang telah menjadi subscriber viewer lovers sharer dan semua pihak yg terlibat</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'rangkaian', 'program', 'jam', 'bersama', 'uas', 'yayasan', 'tabung', 'wakaf', 'umat', 'pekan', 'kedua', 'bulan', 'februari', 'berlan']</t>
+          <t>['terima', 'kasih', 'kpd', 'para', 'jamaah', 'yang', 'telah', 'menjadi', 'subscriber', 'viewer', 'lovers', 'sharer', 'dan', 'semua', 'pihak', 'yg', 'terlibat']</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['terima', 'kasih', 'kepada', 'para', 'jamaah', 'yang', 'telah', 'menjadi', 'subscriber', 'viewer', 'pecinta', 'sharer', 'dan', 'semua', 'pihak', 'yang', 'terlibat']</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'rangkaian', 'program', 'jam', 'uas', 'yayasan', 'tabung', 'wakaf', 'umat', 'pekan', 'februari', 'berlan']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'rangkai', 'program', 'jam', 'uas', 'yayasan', 'tabung', 'wakaf', 'umat', 'pekan', 'februari', 'berlan']</t>
+          <t>['terima', 'kasih', 'jamaah', 'subscriber', 'viewer', 'pecinta', 'sharer', 'terlibat']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['terima', 'kasih', 'jamaah', 'subscriber', 'viewer', 'cinta', 'sharer', 'libat']</t>
         </is>
       </c>
     </row>
@@ -3987,34 +4458,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>13948</v>
+        <v>29550</v>
       </c>
       <c r="C100" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>narahubung konfirmasi ig official fb tabung wakaf umat channel youtube tab</t>
+          <t>hasil monetisasi ini insya allah akan digunakan untuk membeli beras untuk santri anak yatim dan masyarakat dhuafa</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['narahubung', 'konfirmasi', 'ig', 'official', 'fb', 'tabung', 'wakaf', 'umat', 'channel', 'youtube', 'tab']</t>
+          <t>['hasil', 'monetisasi', 'ini', 'insya', 'allah', 'akan', 'digunakan', 'untuk', 'membeli', 'beras', 'untuk', 'santri', 'anak', 'yatim', 'dan', 'masyarakat', 'dhuafa']</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['hasil', 'monetisasi', 'ini', 'insya', 'allah', 'akan', 'digunakan', 'untuk', 'membeli', 'beras', 'untuk', 'santri', 'anak', 'yatim', 'dan', 'masyarakat', 'dhuafa']</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>['narahubung', 'konfirmasi', 'ig', 'official', 'fb', 'tabung', 'wakaf', 'umat', 'channel', 'youtube', 'tab']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['narahubung', 'konfirmasi', 'ig', 'official', 'fb', 'tabung', 'wakaf', 'umat', 'channel', 'youtube', 'tab']</t>
+          <t>['hasil', 'monetisasi', 'insya', 'allah', 'membeli', 'beras', 'santri', 'anak', 'yatim', 'masyarakat', 'dhuafa']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['hasil', 'monetisasi', 'insya', 'allah', 'beli', 'beras', 'santri', 'anak', 'yatim', 'masyarakat', 'dhuafa']</t>
         </is>
       </c>
     </row>
@@ -4023,34 +4499,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>13949</v>
+        <v>29551</v>
       </c>
       <c r="C101" t="n">
-        <v>179</v>
+        <v>345</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>bpd riau bank riau kepri cabang syariah kode bank atas nama yayasan tabung wakaf umat</t>
+          <t>pada hari senin februari monetisasi channel youtube tabung wakaf umat official alhamdulillah masuk ke rek</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>['bpd', 'riau', 'bank', 'riau', 'kepri', 'cabang', 'syariah', 'kode', 'bank', 'atas', 'nama', 'yayasan', 'tabung', 'wakaf', 'umat']</t>
+          <t>['pada', 'hari', 'senin', 'februari', 'monetisasi', 'channel', 'youtube', 'tabung', 'wakaf', 'umat', 'official', 'alhamdulillah', 'masuk', 'ke', 'rek']</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
+          <t>['pada', 'hari', 'senin', 'februari', 'monetisasi', 'channel', 'youtube', 'tabung', 'wakaf', 'umat', 'official', 'alhamdulillah', 'masuk', 'ke', 'rek']</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>['bpd', 'riau', 'bank', 'riau', 'kepri', 'cabang', 'syariah', 'kode', 'bank', 'nama', 'yayasan', 'tabung', 'wakaf', 'umat']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['bpd', 'riau', 'bank', 'riau', 'kepri', 'cabang', 'syariah', 'kode', 'bank', 'nama', 'yayasan', 'tabung', 'wakaf', 'umat']</t>
+          <t>['senin', 'februari', 'monetisasi', 'channel', 'youtube', 'tabung', 'wakaf', 'umat', 'official', 'alhamdulillah', 'masuk', 'rek']</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>['senin', 'februari', 'monetisasi', 'channel', 'youtube', 'tabung', 'wakaf', 'umat', 'official', 'alhamdulillah', 'masuk', 'rek']</t>
         </is>
       </c>
     </row>
